--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\RPackages\china_co2\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FB1B49-96CC-44DA-91C6-31EDC5891DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829E2066-B52D-4731-8602-0B68725A7C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,28 +890,28 @@
     <t>2018-05-07</t>
   </si>
   <si>
-    <t>2007-06:2023-08</t>
+    <t>2007-06:2023-09</t>
   </si>
   <si>
-    <t>2007-12:2023-08</t>
+    <t>2007-12:2023-09</t>
   </si>
   <si>
-    <t>2008-04:2023-08</t>
+    <t>2008-04:2023-09</t>
   </si>
   <si>
-    <t>2011-04:2023-08</t>
+    <t>2011-04:2023-09</t>
   </si>
   <si>
-    <t>2014-12:2023-08</t>
+    <t>2014-12:2023-09</t>
   </si>
   <si>
-    <t>2011-02:2023-08</t>
+    <t>2011-02:2023-09</t>
   </si>
   <si>
-    <t>2018-02:2023-08</t>
+    <t>2018-02:2023-09</t>
   </si>
   <si>
-    <t>2023-09-27</t>
+    <t>2023-11-03</t>
   </si>
 </sst>
 </file>
@@ -919,8 +919,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -963,6 +963,9 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -971,9 +974,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1312,7 +1312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EA192"/>
+  <dimension ref="A1:EA193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
       <selection activeCell="G185" sqref="G185"/>
@@ -1334,2772 +1334,2772 @@
       </c>
     </row>
     <row r="2" spans="1:131">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AG2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AH2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AI2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AK2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AL2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AM2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AN2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AO2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AP2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AR2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AS2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AT2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AU2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AV2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="AW2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AX2" s="3" t="s">
+      <c r="AX2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="AY2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AZ2" s="3" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" s="3" t="s">
+      <c r="BA2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BB2" s="3" t="s">
+      <c r="BB2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BC2" s="3" t="s">
+      <c r="BC2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BD2" s="3" t="s">
+      <c r="BD2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BE2" s="3" t="s">
+      <c r="BE2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BF2" s="3" t="s">
+      <c r="BF2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BG2" s="3" t="s">
+      <c r="BG2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BH2" s="3" t="s">
+      <c r="BH2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BI2" s="3" t="s">
+      <c r="BI2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BJ2" s="3" t="s">
+      <c r="BJ2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BK2" s="3" t="s">
+      <c r="BK2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BL2" s="3" t="s">
+      <c r="BL2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BM2" s="3" t="s">
+      <c r="BM2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BN2" s="3" t="s">
+      <c r="BN2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BO2" s="3" t="s">
+      <c r="BO2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BP2" s="3" t="s">
+      <c r="BP2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BQ2" s="3" t="s">
+      <c r="BQ2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BR2" s="3" t="s">
+      <c r="BR2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BS2" s="3" t="s">
+      <c r="BS2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BT2" s="3" t="s">
+      <c r="BT2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BU2" s="3" t="s">
+      <c r="BU2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BV2" s="3" t="s">
+      <c r="BV2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BW2" s="3" t="s">
+      <c r="BW2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BX2" s="3" t="s">
+      <c r="BX2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BY2" s="3" t="s">
+      <c r="BY2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BZ2" s="3" t="s">
+      <c r="BZ2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="CA2" s="3" t="s">
+      <c r="CA2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="CB2" s="3" t="s">
+      <c r="CB2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="CC2" s="3" t="s">
+      <c r="CC2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="CD2" s="3" t="s">
+      <c r="CD2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="CE2" s="3" t="s">
+      <c r="CE2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="CF2" s="3" t="s">
+      <c r="CF2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="CG2" s="3" t="s">
+      <c r="CG2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="CH2" s="3" t="s">
+      <c r="CH2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CI2" s="3" t="s">
+      <c r="CI2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="CJ2" s="3" t="s">
+      <c r="CJ2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="CK2" s="3" t="s">
+      <c r="CK2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="CL2" s="3" t="s">
+      <c r="CL2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="CM2" s="3" t="s">
+      <c r="CM2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="CN2" s="3" t="s">
+      <c r="CN2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="CO2" s="3" t="s">
+      <c r="CO2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CP2" s="3" t="s">
+      <c r="CP2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="CQ2" s="3" t="s">
+      <c r="CQ2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="CR2" s="3" t="s">
+      <c r="CR2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CS2" s="3" t="s">
+      <c r="CS2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="CT2" s="3" t="s">
+      <c r="CT2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="CU2" s="3" t="s">
+      <c r="CU2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="CV2" s="3" t="s">
+      <c r="CV2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="CW2" s="3" t="s">
+      <c r="CW2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="CX2" s="3" t="s">
+      <c r="CX2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="CY2" s="3" t="s">
+      <c r="CY2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="CZ2" s="3" t="s">
+      <c r="CZ2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="DA2" s="3" t="s">
+      <c r="DA2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="DB2" s="3" t="s">
+      <c r="DB2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="DC2" s="3" t="s">
+      <c r="DC2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="DD2" s="3" t="s">
+      <c r="DD2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="DE2" s="3" t="s">
+      <c r="DE2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="DF2" s="3" t="s">
+      <c r="DF2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="DG2" s="3" t="s">
+      <c r="DG2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="DH2" s="3" t="s">
+      <c r="DH2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="DI2" s="3" t="s">
+      <c r="DI2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="DJ2" s="3" t="s">
+      <c r="DJ2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="DK2" s="3" t="s">
+      <c r="DK2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="DL2" s="3" t="s">
+      <c r="DL2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="DM2" s="3" t="s">
+      <c r="DM2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="DN2" s="3" t="s">
+      <c r="DN2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="DO2" s="3" t="s">
+      <c r="DO2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="DP2" s="3" t="s">
+      <c r="DP2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="DQ2" s="3" t="s">
+      <c r="DQ2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="DR2" s="3" t="s">
+      <c r="DR2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="DS2" s="3" t="s">
+      <c r="DS2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="DT2" s="3" t="s">
+      <c r="DT2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="DU2" s="3" t="s">
+      <c r="DU2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="DV2" s="3" t="s">
+      <c r="DV2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="DW2" s="3" t="s">
+      <c r="DW2" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="DX2" s="3" t="s">
+      <c r="DX2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DY2" s="3" t="s">
+      <c r="DY2" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="DZ2" s="3" t="s">
+      <c r="DZ2" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="EA2" s="3" t="s">
+      <c r="EA2" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:131">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AB3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AD3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AE3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AF3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AG3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AH3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AI3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AK3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AL3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AM3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AN3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AO3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AP3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AR3" s="3" t="s">
+      <c r="AR3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AS3" s="3" t="s">
+      <c r="AS3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AT3" s="3" t="s">
+      <c r="AT3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AU3" s="3" t="s">
+      <c r="AU3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AV3" s="3" t="s">
+      <c r="AV3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AW3" s="3" t="s">
+      <c r="AW3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AX3" s="3" t="s">
+      <c r="AX3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AY3" s="3" t="s">
+      <c r="AY3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AZ3" s="3" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BA3" s="3" t="s">
+      <c r="BA3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BB3" s="3" t="s">
+      <c r="BB3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BC3" s="3" t="s">
+      <c r="BC3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BD3" s="3" t="s">
+      <c r="BD3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BE3" s="3" t="s">
+      <c r="BE3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BF3" s="3" t="s">
+      <c r="BF3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BG3" s="3" t="s">
+      <c r="BG3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BH3" s="3" t="s">
+      <c r="BH3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BI3" s="3" t="s">
+      <c r="BI3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BJ3" s="3" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BK3" s="3" t="s">
+      <c r="BK3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BL3" s="3" t="s">
+      <c r="BL3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BM3" s="3" t="s">
+      <c r="BM3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BN3" s="3" t="s">
+      <c r="BN3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BO3" s="3" t="s">
+      <c r="BO3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BP3" s="3" t="s">
+      <c r="BP3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BQ3" s="3" t="s">
+      <c r="BQ3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BR3" s="3" t="s">
+      <c r="BR3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BS3" s="3" t="s">
+      <c r="BS3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BT3" s="3" t="s">
+      <c r="BT3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BU3" s="3" t="s">
+      <c r="BU3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BV3" s="3" t="s">
+      <c r="BV3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BW3" s="3" t="s">
+      <c r="BW3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BX3" s="3" t="s">
+      <c r="BX3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BY3" s="3" t="s">
+      <c r="BY3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="BZ3" s="3" t="s">
+      <c r="BZ3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CA3" s="3" t="s">
+      <c r="CA3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CB3" s="3" t="s">
+      <c r="CB3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CC3" s="3" t="s">
+      <c r="CC3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CD3" s="3" t="s">
+      <c r="CD3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CE3" s="3" t="s">
+      <c r="CE3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CF3" s="3" t="s">
+      <c r="CF3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CG3" s="3" t="s">
+      <c r="CG3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CH3" s="3" t="s">
+      <c r="CH3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CI3" s="3" t="s">
+      <c r="CI3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CJ3" s="3" t="s">
+      <c r="CJ3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CK3" s="3" t="s">
+      <c r="CK3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CL3" s="3" t="s">
+      <c r="CL3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CM3" s="3" t="s">
+      <c r="CM3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CN3" s="3" t="s">
+      <c r="CN3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CO3" s="3" t="s">
+      <c r="CO3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="CP3" s="3" t="s">
+      <c r="CP3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="CQ3" s="3" t="s">
+      <c r="CQ3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="CR3" s="3" t="s">
+      <c r="CR3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="CS3" s="3" t="s">
+      <c r="CS3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="CT3" s="3" t="s">
+      <c r="CT3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="CU3" s="3" t="s">
+      <c r="CU3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="CV3" s="3" t="s">
+      <c r="CV3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CW3" s="3" t="s">
+      <c r="CW3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CX3" s="3" t="s">
+      <c r="CX3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CY3" s="3" t="s">
+      <c r="CY3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CZ3" s="3" t="s">
+      <c r="CZ3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DA3" s="3" t="s">
+      <c r="DA3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DB3" s="3" t="s">
+      <c r="DB3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DC3" s="3" t="s">
+      <c r="DC3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DD3" s="3" t="s">
+      <c r="DD3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DE3" s="3" t="s">
+      <c r="DE3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DF3" s="3" t="s">
+      <c r="DF3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DG3" s="3" t="s">
+      <c r="DG3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DH3" s="3" t="s">
+      <c r="DH3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DI3" s="3" t="s">
+      <c r="DI3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DJ3" s="3" t="s">
+      <c r="DJ3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DK3" s="3" t="s">
+      <c r="DK3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DL3" s="3" t="s">
+      <c r="DL3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DM3" s="3" t="s">
+      <c r="DM3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DN3" s="3" t="s">
+      <c r="DN3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DO3" s="3" t="s">
+      <c r="DO3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DP3" s="3" t="s">
+      <c r="DP3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DQ3" s="3" t="s">
+      <c r="DQ3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DR3" s="3" t="s">
+      <c r="DR3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DS3" s="3" t="s">
+      <c r="DS3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DT3" s="3" t="s">
+      <c r="DT3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DU3" s="3" t="s">
+      <c r="DU3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DV3" s="3" t="s">
+      <c r="DV3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DW3" s="3" t="s">
+      <c r="DW3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DX3" s="3" t="s">
+      <c r="DX3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DY3" s="3" t="s">
+      <c r="DY3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="DZ3" s="3" t="s">
+      <c r="DZ3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="EA3" s="3" t="s">
+      <c r="EA3" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:131">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AH4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AI4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AK4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AL4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AM4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AN4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AO4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AP4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AQ4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AR4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AS4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AT4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AU4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AV4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="AW4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AX4" s="3" t="s">
+      <c r="AX4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AY4" s="3" t="s">
+      <c r="AY4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="AZ4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BA4" s="3" t="s">
+      <c r="BA4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BB4" s="3" t="s">
+      <c r="BB4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BC4" s="3" t="s">
+      <c r="BC4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BD4" s="3" t="s">
+      <c r="BD4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BE4" s="3" t="s">
+      <c r="BE4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BF4" s="3" t="s">
+      <c r="BF4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BG4" s="3" t="s">
+      <c r="BG4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BH4" s="3" t="s">
+      <c r="BH4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BI4" s="3" t="s">
+      <c r="BI4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BJ4" s="3" t="s">
+      <c r="BJ4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BK4" s="3" t="s">
+      <c r="BK4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BL4" s="3" t="s">
+      <c r="BL4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BM4" s="3" t="s">
+      <c r="BM4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BN4" s="3" t="s">
+      <c r="BN4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BO4" s="3" t="s">
+      <c r="BO4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BP4" s="3" t="s">
+      <c r="BP4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BQ4" s="3" t="s">
+      <c r="BQ4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BR4" s="3" t="s">
+      <c r="BR4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BS4" s="3" t="s">
+      <c r="BS4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BT4" s="3" t="s">
+      <c r="BT4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BU4" s="3" t="s">
+      <c r="BU4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BV4" s="3" t="s">
+      <c r="BV4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BW4" s="3" t="s">
+      <c r="BW4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BX4" s="3" t="s">
+      <c r="BX4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BY4" s="3" t="s">
+      <c r="BY4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="BZ4" s="3" t="s">
+      <c r="BZ4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CA4" s="3" t="s">
+      <c r="CA4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CB4" s="3" t="s">
+      <c r="CB4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CC4" s="3" t="s">
+      <c r="CC4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CD4" s="3" t="s">
+      <c r="CD4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CE4" s="3" t="s">
+      <c r="CE4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CF4" s="3" t="s">
+      <c r="CF4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CG4" s="3" t="s">
+      <c r="CG4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CH4" s="3" t="s">
+      <c r="CH4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CI4" s="3" t="s">
+      <c r="CI4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CJ4" s="3" t="s">
+      <c r="CJ4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CK4" s="3" t="s">
+      <c r="CK4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CL4" s="3" t="s">
+      <c r="CL4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CM4" s="3" t="s">
+      <c r="CM4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CN4" s="3" t="s">
+      <c r="CN4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CO4" s="3" t="s">
+      <c r="CO4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CP4" s="3" t="s">
+      <c r="CP4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CQ4" s="3" t="s">
+      <c r="CQ4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CR4" s="3" t="s">
+      <c r="CR4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CS4" s="3" t="s">
+      <c r="CS4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CT4" s="3" t="s">
+      <c r="CT4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CU4" s="3" t="s">
+      <c r="CU4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CV4" s="3" t="s">
+      <c r="CV4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CW4" s="3" t="s">
+      <c r="CW4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CX4" s="3" t="s">
+      <c r="CX4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CY4" s="3" t="s">
+      <c r="CY4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CZ4" s="3" t="s">
+      <c r="CZ4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DA4" s="3" t="s">
+      <c r="DA4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DB4" s="3" t="s">
+      <c r="DB4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DC4" s="3" t="s">
+      <c r="DC4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DD4" s="3" t="s">
+      <c r="DD4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DE4" s="3" t="s">
+      <c r="DE4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DF4" s="3" t="s">
+      <c r="DF4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DG4" s="3" t="s">
+      <c r="DG4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DH4" s="3" t="s">
+      <c r="DH4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DI4" s="3" t="s">
+      <c r="DI4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DJ4" s="3" t="s">
+      <c r="DJ4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DK4" s="3" t="s">
+      <c r="DK4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DL4" s="3" t="s">
+      <c r="DL4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DM4" s="3" t="s">
+      <c r="DM4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DN4" s="3" t="s">
+      <c r="DN4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DO4" s="3" t="s">
+      <c r="DO4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DP4" s="3" t="s">
+      <c r="DP4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DQ4" s="3" t="s">
+      <c r="DQ4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DR4" s="3" t="s">
+      <c r="DR4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DS4" s="3" t="s">
+      <c r="DS4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DT4" s="3" t="s">
+      <c r="DT4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DU4" s="3" t="s">
+      <c r="DU4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DV4" s="3" t="s">
+      <c r="DV4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DW4" s="3" t="s">
+      <c r="DW4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DX4" s="3" t="s">
+      <c r="DX4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DY4" s="3" t="s">
+      <c r="DY4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="DZ4" s="3" t="s">
+      <c r="DZ4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="EA4" s="3" t="s">
+      <c r="EA4" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:131">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="V5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Y5" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AA5" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AB5" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AC5" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AD5" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AE5" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AF5" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AG5" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AH5" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AI5" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AJ5" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AK5" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="AL5" s="3" t="s">
+      <c r="AL5" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="AM5" s="3" t="s">
+      <c r="AM5" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="AN5" s="3" t="s">
+      <c r="AN5" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AO5" s="3" t="s">
+      <c r="AO5" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="AP5" s="3" t="s">
+      <c r="AP5" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="AQ5" s="3" t="s">
+      <c r="AQ5" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="AR5" s="3" t="s">
+      <c r="AR5" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="AS5" s="3" t="s">
+      <c r="AS5" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="AT5" s="3" t="s">
+      <c r="AT5" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="AU5" s="3" t="s">
+      <c r="AU5" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="AV5" s="3" t="s">
+      <c r="AV5" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="AW5" s="3" t="s">
+      <c r="AW5" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AX5" s="3" t="s">
+      <c r="AX5" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="AY5" s="3" t="s">
+      <c r="AY5" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="AZ5" s="3" t="s">
+      <c r="AZ5" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="BA5" s="3" t="s">
+      <c r="BA5" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="BB5" s="3" t="s">
+      <c r="BB5" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="BC5" s="3" t="s">
+      <c r="BC5" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="BD5" s="3" t="s">
+      <c r="BD5" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="BE5" s="3" t="s">
+      <c r="BE5" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="BF5" s="3" t="s">
+      <c r="BF5" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="BG5" s="3" t="s">
+      <c r="BG5" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="BH5" s="3" t="s">
+      <c r="BH5" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="BI5" s="3" t="s">
+      <c r="BI5" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="BJ5" s="3" t="s">
+      <c r="BJ5" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="BK5" s="3" t="s">
+      <c r="BK5" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="BL5" s="3" t="s">
+      <c r="BL5" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="BM5" s="3" t="s">
+      <c r="BM5" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="BN5" s="3" t="s">
+      <c r="BN5" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="BO5" s="3" t="s">
+      <c r="BO5" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="BP5" s="3" t="s">
+      <c r="BP5" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="BQ5" s="3" t="s">
+      <c r="BQ5" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="BR5" s="3" t="s">
+      <c r="BR5" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="BS5" s="3" t="s">
+      <c r="BS5" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="BT5" s="3" t="s">
+      <c r="BT5" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="BU5" s="3" t="s">
+      <c r="BU5" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="BV5" s="3" t="s">
+      <c r="BV5" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="BW5" s="3" t="s">
+      <c r="BW5" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="BX5" s="3" t="s">
+      <c r="BX5" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="BY5" s="3" t="s">
+      <c r="BY5" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="BZ5" s="3" t="s">
+      <c r="BZ5" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="CA5" s="3" t="s">
+      <c r="CA5" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="CB5" s="3" t="s">
+      <c r="CB5" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="CC5" s="3" t="s">
+      <c r="CC5" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="CD5" s="3" t="s">
+      <c r="CD5" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="CE5" s="3" t="s">
+      <c r="CE5" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="CF5" s="3" t="s">
+      <c r="CF5" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="CG5" s="3" t="s">
+      <c r="CG5" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="CH5" s="3" t="s">
+      <c r="CH5" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="CI5" s="3" t="s">
+      <c r="CI5" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="CJ5" s="3" t="s">
+      <c r="CJ5" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="CK5" s="3" t="s">
+      <c r="CK5" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="CL5" s="3" t="s">
+      <c r="CL5" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="CM5" s="3" t="s">
+      <c r="CM5" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="CN5" s="3" t="s">
+      <c r="CN5" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="CO5" s="3" t="s">
+      <c r="CO5" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="CP5" s="3" t="s">
+      <c r="CP5" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="CQ5" s="3" t="s">
+      <c r="CQ5" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="CR5" s="3" t="s">
+      <c r="CR5" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="CS5" s="3" t="s">
+      <c r="CS5" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="CT5" s="3" t="s">
+      <c r="CT5" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="CU5" s="3" t="s">
+      <c r="CU5" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="CV5" s="3" t="s">
+      <c r="CV5" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="CW5" s="3" t="s">
+      <c r="CW5" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="CX5" s="3" t="s">
+      <c r="CX5" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="CY5" s="3" t="s">
+      <c r="CY5" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="CZ5" s="3" t="s">
+      <c r="CZ5" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="DA5" s="3" t="s">
+      <c r="DA5" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="DB5" s="3" t="s">
+      <c r="DB5" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="DC5" s="3" t="s">
+      <c r="DC5" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="DD5" s="3" t="s">
+      <c r="DD5" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="DE5" s="3" t="s">
+      <c r="DE5" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="DF5" s="3" t="s">
+      <c r="DF5" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="DG5" s="3" t="s">
+      <c r="DG5" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="DH5" s="3" t="s">
+      <c r="DH5" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="DI5" s="3" t="s">
+      <c r="DI5" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="DJ5" s="3" t="s">
+      <c r="DJ5" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="DK5" s="3" t="s">
+      <c r="DK5" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="DL5" s="3" t="s">
+      <c r="DL5" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="DM5" s="3" t="s">
+      <c r="DM5" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="DN5" s="3" t="s">
+      <c r="DN5" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="DO5" s="3" t="s">
+      <c r="DO5" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="DP5" s="3" t="s">
+      <c r="DP5" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="DQ5" s="3" t="s">
+      <c r="DQ5" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="DR5" s="3" t="s">
+      <c r="DR5" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="DS5" s="3" t="s">
+      <c r="DS5" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="DT5" s="3" t="s">
+      <c r="DT5" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="DU5" s="3" t="s">
+      <c r="DU5" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="DV5" s="3" t="s">
+      <c r="DV5" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="DW5" s="3" t="s">
+      <c r="DW5" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="DX5" s="3" t="s">
+      <c r="DX5" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="DY5" s="3" t="s">
+      <c r="DY5" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="DZ5" s="3" t="s">
+      <c r="DZ5" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="EA5" s="3" t="s">
+      <c r="EA5" s="4" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:131">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="S6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="U6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="V6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="W6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="X6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Y6" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="Z6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AA6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AB6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AC6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AD6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AE6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AF6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AG6" s="3" t="s">
+      <c r="AG6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AH6" s="3" t="s">
+      <c r="AH6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AI6" s="3" t="s">
+      <c r="AI6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AJ6" s="3" t="s">
+      <c r="AJ6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AK6" s="3" t="s">
+      <c r="AK6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AL6" s="3" t="s">
+      <c r="AL6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AM6" s="3" t="s">
+      <c r="AM6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AN6" s="3" t="s">
+      <c r="AN6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AO6" s="3" t="s">
+      <c r="AO6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AP6" s="3" t="s">
+      <c r="AP6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AQ6" s="3" t="s">
+      <c r="AQ6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AR6" s="3" t="s">
+      <c r="AR6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AS6" s="3" t="s">
+      <c r="AS6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AT6" s="3" t="s">
+      <c r="AT6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AU6" s="3" t="s">
+      <c r="AU6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AV6" s="3" t="s">
+      <c r="AV6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AW6" s="3" t="s">
+      <c r="AW6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AX6" s="3" t="s">
+      <c r="AX6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AY6" s="3" t="s">
+      <c r="AY6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AZ6" s="3" t="s">
+      <c r="AZ6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="BA6" s="3" t="s">
+      <c r="BA6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="BB6" s="3" t="s">
+      <c r="BB6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="BC6" s="3" t="s">
+      <c r="BC6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="BD6" s="3" t="s">
+      <c r="BD6" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="BE6" s="3" t="s">
+      <c r="BE6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="BF6" s="3" t="s">
+      <c r="BF6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="BG6" s="3" t="s">
+      <c r="BG6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="BH6" s="3" t="s">
+      <c r="BH6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="BI6" s="3" t="s">
+      <c r="BI6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="BJ6" s="3" t="s">
+      <c r="BJ6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="BK6" s="3" t="s">
+      <c r="BK6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="BL6" s="3" t="s">
+      <c r="BL6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="BM6" s="3" t="s">
+      <c r="BM6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="BN6" s="3" t="s">
+      <c r="BN6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="BO6" s="3" t="s">
+      <c r="BO6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="BP6" s="3" t="s">
+      <c r="BP6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="BQ6" s="3" t="s">
+      <c r="BQ6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="BR6" s="3" t="s">
+      <c r="BR6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="BS6" s="3" t="s">
+      <c r="BS6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="BT6" s="3" t="s">
+      <c r="BT6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="BU6" s="3" t="s">
+      <c r="BU6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="BV6" s="3" t="s">
+      <c r="BV6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="BW6" s="3" t="s">
+      <c r="BW6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="BX6" s="3" t="s">
+      <c r="BX6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="BY6" s="3" t="s">
+      <c r="BY6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="BZ6" s="3" t="s">
+      <c r="BZ6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="CA6" s="3" t="s">
+      <c r="CA6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="CB6" s="3" t="s">
+      <c r="CB6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="CC6" s="3" t="s">
+      <c r="CC6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="CD6" s="3" t="s">
+      <c r="CD6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="CE6" s="3" t="s">
+      <c r="CE6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="CF6" s="3" t="s">
+      <c r="CF6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="CG6" s="3" t="s">
+      <c r="CG6" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="CH6" s="3" t="s">
+      <c r="CH6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="CI6" s="3" t="s">
+      <c r="CI6" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="CJ6" s="3" t="s">
+      <c r="CJ6" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="CK6" s="3" t="s">
+      <c r="CK6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="CL6" s="3" t="s">
+      <c r="CL6" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="CM6" s="3" t="s">
+      <c r="CM6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="CN6" s="3" t="s">
+      <c r="CN6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="CO6" s="3" t="s">
+      <c r="CO6" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="CP6" s="3" t="s">
+      <c r="CP6" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="CQ6" s="3" t="s">
+      <c r="CQ6" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="CR6" s="3" t="s">
+      <c r="CR6" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="CS6" s="3" t="s">
+      <c r="CS6" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="CT6" s="3" t="s">
+      <c r="CT6" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="CU6" s="3" t="s">
+      <c r="CU6" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="CV6" s="3" t="s">
+      <c r="CV6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="CW6" s="3" t="s">
+      <c r="CW6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="CX6" s="3" t="s">
+      <c r="CX6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="CY6" s="3" t="s">
+      <c r="CY6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="CZ6" s="3" t="s">
+      <c r="CZ6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DA6" s="3" t="s">
+      <c r="DA6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DB6" s="3" t="s">
+      <c r="DB6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DC6" s="3" t="s">
+      <c r="DC6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DD6" s="3" t="s">
+      <c r="DD6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DE6" s="3" t="s">
+      <c r="DE6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DF6" s="3" t="s">
+      <c r="DF6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DG6" s="3" t="s">
+      <c r="DG6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DH6" s="3" t="s">
+      <c r="DH6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DI6" s="3" t="s">
+      <c r="DI6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DJ6" s="3" t="s">
+      <c r="DJ6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DK6" s="3" t="s">
+      <c r="DK6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DL6" s="3" t="s">
+      <c r="DL6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DM6" s="3" t="s">
+      <c r="DM6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DN6" s="3" t="s">
+      <c r="DN6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DO6" s="3" t="s">
+      <c r="DO6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DP6" s="3" t="s">
+      <c r="DP6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DQ6" s="3" t="s">
+      <c r="DQ6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DR6" s="3" t="s">
+      <c r="DR6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DS6" s="3" t="s">
+      <c r="DS6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DT6" s="3" t="s">
+      <c r="DT6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DU6" s="3" t="s">
+      <c r="DU6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DV6" s="3" t="s">
+      <c r="DV6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DW6" s="3" t="s">
+      <c r="DW6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DX6" s="3" t="s">
+      <c r="DX6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DY6" s="3" t="s">
+      <c r="DY6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DZ6" s="3" t="s">
+      <c r="DZ6" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="EA6" s="3" t="s">
+      <c r="EA6" s="4" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:131">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="T7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="U7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="V7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="W7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="X7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Y7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="Z7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AA7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AB7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AC7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AD7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AE7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AF7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AG7" s="3" t="s">
+      <c r="AG7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AH7" s="3" t="s">
+      <c r="AH7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AI7" s="3" t="s">
+      <c r="AI7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AJ7" s="3" t="s">
+      <c r="AJ7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AK7" s="3" t="s">
+      <c r="AK7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AL7" s="3" t="s">
+      <c r="AL7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AM7" s="3" t="s">
+      <c r="AM7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AN7" s="3" t="s">
+      <c r="AN7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AO7" s="3" t="s">
+      <c r="AO7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AP7" s="3" t="s">
+      <c r="AP7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AQ7" s="3" t="s">
+      <c r="AQ7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AR7" s="3" t="s">
+      <c r="AR7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AS7" s="3" t="s">
+      <c r="AS7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AT7" s="3" t="s">
+      <c r="AT7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AU7" s="3" t="s">
+      <c r="AU7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AV7" s="3" t="s">
+      <c r="AV7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AW7" s="3" t="s">
+      <c r="AW7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AX7" s="3" t="s">
+      <c r="AX7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AY7" s="3" t="s">
+      <c r="AY7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AZ7" s="3" t="s">
+      <c r="AZ7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BA7" s="3" t="s">
+      <c r="BA7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BB7" s="3" t="s">
+      <c r="BB7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BC7" s="3" t="s">
+      <c r="BC7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BD7" s="3" t="s">
+      <c r="BD7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BE7" s="3" t="s">
+      <c r="BE7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BF7" s="3" t="s">
+      <c r="BF7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BG7" s="3" t="s">
+      <c r="BG7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BH7" s="3" t="s">
+      <c r="BH7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BI7" s="3" t="s">
+      <c r="BI7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BJ7" s="3" t="s">
+      <c r="BJ7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BK7" s="3" t="s">
+      <c r="BK7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BL7" s="3" t="s">
+      <c r="BL7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BM7" s="3" t="s">
+      <c r="BM7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BN7" s="3" t="s">
+      <c r="BN7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BO7" s="3" t="s">
+      <c r="BO7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BP7" s="3" t="s">
+      <c r="BP7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BQ7" s="3" t="s">
+      <c r="BQ7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BR7" s="3" t="s">
+      <c r="BR7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BS7" s="3" t="s">
+      <c r="BS7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BT7" s="3" t="s">
+      <c r="BT7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BU7" s="3" t="s">
+      <c r="BU7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BV7" s="3" t="s">
+      <c r="BV7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BW7" s="3" t="s">
+      <c r="BW7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BX7" s="3" t="s">
+      <c r="BX7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BY7" s="3" t="s">
+      <c r="BY7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BZ7" s="3" t="s">
+      <c r="BZ7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CA7" s="3" t="s">
+      <c r="CA7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CB7" s="3" t="s">
+      <c r="CB7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CC7" s="3" t="s">
+      <c r="CC7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CD7" s="3" t="s">
+      <c r="CD7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CE7" s="3" t="s">
+      <c r="CE7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CF7" s="3" t="s">
+      <c r="CF7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CG7" s="3" t="s">
+      <c r="CG7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CH7" s="3" t="s">
+      <c r="CH7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CI7" s="3" t="s">
+      <c r="CI7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CJ7" s="3" t="s">
+      <c r="CJ7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CK7" s="3" t="s">
+      <c r="CK7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CL7" s="3" t="s">
+      <c r="CL7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CM7" s="3" t="s">
+      <c r="CM7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CN7" s="3" t="s">
+      <c r="CN7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CO7" s="3" t="s">
+      <c r="CO7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CP7" s="3" t="s">
+      <c r="CP7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CQ7" s="3" t="s">
+      <c r="CQ7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CR7" s="3" t="s">
+      <c r="CR7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CS7" s="3" t="s">
+      <c r="CS7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CT7" s="3" t="s">
+      <c r="CT7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CU7" s="3" t="s">
+      <c r="CU7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CV7" s="3" t="s">
+      <c r="CV7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CW7" s="3" t="s">
+      <c r="CW7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CX7" s="3" t="s">
+      <c r="CX7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CY7" s="3" t="s">
+      <c r="CY7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CZ7" s="3" t="s">
+      <c r="CZ7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DA7" s="3" t="s">
+      <c r="DA7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DB7" s="3" t="s">
+      <c r="DB7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DC7" s="3" t="s">
+      <c r="DC7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DD7" s="3" t="s">
+      <c r="DD7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DE7" s="3" t="s">
+      <c r="DE7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DF7" s="3" t="s">
+      <c r="DF7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DG7" s="3" t="s">
+      <c r="DG7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DH7" s="3" t="s">
+      <c r="DH7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DI7" s="3" t="s">
+      <c r="DI7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DJ7" s="3" t="s">
+      <c r="DJ7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DK7" s="3" t="s">
+      <c r="DK7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DL7" s="3" t="s">
+      <c r="DL7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DM7" s="3" t="s">
+      <c r="DM7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DN7" s="3" t="s">
+      <c r="DN7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DO7" s="3" t="s">
+      <c r="DO7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DP7" s="3" t="s">
+      <c r="DP7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DQ7" s="3" t="s">
+      <c r="DQ7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DR7" s="3" t="s">
+      <c r="DR7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DS7" s="3" t="s">
+      <c r="DS7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DT7" s="3" t="s">
+      <c r="DT7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DU7" s="3" t="s">
+      <c r="DU7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DV7" s="3" t="s">
+      <c r="DV7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DW7" s="3" t="s">
+      <c r="DW7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DX7" s="3" t="s">
+      <c r="DX7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DY7" s="3" t="s">
+      <c r="DY7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DZ7" s="3" t="s">
+      <c r="DZ7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="EA7" s="3" t="s">
+      <c r="EA7" s="4" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:131">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="T8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="U8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="V8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="W8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="X8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="Y8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="Z8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AA8" s="4" t="s">
+      <c r="AA8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AB8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AC8" s="4" t="s">
+      <c r="AC8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AD8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AE8" s="4" t="s">
+      <c r="AE8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AF8" s="4" t="s">
+      <c r="AF8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AG8" s="4" t="s">
+      <c r="AG8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AH8" s="4" t="s">
+      <c r="AH8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AI8" s="4" t="s">
+      <c r="AI8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AJ8" s="4" t="s">
+      <c r="AJ8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AK8" s="4" t="s">
+      <c r="AK8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AL8" s="4" t="s">
+      <c r="AL8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AM8" s="4" t="s">
+      <c r="AM8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AN8" s="4" t="s">
+      <c r="AN8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AO8" s="4" t="s">
+      <c r="AO8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AP8" s="4" t="s">
+      <c r="AP8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AQ8" s="4" t="s">
+      <c r="AQ8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AR8" s="4" t="s">
+      <c r="AR8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AS8" s="4" t="s">
+      <c r="AS8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AT8" s="4" t="s">
+      <c r="AT8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AU8" s="4" t="s">
+      <c r="AU8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AV8" s="4" t="s">
+      <c r="AV8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AW8" s="4" t="s">
+      <c r="AW8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AX8" s="4" t="s">
+      <c r="AX8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AY8" s="4" t="s">
+      <c r="AY8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AZ8" s="4" t="s">
+      <c r="AZ8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BA8" s="4" t="s">
+      <c r="BA8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BB8" s="4" t="s">
+      <c r="BB8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BC8" s="4" t="s">
+      <c r="BC8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BD8" s="4" t="s">
+      <c r="BD8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BE8" s="4" t="s">
+      <c r="BE8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BF8" s="4" t="s">
+      <c r="BF8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BG8" s="4" t="s">
+      <c r="BG8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BH8" s="4" t="s">
+      <c r="BH8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BI8" s="4" t="s">
+      <c r="BI8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BJ8" s="4" t="s">
+      <c r="BJ8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BK8" s="4" t="s">
+      <c r="BK8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BL8" s="4" t="s">
+      <c r="BL8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BM8" s="4" t="s">
+      <c r="BM8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BN8" s="4" t="s">
+      <c r="BN8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BO8" s="4" t="s">
+      <c r="BO8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BP8" s="4" t="s">
+      <c r="BP8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BQ8" s="4" t="s">
+      <c r="BQ8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BR8" s="4" t="s">
+      <c r="BR8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BS8" s="4" t="s">
+      <c r="BS8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BT8" s="4" t="s">
+      <c r="BT8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BU8" s="4" t="s">
+      <c r="BU8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BV8" s="4" t="s">
+      <c r="BV8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BW8" s="4" t="s">
+      <c r="BW8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BX8" s="4" t="s">
+      <c r="BX8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BY8" s="4" t="s">
+      <c r="BY8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="BZ8" s="4" t="s">
+      <c r="BZ8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="CA8" s="4" t="s">
+      <c r="CA8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="CB8" s="4" t="s">
+      <c r="CB8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="CC8" s="4" t="s">
+      <c r="CC8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="CD8" s="4" t="s">
+      <c r="CD8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="CE8" s="4" t="s">
+      <c r="CE8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="CF8" s="4" t="s">
+      <c r="CF8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="CG8" s="4" t="s">
+      <c r="CG8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="CH8" s="4" t="s">
+      <c r="CH8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="CI8" s="4" t="s">
+      <c r="CI8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="CJ8" s="4" t="s">
+      <c r="CJ8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="CK8" s="4" t="s">
+      <c r="CK8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="CL8" s="4" t="s">
+      <c r="CL8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="CM8" s="4" t="s">
+      <c r="CM8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="CN8" s="4" t="s">
+      <c r="CN8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="CO8" s="4" t="s">
+      <c r="CO8" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="CP8" s="4" t="s">
+      <c r="CP8" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="CQ8" s="4" t="s">
+      <c r="CQ8" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="CR8" s="4" t="s">
+      <c r="CR8" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="CS8" s="4" t="s">
+      <c r="CS8" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="CT8" s="4" t="s">
+      <c r="CT8" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="CU8" s="4" t="s">
+      <c r="CU8" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="CV8" s="4" t="s">
+      <c r="CV8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="CW8" s="4" t="s">
+      <c r="CW8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="CX8" s="4" t="s">
+      <c r="CX8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="CY8" s="4" t="s">
+      <c r="CY8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="CZ8" s="4" t="s">
+      <c r="CZ8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DA8" s="4" t="s">
+      <c r="DA8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DB8" s="4" t="s">
+      <c r="DB8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DC8" s="4" t="s">
+      <c r="DC8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DD8" s="4" t="s">
+      <c r="DD8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DE8" s="4" t="s">
+      <c r="DE8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DF8" s="4" t="s">
+      <c r="DF8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DG8" s="4" t="s">
+      <c r="DG8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DH8" s="4" t="s">
+      <c r="DH8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DI8" s="4" t="s">
+      <c r="DI8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DJ8" s="4" t="s">
+      <c r="DJ8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DK8" s="4" t="s">
+      <c r="DK8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DL8" s="4" t="s">
+      <c r="DL8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DM8" s="4" t="s">
+      <c r="DM8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DN8" s="4" t="s">
+      <c r="DN8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DO8" s="4" t="s">
+      <c r="DO8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DP8" s="4" t="s">
+      <c r="DP8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DQ8" s="4" t="s">
+      <c r="DQ8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DR8" s="4" t="s">
+      <c r="DR8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DS8" s="4" t="s">
+      <c r="DS8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DT8" s="4" t="s">
+      <c r="DT8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DU8" s="4" t="s">
+      <c r="DU8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DV8" s="4" t="s">
+      <c r="DV8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DW8" s="4" t="s">
+      <c r="DW8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DX8" s="4" t="s">
+      <c r="DX8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DY8" s="4" t="s">
+      <c r="DY8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="DZ8" s="4" t="s">
+      <c r="DZ8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="EA8" s="4" t="s">
+      <c r="EA8" s="5" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:131">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>36891</v>
       </c>
       <c r="B9" s="2">
@@ -4494,7 +4494,7 @@
       </c>
     </row>
     <row r="10" spans="1:131">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>37256</v>
       </c>
       <c r="B10" s="2">
@@ -4889,7 +4889,7 @@
       </c>
     </row>
     <row r="11" spans="1:131">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>37621</v>
       </c>
       <c r="B11" s="2">
@@ -5284,7 +5284,7 @@
       </c>
     </row>
     <row r="12" spans="1:131">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>37986</v>
       </c>
       <c r="B12" s="2">
@@ -5679,7 +5679,7 @@
       </c>
     </row>
     <row r="13" spans="1:131">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>38352</v>
       </c>
       <c r="B13" s="2">
@@ -6074,7 +6074,7 @@
       </c>
     </row>
     <row r="14" spans="1:131">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>39082</v>
       </c>
       <c r="B14" s="2">
@@ -6469,7 +6469,7 @@
       </c>
     </row>
     <row r="15" spans="1:131">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>39263</v>
       </c>
       <c r="B15" s="2">
@@ -6864,7 +6864,7 @@
       </c>
     </row>
     <row r="16" spans="1:131">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>39294</v>
       </c>
       <c r="B16" s="2">
@@ -7259,7 +7259,7 @@
       </c>
     </row>
     <row r="17" spans="1:131">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>39325</v>
       </c>
       <c r="B17" s="2">
@@ -7654,7 +7654,7 @@
       </c>
     </row>
     <row r="18" spans="1:131">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>39355</v>
       </c>
       <c r="B18" s="2">
@@ -8049,7 +8049,7 @@
       </c>
     </row>
     <row r="19" spans="1:131">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>39386</v>
       </c>
       <c r="B19" s="2">
@@ -8444,7 +8444,7 @@
       </c>
     </row>
     <row r="20" spans="1:131">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>39416</v>
       </c>
       <c r="B20" s="2">
@@ -8839,7 +8839,7 @@
       </c>
     </row>
     <row r="21" spans="1:131">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>39447</v>
       </c>
       <c r="B21" s="2">
@@ -9234,7 +9234,7 @@
       </c>
     </row>
     <row r="22" spans="1:131">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>39507</v>
       </c>
       <c r="B22" s="2">
@@ -9629,7 +9629,7 @@
       </c>
     </row>
     <row r="23" spans="1:131">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>39538</v>
       </c>
       <c r="B23" s="2">
@@ -10024,7 +10024,7 @@
       </c>
     </row>
     <row r="24" spans="1:131">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>39568</v>
       </c>
       <c r="B24" s="2">
@@ -10419,7 +10419,7 @@
       </c>
     </row>
     <row r="25" spans="1:131">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>39599</v>
       </c>
       <c r="B25" s="2">
@@ -10814,7 +10814,7 @@
       </c>
     </row>
     <row r="26" spans="1:131">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>39629</v>
       </c>
       <c r="B26" s="2">
@@ -11209,7 +11209,7 @@
       </c>
     </row>
     <row r="27" spans="1:131">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>39660</v>
       </c>
       <c r="B27" s="2">
@@ -11604,7 +11604,7 @@
       </c>
     </row>
     <row r="28" spans="1:131">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>39691</v>
       </c>
       <c r="B28" s="2">
@@ -11999,7 +11999,7 @@
       </c>
     </row>
     <row r="29" spans="1:131">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>39721</v>
       </c>
       <c r="B29" s="2">
@@ -12394,7 +12394,7 @@
       </c>
     </row>
     <row r="30" spans="1:131">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>39752</v>
       </c>
       <c r="B30" s="2">
@@ -12789,7 +12789,7 @@
       </c>
     </row>
     <row r="31" spans="1:131">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>39782</v>
       </c>
       <c r="B31" s="2">
@@ -13184,7 +13184,7 @@
       </c>
     </row>
     <row r="32" spans="1:131">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>39813</v>
       </c>
       <c r="B32" s="2">
@@ -13579,7 +13579,7 @@
       </c>
     </row>
     <row r="33" spans="1:131">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>39872</v>
       </c>
       <c r="B33" s="2">
@@ -13974,7 +13974,7 @@
       </c>
     </row>
     <row r="34" spans="1:131">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>39903</v>
       </c>
       <c r="B34" s="2">
@@ -14369,7 +14369,7 @@
       </c>
     </row>
     <row r="35" spans="1:131">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>39933</v>
       </c>
       <c r="B35" s="2">
@@ -14764,7 +14764,7 @@
       </c>
     </row>
     <row r="36" spans="1:131">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>39964</v>
       </c>
       <c r="B36" s="2">
@@ -15159,7 +15159,7 @@
       </c>
     </row>
     <row r="37" spans="1:131">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>39994</v>
       </c>
       <c r="B37" s="2">
@@ -15554,7 +15554,7 @@
       </c>
     </row>
     <row r="38" spans="1:131">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>40025</v>
       </c>
       <c r="B38" s="2">
@@ -15949,7 +15949,7 @@
       </c>
     </row>
     <row r="39" spans="1:131">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>40056</v>
       </c>
       <c r="B39" s="2">
@@ -16344,7 +16344,7 @@
       </c>
     </row>
     <row r="40" spans="1:131">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>40086</v>
       </c>
       <c r="B40" s="2">
@@ -16739,7 +16739,7 @@
       </c>
     </row>
     <row r="41" spans="1:131">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>40117</v>
       </c>
       <c r="B41" s="2">
@@ -17134,7 +17134,7 @@
       </c>
     </row>
     <row r="42" spans="1:131">
-      <c r="A42" s="5">
+      <c r="A42" s="3">
         <v>40147</v>
       </c>
       <c r="B42" s="2">
@@ -17529,7 +17529,7 @@
       </c>
     </row>
     <row r="43" spans="1:131">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>40178</v>
       </c>
       <c r="B43" s="2">
@@ -17924,7 +17924,7 @@
       </c>
     </row>
     <row r="44" spans="1:131">
-      <c r="A44" s="5">
+      <c r="A44" s="3">
         <v>40237</v>
       </c>
       <c r="B44" s="2">
@@ -18319,7 +18319,7 @@
       </c>
     </row>
     <row r="45" spans="1:131">
-      <c r="A45" s="5">
+      <c r="A45" s="3">
         <v>40268</v>
       </c>
       <c r="B45" s="2">
@@ -18714,7 +18714,7 @@
       </c>
     </row>
     <row r="46" spans="1:131">
-      <c r="A46" s="5">
+      <c r="A46" s="3">
         <v>40298</v>
       </c>
       <c r="B46" s="2">
@@ -19109,7 +19109,7 @@
       </c>
     </row>
     <row r="47" spans="1:131">
-      <c r="A47" s="5">
+      <c r="A47" s="3">
         <v>40329</v>
       </c>
       <c r="B47" s="2">
@@ -19504,7 +19504,7 @@
       </c>
     </row>
     <row r="48" spans="1:131">
-      <c r="A48" s="5">
+      <c r="A48" s="3">
         <v>40359</v>
       </c>
       <c r="B48" s="2">
@@ -19899,7 +19899,7 @@
       </c>
     </row>
     <row r="49" spans="1:131">
-      <c r="A49" s="5">
+      <c r="A49" s="3">
         <v>40390</v>
       </c>
       <c r="B49" s="2">
@@ -20294,7 +20294,7 @@
       </c>
     </row>
     <row r="50" spans="1:131">
-      <c r="A50" s="5">
+      <c r="A50" s="3">
         <v>40421</v>
       </c>
       <c r="B50" s="2">
@@ -20689,7 +20689,7 @@
       </c>
     </row>
     <row r="51" spans="1:131">
-      <c r="A51" s="5">
+      <c r="A51" s="3">
         <v>40451</v>
       </c>
       <c r="B51" s="2">
@@ -21084,7 +21084,7 @@
       </c>
     </row>
     <row r="52" spans="1:131">
-      <c r="A52" s="5">
+      <c r="A52" s="3">
         <v>40482</v>
       </c>
       <c r="B52" s="2">
@@ -21479,7 +21479,7 @@
       </c>
     </row>
     <row r="53" spans="1:131">
-      <c r="A53" s="5">
+      <c r="A53" s="3">
         <v>40512</v>
       </c>
       <c r="B53" s="2">
@@ -21874,7 +21874,7 @@
       </c>
     </row>
     <row r="54" spans="1:131">
-      <c r="A54" s="5">
+      <c r="A54" s="3">
         <v>40543</v>
       </c>
       <c r="B54" s="2">
@@ -22269,7 +22269,7 @@
       </c>
     </row>
     <row r="55" spans="1:131">
-      <c r="A55" s="5">
+      <c r="A55" s="3">
         <v>40602</v>
       </c>
       <c r="B55" s="2">
@@ -22664,7 +22664,7 @@
       </c>
     </row>
     <row r="56" spans="1:131">
-      <c r="A56" s="5">
+      <c r="A56" s="3">
         <v>40633</v>
       </c>
       <c r="B56" s="2">
@@ -23059,7 +23059,7 @@
       </c>
     </row>
     <row r="57" spans="1:131">
-      <c r="A57" s="5">
+      <c r="A57" s="3">
         <v>40663</v>
       </c>
       <c r="B57" s="2">
@@ -23454,7 +23454,7 @@
       </c>
     </row>
     <row r="58" spans="1:131">
-      <c r="A58" s="5">
+      <c r="A58" s="3">
         <v>40694</v>
       </c>
       <c r="B58" s="2">
@@ -23849,7 +23849,7 @@
       </c>
     </row>
     <row r="59" spans="1:131">
-      <c r="A59" s="5">
+      <c r="A59" s="3">
         <v>40724</v>
       </c>
       <c r="B59" s="2">
@@ -24244,7 +24244,7 @@
       </c>
     </row>
     <row r="60" spans="1:131">
-      <c r="A60" s="5">
+      <c r="A60" s="3">
         <v>40755</v>
       </c>
       <c r="B60" s="2">
@@ -24639,7 +24639,7 @@
       </c>
     </row>
     <row r="61" spans="1:131">
-      <c r="A61" s="5">
+      <c r="A61" s="3">
         <v>40786</v>
       </c>
       <c r="B61" s="2">
@@ -25034,7 +25034,7 @@
       </c>
     </row>
     <row r="62" spans="1:131">
-      <c r="A62" s="5">
+      <c r="A62" s="3">
         <v>40816</v>
       </c>
       <c r="B62" s="2">
@@ -25429,7 +25429,7 @@
       </c>
     </row>
     <row r="63" spans="1:131">
-      <c r="A63" s="5">
+      <c r="A63" s="3">
         <v>40847</v>
       </c>
       <c r="B63" s="2">
@@ -25824,7 +25824,7 @@
       </c>
     </row>
     <row r="64" spans="1:131">
-      <c r="A64" s="5">
+      <c r="A64" s="3">
         <v>40877</v>
       </c>
       <c r="B64" s="2">
@@ -26219,7 +26219,7 @@
       </c>
     </row>
     <row r="65" spans="1:131">
-      <c r="A65" s="5">
+      <c r="A65" s="3">
         <v>40908</v>
       </c>
       <c r="B65" s="2">
@@ -26614,7 +26614,7 @@
       </c>
     </row>
     <row r="66" spans="1:131">
-      <c r="A66" s="5">
+      <c r="A66" s="3">
         <v>40968</v>
       </c>
       <c r="B66" s="2">
@@ -27009,7 +27009,7 @@
       </c>
     </row>
     <row r="67" spans="1:131">
-      <c r="A67" s="5">
+      <c r="A67" s="3">
         <v>40999</v>
       </c>
       <c r="B67" s="2">
@@ -27404,7 +27404,7 @@
       </c>
     </row>
     <row r="68" spans="1:131">
-      <c r="A68" s="5">
+      <c r="A68" s="3">
         <v>41029</v>
       </c>
       <c r="B68" s="2">
@@ -27799,7 +27799,7 @@
       </c>
     </row>
     <row r="69" spans="1:131">
-      <c r="A69" s="5">
+      <c r="A69" s="3">
         <v>41060</v>
       </c>
       <c r="B69" s="2">
@@ -28194,7 +28194,7 @@
       </c>
     </row>
     <row r="70" spans="1:131">
-      <c r="A70" s="5">
+      <c r="A70" s="3">
         <v>41090</v>
       </c>
       <c r="B70" s="2">
@@ -28589,7 +28589,7 @@
       </c>
     </row>
     <row r="71" spans="1:131">
-      <c r="A71" s="5">
+      <c r="A71" s="3">
         <v>41121</v>
       </c>
       <c r="B71" s="2">
@@ -28984,7 +28984,7 @@
       </c>
     </row>
     <row r="72" spans="1:131">
-      <c r="A72" s="5">
+      <c r="A72" s="3">
         <v>41152</v>
       </c>
       <c r="B72" s="2">
@@ -29379,7 +29379,7 @@
       </c>
     </row>
     <row r="73" spans="1:131">
-      <c r="A73" s="5">
+      <c r="A73" s="3">
         <v>41182</v>
       </c>
       <c r="B73" s="2">
@@ -29774,7 +29774,7 @@
       </c>
     </row>
     <row r="74" spans="1:131">
-      <c r="A74" s="5">
+      <c r="A74" s="3">
         <v>41213</v>
       </c>
       <c r="B74" s="2">
@@ -30169,7 +30169,7 @@
       </c>
     </row>
     <row r="75" spans="1:131">
-      <c r="A75" s="5">
+      <c r="A75" s="3">
         <v>41243</v>
       </c>
       <c r="B75" s="2">
@@ -30564,7 +30564,7 @@
       </c>
     </row>
     <row r="76" spans="1:131">
-      <c r="A76" s="5">
+      <c r="A76" s="3">
         <v>41274</v>
       </c>
       <c r="B76" s="2">
@@ -30959,7 +30959,7 @@
       </c>
     </row>
     <row r="77" spans="1:131">
-      <c r="A77" s="5">
+      <c r="A77" s="3">
         <v>41333</v>
       </c>
       <c r="B77" s="2">
@@ -31354,7 +31354,7 @@
       </c>
     </row>
     <row r="78" spans="1:131">
-      <c r="A78" s="5">
+      <c r="A78" s="3">
         <v>41364</v>
       </c>
       <c r="B78" s="2">
@@ -31749,7 +31749,7 @@
       </c>
     </row>
     <row r="79" spans="1:131">
-      <c r="A79" s="5">
+      <c r="A79" s="3">
         <v>41394</v>
       </c>
       <c r="B79" s="2">
@@ -32144,7 +32144,7 @@
       </c>
     </row>
     <row r="80" spans="1:131">
-      <c r="A80" s="5">
+      <c r="A80" s="3">
         <v>41425</v>
       </c>
       <c r="B80" s="2">
@@ -32539,7 +32539,7 @@
       </c>
     </row>
     <row r="81" spans="1:131">
-      <c r="A81" s="5">
+      <c r="A81" s="3">
         <v>41455</v>
       </c>
       <c r="B81" s="2">
@@ -32934,7 +32934,7 @@
       </c>
     </row>
     <row r="82" spans="1:131">
-      <c r="A82" s="5">
+      <c r="A82" s="3">
         <v>41486</v>
       </c>
       <c r="B82" s="2">
@@ -33329,7 +33329,7 @@
       </c>
     </row>
     <row r="83" spans="1:131">
-      <c r="A83" s="5">
+      <c r="A83" s="3">
         <v>41517</v>
       </c>
       <c r="B83" s="2">
@@ -33724,7 +33724,7 @@
       </c>
     </row>
     <row r="84" spans="1:131">
-      <c r="A84" s="5">
+      <c r="A84" s="3">
         <v>41547</v>
       </c>
       <c r="B84" s="2">
@@ -34119,7 +34119,7 @@
       </c>
     </row>
     <row r="85" spans="1:131">
-      <c r="A85" s="5">
+      <c r="A85" s="3">
         <v>41578</v>
       </c>
       <c r="B85" s="2">
@@ -34514,7 +34514,7 @@
       </c>
     </row>
     <row r="86" spans="1:131">
-      <c r="A86" s="5">
+      <c r="A86" s="3">
         <v>41608</v>
       </c>
       <c r="B86" s="2">
@@ -34909,7 +34909,7 @@
       </c>
     </row>
     <row r="87" spans="1:131">
-      <c r="A87" s="5">
+      <c r="A87" s="3">
         <v>41639</v>
       </c>
       <c r="B87" s="2">
@@ -35304,7 +35304,7 @@
       </c>
     </row>
     <row r="88" spans="1:131">
-      <c r="A88" s="5">
+      <c r="A88" s="3">
         <v>41698</v>
       </c>
       <c r="B88" s="2">
@@ -35699,7 +35699,7 @@
       </c>
     </row>
     <row r="89" spans="1:131">
-      <c r="A89" s="5">
+      <c r="A89" s="3">
         <v>41729</v>
       </c>
       <c r="B89" s="2">
@@ -36094,7 +36094,7 @@
       </c>
     </row>
     <row r="90" spans="1:131">
-      <c r="A90" s="5">
+      <c r="A90" s="3">
         <v>41759</v>
       </c>
       <c r="B90" s="2">
@@ -36489,7 +36489,7 @@
       </c>
     </row>
     <row r="91" spans="1:131">
-      <c r="A91" s="5">
+      <c r="A91" s="3">
         <v>41790</v>
       </c>
       <c r="B91" s="2">
@@ -36884,7 +36884,7 @@
       </c>
     </row>
     <row r="92" spans="1:131">
-      <c r="A92" s="5">
+      <c r="A92" s="3">
         <v>41820</v>
       </c>
       <c r="B92" s="2">
@@ -37279,7 +37279,7 @@
       </c>
     </row>
     <row r="93" spans="1:131">
-      <c r="A93" s="5">
+      <c r="A93" s="3">
         <v>41851</v>
       </c>
       <c r="B93" s="2">
@@ -37674,7 +37674,7 @@
       </c>
     </row>
     <row r="94" spans="1:131">
-      <c r="A94" s="5">
+      <c r="A94" s="3">
         <v>41882</v>
       </c>
       <c r="B94" s="2">
@@ -38069,7 +38069,7 @@
       </c>
     </row>
     <row r="95" spans="1:131">
-      <c r="A95" s="5">
+      <c r="A95" s="3">
         <v>41912</v>
       </c>
       <c r="B95" s="2">
@@ -38464,7 +38464,7 @@
       </c>
     </row>
     <row r="96" spans="1:131">
-      <c r="A96" s="5">
+      <c r="A96" s="3">
         <v>41943</v>
       </c>
       <c r="B96" s="2">
@@ -38859,7 +38859,7 @@
       </c>
     </row>
     <row r="97" spans="1:131">
-      <c r="A97" s="5">
+      <c r="A97" s="3">
         <v>41973</v>
       </c>
       <c r="B97" s="2">
@@ -39254,7 +39254,7 @@
       </c>
     </row>
     <row r="98" spans="1:131">
-      <c r="A98" s="5">
+      <c r="A98" s="3">
         <v>42004</v>
       </c>
       <c r="B98" s="2">
@@ -39649,7 +39649,7 @@
       </c>
     </row>
     <row r="99" spans="1:131">
-      <c r="A99" s="5">
+      <c r="A99" s="3">
         <v>42063</v>
       </c>
       <c r="B99" s="2">
@@ -40044,7 +40044,7 @@
       </c>
     </row>
     <row r="100" spans="1:131">
-      <c r="A100" s="5">
+      <c r="A100" s="3">
         <v>42094</v>
       </c>
       <c r="B100" s="2">
@@ -40439,7 +40439,7 @@
       </c>
     </row>
     <row r="101" spans="1:131">
-      <c r="A101" s="5">
+      <c r="A101" s="3">
         <v>42124</v>
       </c>
       <c r="B101" s="2">
@@ -40834,7 +40834,7 @@
       </c>
     </row>
     <row r="102" spans="1:131">
-      <c r="A102" s="5">
+      <c r="A102" s="3">
         <v>42155</v>
       </c>
       <c r="B102" s="2">
@@ -41229,7 +41229,7 @@
       </c>
     </row>
     <row r="103" spans="1:131">
-      <c r="A103" s="5">
+      <c r="A103" s="3">
         <v>42185</v>
       </c>
       <c r="B103" s="2">
@@ -41624,7 +41624,7 @@
       </c>
     </row>
     <row r="104" spans="1:131">
-      <c r="A104" s="5">
+      <c r="A104" s="3">
         <v>42216</v>
       </c>
       <c r="B104" s="2">
@@ -42019,7 +42019,7 @@
       </c>
     </row>
     <row r="105" spans="1:131">
-      <c r="A105" s="5">
+      <c r="A105" s="3">
         <v>42247</v>
       </c>
       <c r="B105" s="2">
@@ -42414,7 +42414,7 @@
       </c>
     </row>
     <row r="106" spans="1:131">
-      <c r="A106" s="5">
+      <c r="A106" s="3">
         <v>42277</v>
       </c>
       <c r="B106" s="2">
@@ -42809,7 +42809,7 @@
       </c>
     </row>
     <row r="107" spans="1:131">
-      <c r="A107" s="5">
+      <c r="A107" s="3">
         <v>42308</v>
       </c>
       <c r="B107" s="2">
@@ -43204,7 +43204,7 @@
       </c>
     </row>
     <row r="108" spans="1:131">
-      <c r="A108" s="5">
+      <c r="A108" s="3">
         <v>42338</v>
       </c>
       <c r="B108" s="2">
@@ -43599,7 +43599,7 @@
       </c>
     </row>
     <row r="109" spans="1:131">
-      <c r="A109" s="5">
+      <c r="A109" s="3">
         <v>42369</v>
       </c>
       <c r="B109" s="2">
@@ -43994,7 +43994,7 @@
       </c>
     </row>
     <row r="110" spans="1:131">
-      <c r="A110" s="5">
+      <c r="A110" s="3">
         <v>42429</v>
       </c>
       <c r="B110" s="2">
@@ -44389,7 +44389,7 @@
       </c>
     </row>
     <row r="111" spans="1:131">
-      <c r="A111" s="5">
+      <c r="A111" s="3">
         <v>42460</v>
       </c>
       <c r="B111" s="2">
@@ -44784,7 +44784,7 @@
       </c>
     </row>
     <row r="112" spans="1:131">
-      <c r="A112" s="5">
+      <c r="A112" s="3">
         <v>42490</v>
       </c>
       <c r="B112" s="2">
@@ -45179,7 +45179,7 @@
       </c>
     </row>
     <row r="113" spans="1:131">
-      <c r="A113" s="5">
+      <c r="A113" s="3">
         <v>42521</v>
       </c>
       <c r="B113" s="2">
@@ -45574,7 +45574,7 @@
       </c>
     </row>
     <row r="114" spans="1:131">
-      <c r="A114" s="5">
+      <c r="A114" s="3">
         <v>42551</v>
       </c>
       <c r="B114" s="2">
@@ -45969,7 +45969,7 @@
       </c>
     </row>
     <row r="115" spans="1:131">
-      <c r="A115" s="5">
+      <c r="A115" s="3">
         <v>42582</v>
       </c>
       <c r="B115" s="2">
@@ -46364,7 +46364,7 @@
       </c>
     </row>
     <row r="116" spans="1:131">
-      <c r="A116" s="5">
+      <c r="A116" s="3">
         <v>42613</v>
       </c>
       <c r="B116" s="2">
@@ -46759,7 +46759,7 @@
       </c>
     </row>
     <row r="117" spans="1:131">
-      <c r="A117" s="5">
+      <c r="A117" s="3">
         <v>42643</v>
       </c>
       <c r="B117" s="2">
@@ -47154,7 +47154,7 @@
       </c>
     </row>
     <row r="118" spans="1:131">
-      <c r="A118" s="5">
+      <c r="A118" s="3">
         <v>42674</v>
       </c>
       <c r="B118" s="2">
@@ -47549,7 +47549,7 @@
       </c>
     </row>
     <row r="119" spans="1:131">
-      <c r="A119" s="5">
+      <c r="A119" s="3">
         <v>42704</v>
       </c>
       <c r="B119" s="2">
@@ -47944,7 +47944,7 @@
       </c>
     </row>
     <row r="120" spans="1:131">
-      <c r="A120" s="5">
+      <c r="A120" s="3">
         <v>42735</v>
       </c>
       <c r="B120" s="2">
@@ -48339,7 +48339,7 @@
       </c>
     </row>
     <row r="121" spans="1:131">
-      <c r="A121" s="5">
+      <c r="A121" s="3">
         <v>42794</v>
       </c>
       <c r="B121" s="2">
@@ -48734,7 +48734,7 @@
       </c>
     </row>
     <row r="122" spans="1:131">
-      <c r="A122" s="5">
+      <c r="A122" s="3">
         <v>42825</v>
       </c>
       <c r="B122" s="2">
@@ -49129,7 +49129,7 @@
       </c>
     </row>
     <row r="123" spans="1:131">
-      <c r="A123" s="5">
+      <c r="A123" s="3">
         <v>42855</v>
       </c>
       <c r="B123" s="2">
@@ -49524,7 +49524,7 @@
       </c>
     </row>
     <row r="124" spans="1:131">
-      <c r="A124" s="5">
+      <c r="A124" s="3">
         <v>42886</v>
       </c>
       <c r="B124" s="2">
@@ -49919,7 +49919,7 @@
       </c>
     </row>
     <row r="125" spans="1:131">
-      <c r="A125" s="5">
+      <c r="A125" s="3">
         <v>42916</v>
       </c>
       <c r="B125" s="2">
@@ -50314,7 +50314,7 @@
       </c>
     </row>
     <row r="126" spans="1:131">
-      <c r="A126" s="5">
+      <c r="A126" s="3">
         <v>42947</v>
       </c>
       <c r="B126" s="2">
@@ -50709,7 +50709,7 @@
       </c>
     </row>
     <row r="127" spans="1:131">
-      <c r="A127" s="5">
+      <c r="A127" s="3">
         <v>42978</v>
       </c>
       <c r="B127" s="2">
@@ -51104,7 +51104,7 @@
       </c>
     </row>
     <row r="128" spans="1:131">
-      <c r="A128" s="5">
+      <c r="A128" s="3">
         <v>43008</v>
       </c>
       <c r="B128" s="2">
@@ -51499,7 +51499,7 @@
       </c>
     </row>
     <row r="129" spans="1:131">
-      <c r="A129" s="5">
+      <c r="A129" s="3">
         <v>43039</v>
       </c>
       <c r="B129" s="2">
@@ -51894,7 +51894,7 @@
       </c>
     </row>
     <row r="130" spans="1:131">
-      <c r="A130" s="5">
+      <c r="A130" s="3">
         <v>43069</v>
       </c>
       <c r="B130" s="2">
@@ -52289,7 +52289,7 @@
       </c>
     </row>
     <row r="131" spans="1:131">
-      <c r="A131" s="5">
+      <c r="A131" s="3">
         <v>43100</v>
       </c>
       <c r="B131" s="2">
@@ -52684,7 +52684,7 @@
       </c>
     </row>
     <row r="132" spans="1:131">
-      <c r="A132" s="5">
+      <c r="A132" s="3">
         <v>43159</v>
       </c>
       <c r="B132" s="2">
@@ -53079,7 +53079,7 @@
       </c>
     </row>
     <row r="133" spans="1:131">
-      <c r="A133" s="5">
+      <c r="A133" s="3">
         <v>43190</v>
       </c>
       <c r="B133" s="2">
@@ -53474,7 +53474,7 @@
       </c>
     </row>
     <row r="134" spans="1:131">
-      <c r="A134" s="5">
+      <c r="A134" s="3">
         <v>43220</v>
       </c>
       <c r="B134" s="2">
@@ -53869,7 +53869,7 @@
       </c>
     </row>
     <row r="135" spans="1:131">
-      <c r="A135" s="5">
+      <c r="A135" s="3">
         <v>43251</v>
       </c>
       <c r="B135" s="2">
@@ -54264,7 +54264,7 @@
       </c>
     </row>
     <row r="136" spans="1:131">
-      <c r="A136" s="5">
+      <c r="A136" s="3">
         <v>43281</v>
       </c>
       <c r="B136" s="2">
@@ -54659,7 +54659,7 @@
       </c>
     </row>
     <row r="137" spans="1:131">
-      <c r="A137" s="5">
+      <c r="A137" s="3">
         <v>43312</v>
       </c>
       <c r="B137" s="2">
@@ -55054,7 +55054,7 @@
       </c>
     </row>
     <row r="138" spans="1:131">
-      <c r="A138" s="5">
+      <c r="A138" s="3">
         <v>43343</v>
       </c>
       <c r="B138" s="2">
@@ -55449,7 +55449,7 @@
       </c>
     </row>
     <row r="139" spans="1:131">
-      <c r="A139" s="5">
+      <c r="A139" s="3">
         <v>43373</v>
       </c>
       <c r="B139" s="2">
@@ -55844,7 +55844,7 @@
       </c>
     </row>
     <row r="140" spans="1:131">
-      <c r="A140" s="5">
+      <c r="A140" s="3">
         <v>43404</v>
       </c>
       <c r="B140" s="2">
@@ -56239,7 +56239,7 @@
       </c>
     </row>
     <row r="141" spans="1:131">
-      <c r="A141" s="5">
+      <c r="A141" s="3">
         <v>43434</v>
       </c>
       <c r="B141" s="2">
@@ -56634,7 +56634,7 @@
       </c>
     </row>
     <row r="142" spans="1:131">
-      <c r="A142" s="5">
+      <c r="A142" s="3">
         <v>43465</v>
       </c>
       <c r="B142" s="2">
@@ -57029,7 +57029,7 @@
       </c>
     </row>
     <row r="143" spans="1:131">
-      <c r="A143" s="5">
+      <c r="A143" s="3">
         <v>43524</v>
       </c>
       <c r="B143" s="2">
@@ -57424,7 +57424,7 @@
       </c>
     </row>
     <row r="144" spans="1:131">
-      <c r="A144" s="5">
+      <c r="A144" s="3">
         <v>43555</v>
       </c>
       <c r="B144" s="2">
@@ -57819,7 +57819,7 @@
       </c>
     </row>
     <row r="145" spans="1:131">
-      <c r="A145" s="5">
+      <c r="A145" s="3">
         <v>43585</v>
       </c>
       <c r="B145" s="2">
@@ -58214,7 +58214,7 @@
       </c>
     </row>
     <row r="146" spans="1:131">
-      <c r="A146" s="5">
+      <c r="A146" s="3">
         <v>43616</v>
       </c>
       <c r="B146" s="2">
@@ -58609,7 +58609,7 @@
       </c>
     </row>
     <row r="147" spans="1:131">
-      <c r="A147" s="5">
+      <c r="A147" s="3">
         <v>43646</v>
       </c>
       <c r="B147" s="2">
@@ -59004,7 +59004,7 @@
       </c>
     </row>
     <row r="148" spans="1:131">
-      <c r="A148" s="5">
+      <c r="A148" s="3">
         <v>43677</v>
       </c>
       <c r="B148" s="2">
@@ -59399,7 +59399,7 @@
       </c>
     </row>
     <row r="149" spans="1:131">
-      <c r="A149" s="5">
+      <c r="A149" s="3">
         <v>43708</v>
       </c>
       <c r="B149" s="2">
@@ -59794,7 +59794,7 @@
       </c>
     </row>
     <row r="150" spans="1:131">
-      <c r="A150" s="5">
+      <c r="A150" s="3">
         <v>43738</v>
       </c>
       <c r="B150" s="2">
@@ -60189,7 +60189,7 @@
       </c>
     </row>
     <row r="151" spans="1:131">
-      <c r="A151" s="5">
+      <c r="A151" s="3">
         <v>43769</v>
       </c>
       <c r="B151" s="2">
@@ -60584,7 +60584,7 @@
       </c>
     </row>
     <row r="152" spans="1:131">
-      <c r="A152" s="5">
+      <c r="A152" s="3">
         <v>43799</v>
       </c>
       <c r="B152" s="2">
@@ -60979,7 +60979,7 @@
       </c>
     </row>
     <row r="153" spans="1:131">
-      <c r="A153" s="5">
+      <c r="A153" s="3">
         <v>43830</v>
       </c>
       <c r="B153" s="2">
@@ -61374,7 +61374,7 @@
       </c>
     </row>
     <row r="154" spans="1:131">
-      <c r="A154" s="5">
+      <c r="A154" s="3">
         <v>43890</v>
       </c>
       <c r="B154" s="2">
@@ -61769,7 +61769,7 @@
       </c>
     </row>
     <row r="155" spans="1:131">
-      <c r="A155" s="5">
+      <c r="A155" s="3">
         <v>43921</v>
       </c>
       <c r="B155" s="2">
@@ -62164,7 +62164,7 @@
       </c>
     </row>
     <row r="156" spans="1:131">
-      <c r="A156" s="5">
+      <c r="A156" s="3">
         <v>43951</v>
       </c>
       <c r="B156" s="2">
@@ -62559,7 +62559,7 @@
       </c>
     </row>
     <row r="157" spans="1:131">
-      <c r="A157" s="5">
+      <c r="A157" s="3">
         <v>43982</v>
       </c>
       <c r="B157" s="2">
@@ -62954,7 +62954,7 @@
       </c>
     </row>
     <row r="158" spans="1:131">
-      <c r="A158" s="5">
+      <c r="A158" s="3">
         <v>44012</v>
       </c>
       <c r="B158" s="2">
@@ -63349,7 +63349,7 @@
       </c>
     </row>
     <row r="159" spans="1:131">
-      <c r="A159" s="5">
+      <c r="A159" s="3">
         <v>44043</v>
       </c>
       <c r="B159" s="2">
@@ -63744,7 +63744,7 @@
       </c>
     </row>
     <row r="160" spans="1:131">
-      <c r="A160" s="5">
+      <c r="A160" s="3">
         <v>44074</v>
       </c>
       <c r="B160" s="2">
@@ -64139,7 +64139,7 @@
       </c>
     </row>
     <row r="161" spans="1:131">
-      <c r="A161" s="5">
+      <c r="A161" s="3">
         <v>44104</v>
       </c>
       <c r="B161" s="2">
@@ -64534,7 +64534,7 @@
       </c>
     </row>
     <row r="162" spans="1:131">
-      <c r="A162" s="5">
+      <c r="A162" s="3">
         <v>44135</v>
       </c>
       <c r="B162" s="2">
@@ -64929,7 +64929,7 @@
       </c>
     </row>
     <row r="163" spans="1:131">
-      <c r="A163" s="5">
+      <c r="A163" s="3">
         <v>44165</v>
       </c>
       <c r="B163" s="2">
@@ -65324,7 +65324,7 @@
       </c>
     </row>
     <row r="164" spans="1:131">
-      <c r="A164" s="5">
+      <c r="A164" s="3">
         <v>44196</v>
       </c>
       <c r="B164" s="2">
@@ -65719,7 +65719,7 @@
       </c>
     </row>
     <row r="165" spans="1:131">
-      <c r="A165" s="5">
+      <c r="A165" s="3">
         <v>44255</v>
       </c>
       <c r="B165" s="2">
@@ -66114,7 +66114,7 @@
       </c>
     </row>
     <row r="166" spans="1:131">
-      <c r="A166" s="5">
+      <c r="A166" s="3">
         <v>44286</v>
       </c>
       <c r="B166" s="2">
@@ -66509,7 +66509,7 @@
       </c>
     </row>
     <row r="167" spans="1:131">
-      <c r="A167" s="5">
+      <c r="A167" s="3">
         <v>44316</v>
       </c>
       <c r="B167" s="2">
@@ -66904,7 +66904,7 @@
       </c>
     </row>
     <row r="168" spans="1:131">
-      <c r="A168" s="5">
+      <c r="A168" s="3">
         <v>44347</v>
       </c>
       <c r="B168" s="2">
@@ -67299,7 +67299,7 @@
       </c>
     </row>
     <row r="169" spans="1:131">
-      <c r="A169" s="5">
+      <c r="A169" s="3">
         <v>44377</v>
       </c>
       <c r="B169" s="2">
@@ -67694,7 +67694,7 @@
       </c>
     </row>
     <row r="170" spans="1:131">
-      <c r="A170" s="5">
+      <c r="A170" s="3">
         <v>44408</v>
       </c>
       <c r="B170" s="2">
@@ -68089,7 +68089,7 @@
       </c>
     </row>
     <row r="171" spans="1:131">
-      <c r="A171" s="5">
+      <c r="A171" s="3">
         <v>44439</v>
       </c>
       <c r="B171" s="2">
@@ -68484,7 +68484,7 @@
       </c>
     </row>
     <row r="172" spans="1:131">
-      <c r="A172" s="5">
+      <c r="A172" s="3">
         <v>44469</v>
       </c>
       <c r="B172" s="2">
@@ -68879,7 +68879,7 @@
       </c>
     </row>
     <row r="173" spans="1:131">
-      <c r="A173" s="5">
+      <c r="A173" s="3">
         <v>44500</v>
       </c>
       <c r="B173" s="2">
@@ -69274,7 +69274,7 @@
       </c>
     </row>
     <row r="174" spans="1:131">
-      <c r="A174" s="5">
+      <c r="A174" s="3">
         <v>44530</v>
       </c>
       <c r="B174" s="2">
@@ -69669,7 +69669,7 @@
       </c>
     </row>
     <row r="175" spans="1:131">
-      <c r="A175" s="5">
+      <c r="A175" s="3">
         <v>44561</v>
       </c>
       <c r="B175" s="2">
@@ -70064,7 +70064,7 @@
       </c>
     </row>
     <row r="176" spans="1:131">
-      <c r="A176" s="5">
+      <c r="A176" s="3">
         <v>44620</v>
       </c>
       <c r="B176" s="2">
@@ -70459,7 +70459,7 @@
       </c>
     </row>
     <row r="177" spans="1:131">
-      <c r="A177" s="5">
+      <c r="A177" s="3">
         <v>44651</v>
       </c>
       <c r="B177" s="2">
@@ -70854,7 +70854,7 @@
       </c>
     </row>
     <row r="178" spans="1:131">
-      <c r="A178" s="5">
+      <c r="A178" s="3">
         <v>44681</v>
       </c>
       <c r="B178" s="2">
@@ -71249,7 +71249,7 @@
       </c>
     </row>
     <row r="179" spans="1:131">
-      <c r="A179" s="5">
+      <c r="A179" s="3">
         <v>44712</v>
       </c>
       <c r="B179" s="2">
@@ -71644,7 +71644,7 @@
       </c>
     </row>
     <row r="180" spans="1:131">
-      <c r="A180" s="5">
+      <c r="A180" s="3">
         <v>44742</v>
       </c>
       <c r="B180" s="2">
@@ -72039,7 +72039,7 @@
       </c>
     </row>
     <row r="181" spans="1:131">
-      <c r="A181" s="5">
+      <c r="A181" s="3">
         <v>44773</v>
       </c>
       <c r="B181" s="2">
@@ -72434,7 +72434,7 @@
       </c>
     </row>
     <row r="182" spans="1:131">
-      <c r="A182" s="5">
+      <c r="A182" s="3">
         <v>44804</v>
       </c>
       <c r="B182" s="2">
@@ -72829,7 +72829,7 @@
       </c>
     </row>
     <row r="183" spans="1:131">
-      <c r="A183" s="5">
+      <c r="A183" s="3">
         <v>44834</v>
       </c>
       <c r="B183" s="2">
@@ -73224,7 +73224,7 @@
       </c>
     </row>
     <row r="184" spans="1:131">
-      <c r="A184" s="5">
+      <c r="A184" s="3">
         <v>44865</v>
       </c>
       <c r="B184" s="2">
@@ -73619,7 +73619,7 @@
       </c>
     </row>
     <row r="185" spans="1:131">
-      <c r="A185" s="5">
+      <c r="A185" s="3">
         <v>44895</v>
       </c>
       <c r="B185" s="2">
@@ -74014,7 +74014,7 @@
       </c>
     </row>
     <row r="186" spans="1:131">
-      <c r="A186" s="5">
+      <c r="A186" s="3">
         <v>44926</v>
       </c>
       <c r="B186" s="2">
@@ -74409,7 +74409,7 @@
       </c>
     </row>
     <row r="187" spans="1:131">
-      <c r="A187" s="5">
+      <c r="A187" s="3">
         <v>45016</v>
       </c>
       <c r="B187" s="2">
@@ -74804,7 +74804,7 @@
       </c>
     </row>
     <row r="188" spans="1:131">
-      <c r="A188" s="5">
+      <c r="A188" s="3">
         <v>45046</v>
       </c>
       <c r="B188" s="2">
@@ -75199,7 +75199,7 @@
       </c>
     </row>
     <row r="189" spans="1:131">
-      <c r="A189" s="5">
+      <c r="A189" s="3">
         <v>45077</v>
       </c>
       <c r="B189" s="2">
@@ -75594,7 +75594,7 @@
       </c>
     </row>
     <row r="190" spans="1:131">
-      <c r="A190" s="5">
+      <c r="A190" s="3">
         <v>45107</v>
       </c>
       <c r="B190" s="2">
@@ -75989,7 +75989,7 @@
       </c>
     </row>
     <row r="191" spans="1:131">
-      <c r="A191" s="5">
+      <c r="A191" s="3">
         <v>45138</v>
       </c>
       <c r="B191" s="2">
@@ -76384,7 +76384,7 @@
       </c>
     </row>
     <row r="192" spans="1:131">
-      <c r="A192" s="5">
+      <c r="A192" s="3">
         <v>45169</v>
       </c>
       <c r="B192" s="2">
@@ -76776,6 +76776,401 @@
       </c>
       <c r="EA192" s="2">
         <v>2371</v>
+      </c>
+    </row>
+    <row r="193" spans="1:131">
+      <c r="A193" s="3">
+        <v>45199</v>
+      </c>
+      <c r="B193" s="2">
+        <v>101</v>
+      </c>
+      <c r="C193" s="2">
+        <v>468</v>
+      </c>
+      <c r="D193" s="2">
+        <v>217</v>
+      </c>
+      <c r="E193" s="2">
+        <v>238</v>
+      </c>
+      <c r="F193" s="2">
+        <v>288</v>
+      </c>
+      <c r="G193" s="2">
+        <v>619</v>
+      </c>
+      <c r="H193" s="2">
+        <v>226</v>
+      </c>
+      <c r="I193" s="2">
+        <v>260</v>
+      </c>
+      <c r="J193" s="2">
+        <v>1164</v>
+      </c>
+      <c r="K193" s="2">
+        <v>548</v>
+      </c>
+      <c r="L193" s="2">
+        <v>1200</v>
+      </c>
+      <c r="M193" s="2">
+        <v>468</v>
+      </c>
+      <c r="N193" s="2">
+        <v>402</v>
+      </c>
+      <c r="O193" s="2">
+        <v>516</v>
+      </c>
+      <c r="P193" s="2">
+        <v>3676</v>
+      </c>
+      <c r="Q193" s="2">
+        <v>1260</v>
+      </c>
+      <c r="R193" s="2">
+        <v>1413</v>
+      </c>
+      <c r="S193" s="2">
+        <v>1753</v>
+      </c>
+      <c r="T193" s="2">
+        <v>128</v>
+      </c>
+      <c r="U193" s="2">
+        <v>669</v>
+      </c>
+      <c r="V193" s="2">
+        <v>9466</v>
+      </c>
+      <c r="W193" s="2">
+        <v>2002</v>
+      </c>
+      <c r="X193" s="2">
+        <v>6990</v>
+      </c>
+      <c r="Y193" s="2">
+        <v>300</v>
+      </c>
+      <c r="Z193" s="2">
+        <v>308</v>
+      </c>
+      <c r="AA193" s="2">
+        <v>844</v>
+      </c>
+      <c r="AB193" s="2">
+        <v>1239</v>
+      </c>
+      <c r="AC193" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD193" s="2">
+        <v>945</v>
+      </c>
+      <c r="AE193" s="2">
+        <v>1136</v>
+      </c>
+      <c r="AF193" s="2">
+        <v>1904</v>
+      </c>
+      <c r="AG193" s="2">
+        <v>5518</v>
+      </c>
+      <c r="AH193" s="2">
+        <v>7912</v>
+      </c>
+      <c r="AI193" s="2">
+        <v>11597</v>
+      </c>
+      <c r="AJ193" s="2">
+        <v>3849</v>
+      </c>
+      <c r="AK193" s="2">
+        <v>1878</v>
+      </c>
+      <c r="AL193" s="2">
+        <v>2541</v>
+      </c>
+      <c r="AM193" s="2">
+        <v>2551</v>
+      </c>
+      <c r="AN193" s="2">
+        <v>10629</v>
+      </c>
+      <c r="AO193" s="2">
+        <v>6768</v>
+      </c>
+      <c r="AP193" s="2">
+        <v>5959</v>
+      </c>
+      <c r="AQ193" s="2">
+        <v>3698</v>
+      </c>
+      <c r="AR193" s="2">
+        <v>2978</v>
+      </c>
+      <c r="AS193" s="2">
+        <v>11763</v>
+      </c>
+      <c r="AT193" s="2">
+        <v>7300</v>
+      </c>
+      <c r="AU193" s="2">
+        <v>3833</v>
+      </c>
+      <c r="AV193" s="2">
+        <v>2776</v>
+      </c>
+      <c r="AW193" s="2">
+        <v>11163</v>
+      </c>
+      <c r="AX193" s="2">
+        <v>2722</v>
+      </c>
+      <c r="AY193" s="2">
+        <v>848</v>
+      </c>
+      <c r="AZ193" s="2">
+        <v>1705</v>
+      </c>
+      <c r="BA193" s="2">
+        <v>1820</v>
+      </c>
+      <c r="BB193" s="2">
+        <v>3668</v>
+      </c>
+      <c r="BC193" s="2">
+        <v>1256</v>
+      </c>
+      <c r="BD193" s="2">
+        <v>41</v>
+      </c>
+      <c r="BE193" s="2">
+        <v>5568</v>
+      </c>
+      <c r="BF193" s="2">
+        <v>2324</v>
+      </c>
+      <c r="BG193" s="2">
+        <v>396</v>
+      </c>
+      <c r="BH193" s="2">
+        <v>3312</v>
+      </c>
+      <c r="BI193" s="2">
+        <v>7216</v>
+      </c>
+      <c r="BJ193" s="2">
+        <v>23</v>
+      </c>
+      <c r="BK193" s="2">
+        <v>147</v>
+      </c>
+      <c r="BL193" s="2">
+        <v>2952</v>
+      </c>
+      <c r="BM193" s="2">
+        <v>2433</v>
+      </c>
+      <c r="BN193" s="2">
+        <v>5349</v>
+      </c>
+      <c r="BO193" s="2">
+        <v>1368</v>
+      </c>
+      <c r="BP193" s="2">
+        <v>1197</v>
+      </c>
+      <c r="BQ193" s="2">
+        <v>1067</v>
+      </c>
+      <c r="BR193" s="2">
+        <v>107</v>
+      </c>
+      <c r="BS193" s="2">
+        <v>2282</v>
+      </c>
+      <c r="BT193" s="2">
+        <v>494</v>
+      </c>
+      <c r="BU193" s="2">
+        <v>660</v>
+      </c>
+      <c r="BV193" s="2">
+        <v>753</v>
+      </c>
+      <c r="BW193" s="2">
+        <v>564</v>
+      </c>
+      <c r="BX193" s="2">
+        <v>2430</v>
+      </c>
+      <c r="BY193" s="2">
+        <v>2041</v>
+      </c>
+      <c r="BZ193" s="2">
+        <v>820</v>
+      </c>
+      <c r="CA193" s="2">
+        <v>928</v>
+      </c>
+      <c r="CB193" s="2">
+        <v>1371</v>
+      </c>
+      <c r="CC193" s="2">
+        <v>1090</v>
+      </c>
+      <c r="CD193" s="2">
+        <v>31</v>
+      </c>
+      <c r="CE193" s="2">
+        <v>202</v>
+      </c>
+      <c r="CF193" s="2">
+        <v>690</v>
+      </c>
+      <c r="CG193" s="2">
+        <v>607</v>
+      </c>
+      <c r="CH193" s="2">
+        <v>1324</v>
+      </c>
+      <c r="CI193" s="2">
+        <v>8</v>
+      </c>
+      <c r="CJ193" s="2">
+        <v>1213</v>
+      </c>
+      <c r="CK193" s="2">
+        <v>2273</v>
+      </c>
+      <c r="CL193" s="2">
+        <v>989</v>
+      </c>
+      <c r="CM193" s="2">
+        <v>1457</v>
+      </c>
+      <c r="CN193" s="2">
+        <v>3101</v>
+      </c>
+      <c r="CO193" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP193" s="2">
+        <v>0</v>
+      </c>
+      <c r="CQ193" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR193" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS193" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT193" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU193" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV193" s="2">
+        <v>52108</v>
+      </c>
+      <c r="CW193" s="2">
+        <v>105</v>
+      </c>
+      <c r="CX193" s="2">
+        <v>394</v>
+      </c>
+      <c r="CY193" s="2">
+        <v>4344</v>
+      </c>
+      <c r="CZ193" s="2">
+        <v>2152</v>
+      </c>
+      <c r="DA193" s="2">
+        <v>1822</v>
+      </c>
+      <c r="DB193" s="2">
+        <v>867</v>
+      </c>
+      <c r="DC193" s="2">
+        <v>420</v>
+      </c>
+      <c r="DD193" s="2">
+        <v>533</v>
+      </c>
+      <c r="DE193" s="2">
+        <v>256</v>
+      </c>
+      <c r="DF193" s="2">
+        <v>3423</v>
+      </c>
+      <c r="DG193" s="2">
+        <v>3100</v>
+      </c>
+      <c r="DH193" s="2">
+        <v>2936</v>
+      </c>
+      <c r="DI193" s="2">
+        <v>759</v>
+      </c>
+      <c r="DJ193" s="2">
+        <v>1738</v>
+      </c>
+      <c r="DK193" s="2">
+        <v>5229</v>
+      </c>
+      <c r="DL193" s="2">
+        <v>3406</v>
+      </c>
+      <c r="DM193" s="2">
+        <v>2199</v>
+      </c>
+      <c r="DN193" s="2">
+        <v>987</v>
+      </c>
+      <c r="DO193" s="2">
+        <v>2188</v>
+      </c>
+      <c r="DP193" s="2">
+        <v>824</v>
+      </c>
+      <c r="DQ193" s="2">
+        <v>386</v>
+      </c>
+      <c r="DR193" s="2">
+        <v>116</v>
+      </c>
+      <c r="DS193" s="2">
+        <v>373</v>
+      </c>
+      <c r="DT193" s="2">
+        <v>1465</v>
+      </c>
+      <c r="DU193" s="2">
+        <v>1307</v>
+      </c>
+      <c r="DV193" s="2">
+        <v>209</v>
+      </c>
+      <c r="DW193" s="2">
+        <v>1919</v>
+      </c>
+      <c r="DX193" s="2">
+        <v>2018</v>
+      </c>
+      <c r="DY193" s="2">
+        <v>2166</v>
+      </c>
+      <c r="DZ193" s="2">
+        <v>2009</v>
+      </c>
+      <c r="EA193" s="2">
+        <v>2461</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\RPackages\china_co2\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829E2066-B52D-4731-8602-0B68725A7C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA2514F-7D5F-4155-A1FF-8A64EA59071E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Generating Capacity of 60" sheetId="1" r:id="rId1"/>
@@ -863,15 +863,6 @@
     <t>Time Period</t>
   </si>
   <si>
-    <t>2012:2022</t>
-  </si>
-  <si>
-    <t>2007:2022</t>
-  </si>
-  <si>
-    <t>2000:2022</t>
-  </si>
-  <si>
     <t>2012:2017</t>
   </si>
   <si>
@@ -884,34 +875,43 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2023-02-21</t>
-  </si>
-  <si>
     <t>2018-05-07</t>
   </si>
   <si>
-    <t>2007-06:2023-09</t>
+    <t>2007-06:2023-12</t>
   </si>
   <si>
-    <t>2007-12:2023-09</t>
+    <t>2007-12:2023-12</t>
   </si>
   <si>
-    <t>2008-04:2023-09</t>
+    <t>2008-04:2023-12</t>
   </si>
   <si>
-    <t>2011-04:2023-09</t>
+    <t>2011-04:2023-12</t>
   </si>
   <si>
-    <t>2014-12:2023-09</t>
+    <t>2014-12:2023-12</t>
   </si>
   <si>
-    <t>2011-02:2023-09</t>
+    <t>2011-02:2023-12</t>
   </si>
   <si>
-    <t>2018-02:2023-09</t>
+    <t>2012:2023</t>
   </si>
   <si>
-    <t>2023-11-03</t>
+    <t>2007:2023</t>
+  </si>
+  <si>
+    <t>2000:2023</t>
+  </si>
+  <si>
+    <t>2018-02:2023-12</t>
+  </si>
+  <si>
+    <t>2024-02-05</t>
+  </si>
+  <si>
+    <t>2024-02-06</t>
   </si>
 </sst>
 </file>
@@ -1016,9 +1016,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1056,7 +1056,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1162,7 +1162,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1304,7 +1304,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1312,19 +1312,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EA193"/>
+  <dimension ref="A1:EA196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="G185" sqref="G185"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="35" max="35" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:131">
@@ -2918,1184 +2918,1184 @@
         <v>267</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AV6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AX6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AY6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AZ6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="BB6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="BD6" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="BE6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="BF6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="BG6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="BH6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="BI6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="BJ6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="BK6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="BL6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="BM6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="BN6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="BO6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="BP6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="BQ6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="BR6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="BS6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="BT6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="BU6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="BV6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="BW6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="BX6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="BY6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="BZ6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="CA6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="CB6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="CC6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="CD6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="CE6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="CF6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="CG6" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="CH6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="CI6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y6" s="4" t="s">
+      <c r="CJ6" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="Z6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AO6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AP6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AV6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AY6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AZ6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="BA6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="BB6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="BC6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="BE6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="BF6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="BG6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="BH6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="BI6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="BJ6" s="4" t="s">
+      <c r="CK6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="CL6" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="CM6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="CN6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="CO6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="BK6" s="4" t="s">
+      <c r="CP6" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="CQ6" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="CR6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="BL6" s="4" t="s">
+      <c r="CS6" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="CT6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="BM6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="BN6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="BO6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="BP6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="BQ6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="BR6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="BS6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="BT6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="BU6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="BV6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="BW6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="BX6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="BY6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="BZ6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="CA6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="CB6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="CC6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="CD6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="CE6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="CF6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="CG6" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="CH6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="CI6" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="CJ6" s="4" t="s">
+      <c r="CU6" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="CV6" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="CK6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="CL6" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="CM6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="CN6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="CO6" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="CP6" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="CQ6" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="CR6" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="CS6" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="CT6" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="CU6" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="CV6" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="CW6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CX6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CY6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CZ6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DA6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DB6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DC6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DD6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DE6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DF6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DG6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DH6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DI6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DJ6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DK6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DL6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DM6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DN6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DO6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DP6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DQ6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DR6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DS6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DT6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DU6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DV6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DW6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DX6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DY6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DZ6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="EA6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:131">
       <c r="A7" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AG7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AK7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AP7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AQ7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AR7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AS7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AT7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AU7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AV7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AW7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AY7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AZ7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BA7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BB7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BC7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BD7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BE7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BF7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BG7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BH7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BI7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BJ7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BK7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BL7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BM7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BN7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BO7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BP7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BQ7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BR7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BS7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BT7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BU7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BV7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BW7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BX7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BY7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BZ7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CA7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CB7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CC7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CD7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CE7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CF7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CG7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CH7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CI7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CJ7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CK7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CL7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CM7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CN7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CO7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CP7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CQ7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CR7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CS7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CT7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CU7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CV7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CW7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CX7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CY7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="CZ7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DA7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DB7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DC7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DD7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DE7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DF7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DG7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DH7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DI7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DJ7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DK7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DL7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DM7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DN7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DO7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DP7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DQ7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DR7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DS7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DT7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DU7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DV7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DW7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DX7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DY7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DZ7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="EA7" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:131">
       <c r="A8" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AN8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AO8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AR8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AS8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AT8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AU8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AV8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AW8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AX8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AY8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AZ8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BA8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BB8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BC8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BD8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BE8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BF8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BG8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BH8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BI8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BJ8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BK8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BL8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BM8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BN8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BO8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BP8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BQ8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BR8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BS8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BT8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BU8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BV8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BW8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BX8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BY8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BZ8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="CA8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="CB8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="CC8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="CD8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="CE8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="CF8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="CG8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="CH8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="CI8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="CJ8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="CK8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="CL8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="CM8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="CN8" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="CO8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="CP8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="CQ8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="CR8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="CS8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="CT8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AD8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AE8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AF8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AG8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AH8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AM8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AN8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AO8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AP8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AQ8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AR8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AS8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AT8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AV8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AW8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AX8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AY8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AZ8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BA8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BB8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BC8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BD8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BE8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BF8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BG8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BH8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BI8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BJ8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BK8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BL8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BM8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BN8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BO8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BP8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BQ8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BR8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BS8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BT8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BU8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BV8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BW8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BX8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BY8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BZ8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="CA8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="CB8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="CC8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="CD8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="CE8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="CF8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="CG8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="CH8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="CI8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="CJ8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="CK8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="CL8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="CM8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="CN8" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="CO8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CP8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CQ8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CR8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CS8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CT8" s="5" t="s">
-        <v>275</v>
-      </c>
       <c r="CU8" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="CV8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="CW8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="CX8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="CY8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="CZ8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DA8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DB8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DC8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DD8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DE8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DF8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DG8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DH8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DI8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DJ8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DK8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DL8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DM8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DN8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DO8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DP8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DQ8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DR8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DS8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DT8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DU8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DV8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DW8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DX8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DY8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="DZ8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="EA8" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:131">
@@ -73803,97 +73803,97 @@
         <v>6765</v>
       </c>
       <c r="BJ185" s="2">
-        <v>23</v>
+        <v>23.4</v>
       </c>
       <c r="BK185" s="2">
-        <v>139</v>
+        <v>139.47999999999999</v>
       </c>
       <c r="BL185" s="2">
-        <v>2731</v>
+        <v>2731.1350000000002</v>
       </c>
       <c r="BM185" s="2">
-        <v>2292</v>
+        <v>2291.605</v>
       </c>
       <c r="BN185" s="2">
-        <v>4246</v>
+        <v>4246.1869999999999</v>
       </c>
       <c r="BO185" s="2">
-        <v>1148</v>
+        <v>1147.796</v>
       </c>
       <c r="BP185" s="2">
-        <v>893</v>
+        <v>892.80100000000004</v>
       </c>
       <c r="BQ185" s="2">
-        <v>883</v>
+        <v>883.29</v>
       </c>
       <c r="BR185" s="2">
-        <v>107</v>
+        <v>106.97499999999999</v>
       </c>
       <c r="BS185" s="2">
-        <v>2252</v>
+        <v>2252.1480000000001</v>
       </c>
       <c r="BT185" s="2">
-        <v>401</v>
+        <v>401.036</v>
       </c>
       <c r="BU185" s="2">
-        <v>550</v>
+        <v>549.85500000000002</v>
       </c>
       <c r="BV185" s="2">
-        <v>742</v>
+        <v>741.51499999999999</v>
       </c>
       <c r="BW185" s="2">
-        <v>555</v>
+        <v>555.49</v>
       </c>
       <c r="BX185" s="2">
-        <v>2072</v>
+        <v>2071.8049999999998</v>
       </c>
       <c r="BY185" s="2">
-        <v>1894</v>
+        <v>1893.7449999999999</v>
       </c>
       <c r="BZ185" s="2">
-        <v>763</v>
+        <v>763.04</v>
       </c>
       <c r="CA185" s="2">
-        <v>872</v>
+        <v>871.8</v>
       </c>
       <c r="CB185" s="2">
-        <v>1267</v>
+        <v>1266.6279999999999</v>
       </c>
       <c r="CC185" s="2">
-        <v>917</v>
+        <v>916.81399999999996</v>
       </c>
       <c r="CD185" s="2">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="CE185" s="2">
-        <v>176</v>
+        <v>176.39</v>
       </c>
       <c r="CF185" s="2">
-        <v>598</v>
+        <v>598.19100000000003</v>
       </c>
       <c r="CG185" s="2">
-        <v>580</v>
+        <v>580.46</v>
       </c>
       <c r="CH185" s="2">
-        <v>891</v>
+        <v>891.38499999999999</v>
       </c>
       <c r="CI185" s="2">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="CJ185" s="2">
-        <v>1159</v>
+        <v>1158.6400000000001</v>
       </c>
       <c r="CK185" s="2">
-        <v>1948</v>
+        <v>1948.01</v>
       </c>
       <c r="CL185" s="2">
-        <v>971</v>
+        <v>971.05</v>
       </c>
       <c r="CM185" s="2">
-        <v>1457</v>
+        <v>1456.7380000000001</v>
       </c>
       <c r="CN185" s="2">
-        <v>2489</v>
+        <v>2489.2649999999999</v>
       </c>
       <c r="CO185" s="2">
         <v>0</v>
@@ -73917,100 +73917,100 @@
         <v>0</v>
       </c>
       <c r="CV185" s="2">
-        <v>37202</v>
+        <v>37202.341800000002</v>
       </c>
       <c r="CW185" s="2">
-        <v>95</v>
+        <v>95.002799999999993</v>
       </c>
       <c r="CX185" s="2">
-        <v>211</v>
+        <v>210.92330000000001</v>
       </c>
       <c r="CY185" s="2">
-        <v>3788</v>
+        <v>3787.9998000000001</v>
       </c>
       <c r="CZ185" s="2">
-        <v>1599</v>
+        <v>1599.1728000000001</v>
       </c>
       <c r="DA185" s="2">
-        <v>1483</v>
+        <v>1483.0853999999999</v>
       </c>
       <c r="DB185" s="2">
-        <v>560</v>
+        <v>560.34739999999999</v>
       </c>
       <c r="DC185" s="2">
-        <v>382</v>
+        <v>381.87740000000002</v>
       </c>
       <c r="DD185" s="2">
-        <v>443</v>
+        <v>442.7901</v>
       </c>
       <c r="DE185" s="2">
-        <v>189</v>
+        <v>189.30340000000001</v>
       </c>
       <c r="DF185" s="2">
-        <v>2441</v>
+        <v>2440.6968999999999</v>
       </c>
       <c r="DG185" s="2">
-        <v>2464</v>
+        <v>2464.2399</v>
       </c>
       <c r="DH185" s="2">
-        <v>2089</v>
+        <v>2089.4063999999998</v>
       </c>
       <c r="DI185" s="2">
-        <v>434</v>
+        <v>434.31479999999999</v>
       </c>
       <c r="DJ185" s="2">
-        <v>1156</v>
+        <v>1155.895</v>
       </c>
       <c r="DK185" s="2">
-        <v>4109</v>
+        <v>4108.9619000000002</v>
       </c>
       <c r="DL185" s="2">
-        <v>2229</v>
+        <v>2229.4376000000002</v>
       </c>
       <c r="DM185" s="2">
-        <v>1189</v>
+        <v>1189.0678</v>
       </c>
       <c r="DN185" s="2">
-        <v>592</v>
+        <v>591.99839999999995</v>
       </c>
       <c r="DO185" s="2">
-        <v>1486</v>
+        <v>1485.6288999999999</v>
       </c>
       <c r="DP185" s="2">
-        <v>446</v>
+        <v>446.34539999999998</v>
       </c>
       <c r="DQ185" s="2">
-        <v>249</v>
+        <v>248.96559999999999</v>
       </c>
       <c r="DR185" s="2">
-        <v>68</v>
+        <v>68.164500000000004</v>
       </c>
       <c r="DS185" s="2">
-        <v>205</v>
+        <v>205.48390000000001</v>
       </c>
       <c r="DT185" s="2">
-        <v>1345</v>
+        <v>1345.27</v>
       </c>
       <c r="DU185" s="2">
-        <v>476</v>
+        <v>475.89030000000002</v>
       </c>
       <c r="DV185" s="2">
-        <v>139</v>
+        <v>138.69200000000001</v>
       </c>
       <c r="DW185" s="2">
-        <v>1435</v>
+        <v>1435.1932999999999</v>
       </c>
       <c r="DX185" s="2">
-        <v>1309</v>
+        <v>1308.5130999999999</v>
       </c>
       <c r="DY185" s="2">
-        <v>1731</v>
+        <v>1731.1276</v>
       </c>
       <c r="DZ185" s="2">
-        <v>1444</v>
+        <v>1444.3956000000001</v>
       </c>
       <c r="EA185" s="2">
-        <v>1414</v>
+        <v>1414.1505999999999</v>
       </c>
     </row>
     <row r="186" spans="1:131">
@@ -77171,6 +77171,1191 @@
       </c>
       <c r="EA193" s="2">
         <v>2461</v>
+      </c>
+    </row>
+    <row r="194" spans="1:131">
+      <c r="A194" s="3">
+        <v>45230</v>
+      </c>
+      <c r="B194" s="2">
+        <v>101</v>
+      </c>
+      <c r="C194" s="2">
+        <v>468</v>
+      </c>
+      <c r="D194" s="2">
+        <v>217</v>
+      </c>
+      <c r="E194" s="2">
+        <v>238</v>
+      </c>
+      <c r="F194" s="2">
+        <v>288</v>
+      </c>
+      <c r="G194" s="2">
+        <v>619</v>
+      </c>
+      <c r="H194" s="2">
+        <v>226</v>
+      </c>
+      <c r="I194" s="2">
+        <v>260</v>
+      </c>
+      <c r="J194" s="2">
+        <v>1161</v>
+      </c>
+      <c r="K194" s="2">
+        <v>548</v>
+      </c>
+      <c r="L194" s="2">
+        <v>1235</v>
+      </c>
+      <c r="M194" s="2">
+        <v>468</v>
+      </c>
+      <c r="N194" s="2">
+        <v>402</v>
+      </c>
+      <c r="O194" s="2">
+        <v>516</v>
+      </c>
+      <c r="P194" s="2">
+        <v>3676</v>
+      </c>
+      <c r="Q194" s="2">
+        <v>1260</v>
+      </c>
+      <c r="R194" s="2">
+        <v>1413</v>
+      </c>
+      <c r="S194" s="2">
+        <v>1753</v>
+      </c>
+      <c r="T194" s="2">
+        <v>128</v>
+      </c>
+      <c r="U194" s="2">
+        <v>669</v>
+      </c>
+      <c r="V194" s="2">
+        <v>9471</v>
+      </c>
+      <c r="W194" s="2">
+        <v>2002</v>
+      </c>
+      <c r="X194" s="2">
+        <v>6987</v>
+      </c>
+      <c r="Y194" s="2">
+        <v>301</v>
+      </c>
+      <c r="Z194" s="2">
+        <v>310</v>
+      </c>
+      <c r="AA194" s="2">
+        <v>832</v>
+      </c>
+      <c r="AB194" s="2">
+        <v>1283</v>
+      </c>
+      <c r="AC194" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD194" s="2">
+        <v>945</v>
+      </c>
+      <c r="AE194" s="2">
+        <v>1136</v>
+      </c>
+      <c r="AF194" s="2">
+        <v>1904</v>
+      </c>
+      <c r="AG194" s="2">
+        <v>5568</v>
+      </c>
+      <c r="AH194" s="2">
+        <v>7863</v>
+      </c>
+      <c r="AI194" s="2">
+        <v>11628</v>
+      </c>
+      <c r="AJ194" s="2">
+        <v>3850</v>
+      </c>
+      <c r="AK194" s="2">
+        <v>1880</v>
+      </c>
+      <c r="AL194" s="2">
+        <v>2544</v>
+      </c>
+      <c r="AM194" s="2">
+        <v>2551</v>
+      </c>
+      <c r="AN194" s="2">
+        <v>10629</v>
+      </c>
+      <c r="AO194" s="2">
+        <v>6770</v>
+      </c>
+      <c r="AP194" s="2">
+        <v>5959</v>
+      </c>
+      <c r="AQ194" s="2">
+        <v>3693</v>
+      </c>
+      <c r="AR194" s="2">
+        <v>2980</v>
+      </c>
+      <c r="AS194" s="2">
+        <v>11723</v>
+      </c>
+      <c r="AT194" s="2">
+        <v>7390</v>
+      </c>
+      <c r="AU194" s="2">
+        <v>3835</v>
+      </c>
+      <c r="AV194" s="2">
+        <v>2776</v>
+      </c>
+      <c r="AW194" s="2">
+        <v>11223</v>
+      </c>
+      <c r="AX194" s="2">
+        <v>2722</v>
+      </c>
+      <c r="AY194" s="2">
+        <v>848</v>
+      </c>
+      <c r="AZ194" s="2">
+        <v>1756</v>
+      </c>
+      <c r="BA194" s="2">
+        <v>1821</v>
+      </c>
+      <c r="BB194" s="2">
+        <v>3668</v>
+      </c>
+      <c r="BC194" s="2">
+        <v>1136</v>
+      </c>
+      <c r="BD194" s="2">
+        <v>41</v>
+      </c>
+      <c r="BE194" s="2">
+        <v>5571</v>
+      </c>
+      <c r="BF194" s="2">
+        <v>2324</v>
+      </c>
+      <c r="BG194" s="2">
+        <v>396</v>
+      </c>
+      <c r="BH194" s="2">
+        <v>3312</v>
+      </c>
+      <c r="BI194" s="2">
+        <v>7218</v>
+      </c>
+      <c r="BJ194" s="2">
+        <v>23</v>
+      </c>
+      <c r="BK194" s="2">
+        <v>147</v>
+      </c>
+      <c r="BL194" s="2">
+        <v>2988</v>
+      </c>
+      <c r="BM194" s="2">
+        <v>2449</v>
+      </c>
+      <c r="BN194" s="2">
+        <v>5359</v>
+      </c>
+      <c r="BO194" s="2">
+        <v>1376</v>
+      </c>
+      <c r="BP194" s="2">
+        <v>1207</v>
+      </c>
+      <c r="BQ194" s="2">
+        <v>1072</v>
+      </c>
+      <c r="BR194" s="2">
+        <v>107</v>
+      </c>
+      <c r="BS194" s="2">
+        <v>2282</v>
+      </c>
+      <c r="BT194" s="2">
+        <v>510</v>
+      </c>
+      <c r="BU194" s="2">
+        <v>676</v>
+      </c>
+      <c r="BV194" s="2">
+        <v>753</v>
+      </c>
+      <c r="BW194" s="2">
+        <v>564</v>
+      </c>
+      <c r="BX194" s="2">
+        <v>2475</v>
+      </c>
+      <c r="BY194" s="2">
+        <v>2081</v>
+      </c>
+      <c r="BZ194" s="2">
+        <v>832</v>
+      </c>
+      <c r="CA194" s="2">
+        <v>928</v>
+      </c>
+      <c r="CB194" s="2">
+        <v>1371</v>
+      </c>
+      <c r="CC194" s="2">
+        <v>1128</v>
+      </c>
+      <c r="CD194" s="2">
+        <v>31</v>
+      </c>
+      <c r="CE194" s="2">
+        <v>202</v>
+      </c>
+      <c r="CF194" s="2">
+        <v>697</v>
+      </c>
+      <c r="CG194" s="2">
+        <v>608</v>
+      </c>
+      <c r="CH194" s="2">
+        <v>1390</v>
+      </c>
+      <c r="CI194" s="2">
+        <v>8</v>
+      </c>
+      <c r="CJ194" s="2">
+        <v>1213</v>
+      </c>
+      <c r="CK194" s="2">
+        <v>2303</v>
+      </c>
+      <c r="CL194" s="2">
+        <v>989</v>
+      </c>
+      <c r="CM194" s="2">
+        <v>1457</v>
+      </c>
+      <c r="CN194" s="2">
+        <v>3123</v>
+      </c>
+      <c r="CO194" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP194" s="2">
+        <v>0</v>
+      </c>
+      <c r="CQ194" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR194" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS194" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT194" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU194" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV194" s="2">
+        <v>53576</v>
+      </c>
+      <c r="CW194" s="2">
+        <v>105</v>
+      </c>
+      <c r="CX194" s="2">
+        <v>399</v>
+      </c>
+      <c r="CY194" s="2">
+        <v>4436</v>
+      </c>
+      <c r="CZ194" s="2">
+        <v>2225</v>
+      </c>
+      <c r="DA194" s="2">
+        <v>1883</v>
+      </c>
+      <c r="DB194" s="2">
+        <v>883</v>
+      </c>
+      <c r="DC194" s="2">
+        <v>422</v>
+      </c>
+      <c r="DD194" s="2">
+        <v>541</v>
+      </c>
+      <c r="DE194" s="2">
+        <v>273</v>
+      </c>
+      <c r="DF194" s="2">
+        <v>3529</v>
+      </c>
+      <c r="DG194" s="2">
+        <v>3157</v>
+      </c>
+      <c r="DH194" s="2">
+        <v>2979</v>
+      </c>
+      <c r="DI194" s="2">
+        <v>792</v>
+      </c>
+      <c r="DJ194" s="2">
+        <v>1804</v>
+      </c>
+      <c r="DK194" s="2">
+        <v>5317</v>
+      </c>
+      <c r="DL194" s="2">
+        <v>3496</v>
+      </c>
+      <c r="DM194" s="2">
+        <v>2267</v>
+      </c>
+      <c r="DN194" s="2">
+        <v>1028</v>
+      </c>
+      <c r="DO194" s="2">
+        <v>2287</v>
+      </c>
+      <c r="DP194" s="2">
+        <v>882</v>
+      </c>
+      <c r="DQ194" s="2">
+        <v>402</v>
+      </c>
+      <c r="DR194" s="2">
+        <v>118</v>
+      </c>
+      <c r="DS194" s="2">
+        <v>422</v>
+      </c>
+      <c r="DT194" s="2">
+        <v>1480</v>
+      </c>
+      <c r="DU194" s="2">
+        <v>1366</v>
+      </c>
+      <c r="DV194" s="2">
+        <v>209</v>
+      </c>
+      <c r="DW194" s="2">
+        <v>1938</v>
+      </c>
+      <c r="DX194" s="2">
+        <v>2111</v>
+      </c>
+      <c r="DY194" s="2">
+        <v>2166</v>
+      </c>
+      <c r="DZ194" s="2">
+        <v>2014</v>
+      </c>
+      <c r="EA194" s="2">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="195" spans="1:131">
+      <c r="A195" s="3">
+        <v>45260</v>
+      </c>
+      <c r="B195" s="2">
+        <v>101.3</v>
+      </c>
+      <c r="C195" s="2">
+        <v>468.29750000000001</v>
+      </c>
+      <c r="D195" s="2">
+        <v>217.4485</v>
+      </c>
+      <c r="E195" s="2">
+        <v>238.14500000000001</v>
+      </c>
+      <c r="F195" s="2">
+        <v>288.01100000000002</v>
+      </c>
+      <c r="G195" s="2">
+        <v>619.42600000000004</v>
+      </c>
+      <c r="H195" s="2">
+        <v>226.49199999999999</v>
+      </c>
+      <c r="I195" s="2">
+        <v>260</v>
+      </c>
+      <c r="J195" s="2">
+        <v>1164.1130000000001</v>
+      </c>
+      <c r="K195" s="2">
+        <v>548.19500000000005</v>
+      </c>
+      <c r="L195" s="2">
+        <v>1235.3995</v>
+      </c>
+      <c r="M195" s="2">
+        <v>467.92</v>
+      </c>
+      <c r="N195" s="2">
+        <v>401.59699999999998</v>
+      </c>
+      <c r="O195" s="2">
+        <v>513.41300000000001</v>
+      </c>
+      <c r="P195" s="2">
+        <v>3679.1768999999999</v>
+      </c>
+      <c r="Q195" s="2">
+        <v>1306.1555000000001</v>
+      </c>
+      <c r="R195" s="2">
+        <v>1413.1780220000001</v>
+      </c>
+      <c r="S195" s="2">
+        <v>1753.0830000000001</v>
+      </c>
+      <c r="T195" s="2">
+        <v>127.9555</v>
+      </c>
+      <c r="U195" s="2">
+        <v>698.9</v>
+      </c>
+      <c r="V195" s="2">
+        <v>9471.7209999999995</v>
+      </c>
+      <c r="W195" s="2">
+        <v>2001.585</v>
+      </c>
+      <c r="X195" s="2">
+        <v>6987.27</v>
+      </c>
+      <c r="Y195" s="2">
+        <v>300.9785</v>
+      </c>
+      <c r="Z195" s="2">
+        <v>310.43599999999998</v>
+      </c>
+      <c r="AA195" s="2">
+        <v>852.21100000000001</v>
+      </c>
+      <c r="AB195" s="2">
+        <v>1282.7</v>
+      </c>
+      <c r="AC195" s="2">
+        <v>42.23</v>
+      </c>
+      <c r="AD195" s="2">
+        <v>975.39099999999996</v>
+      </c>
+      <c r="AE195" s="2">
+        <v>1136.1510000000001</v>
+      </c>
+      <c r="AF195" s="2">
+        <v>1903.9186</v>
+      </c>
+      <c r="AG195" s="2">
+        <v>5568.9417999999996</v>
+      </c>
+      <c r="AH195" s="2">
+        <v>7928.0653000000002</v>
+      </c>
+      <c r="AI195" s="2">
+        <v>11710.047</v>
+      </c>
+      <c r="AJ195" s="2">
+        <v>3850.1012999999998</v>
+      </c>
+      <c r="AK195" s="2">
+        <v>1885.1</v>
+      </c>
+      <c r="AL195" s="2">
+        <v>2547.69</v>
+      </c>
+      <c r="AM195" s="2">
+        <v>2551.2909</v>
+      </c>
+      <c r="AN195" s="2">
+        <v>10631.435600000001</v>
+      </c>
+      <c r="AO195" s="2">
+        <v>6773.9575999999997</v>
+      </c>
+      <c r="AP195" s="2">
+        <v>5965.1639999999998</v>
+      </c>
+      <c r="AQ195" s="2">
+        <v>3707.6062000000002</v>
+      </c>
+      <c r="AR195" s="2">
+        <v>2979.9209999999998</v>
+      </c>
+      <c r="AS195" s="2">
+        <v>11827.541499999999</v>
+      </c>
+      <c r="AT195" s="2">
+        <v>7393.268</v>
+      </c>
+      <c r="AU195" s="2">
+        <v>3869.7127</v>
+      </c>
+      <c r="AV195" s="2">
+        <v>2871.3697999999999</v>
+      </c>
+      <c r="AW195" s="2">
+        <v>11223.320599999999</v>
+      </c>
+      <c r="AX195" s="2">
+        <v>2722.1282000000001</v>
+      </c>
+      <c r="AY195" s="2">
+        <v>851.125</v>
+      </c>
+      <c r="AZ195" s="2">
+        <v>1755.96</v>
+      </c>
+      <c r="BA195" s="2">
+        <v>1821.4831999999999</v>
+      </c>
+      <c r="BB195" s="2">
+        <v>3672.15</v>
+      </c>
+      <c r="BC195" s="2">
+        <v>1135.9000000000001</v>
+      </c>
+      <c r="BD195" s="2">
+        <v>40.945</v>
+      </c>
+      <c r="BE195" s="2">
+        <v>5571.21</v>
+      </c>
+      <c r="BF195" s="2">
+        <v>2424.1687000000002</v>
+      </c>
+      <c r="BG195" s="2">
+        <v>396.14</v>
+      </c>
+      <c r="BH195" s="2">
+        <v>3311.68</v>
+      </c>
+      <c r="BI195" s="2">
+        <v>7218.3087999999998</v>
+      </c>
+      <c r="BJ195" s="2">
+        <v>23.4</v>
+      </c>
+      <c r="BK195" s="2">
+        <v>153.745</v>
+      </c>
+      <c r="BL195" s="2">
+        <v>3005.7750000000001</v>
+      </c>
+      <c r="BM195" s="2">
+        <v>2455.3380000000002</v>
+      </c>
+      <c r="BN195" s="2">
+        <v>5887.8069999999998</v>
+      </c>
+      <c r="BO195" s="2">
+        <v>1385.9659999999999</v>
+      </c>
+      <c r="BP195" s="2">
+        <v>1214.2809999999999</v>
+      </c>
+      <c r="BQ195" s="2">
+        <v>1095.365</v>
+      </c>
+      <c r="BR195" s="2">
+        <v>106.97499999999999</v>
+      </c>
+      <c r="BS195" s="2">
+        <v>2282.4380000000001</v>
+      </c>
+      <c r="BT195" s="2">
+        <v>514.91600000000005</v>
+      </c>
+      <c r="BU195" s="2">
+        <v>700.5</v>
+      </c>
+      <c r="BV195" s="2">
+        <v>756.51499999999999</v>
+      </c>
+      <c r="BW195" s="2">
+        <v>568.35</v>
+      </c>
+      <c r="BX195" s="2">
+        <v>2505.61</v>
+      </c>
+      <c r="BY195" s="2">
+        <v>2095.6149999999998</v>
+      </c>
+      <c r="BZ195" s="2">
+        <v>833.85</v>
+      </c>
+      <c r="CA195" s="2">
+        <v>929.89499999999998</v>
+      </c>
+      <c r="CB195" s="2">
+        <v>1410.4939999999999</v>
+      </c>
+      <c r="CC195" s="2">
+        <v>1171.396</v>
+      </c>
+      <c r="CD195" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="CE195" s="2">
+        <v>202.86</v>
+      </c>
+      <c r="CF195" s="2">
+        <v>717.65099999999995</v>
+      </c>
+      <c r="CG195" s="2">
+        <v>611.17499999999995</v>
+      </c>
+      <c r="CH195" s="2">
+        <v>1466.0619999999999</v>
+      </c>
+      <c r="CI195" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="CJ195" s="2">
+        <v>1213.04</v>
+      </c>
+      <c r="CK195" s="2">
+        <v>2312.86</v>
+      </c>
+      <c r="CL195" s="2">
+        <v>989.1</v>
+      </c>
+      <c r="CM195" s="2">
+        <v>1456.7380000000001</v>
+      </c>
+      <c r="CN195" s="2">
+        <v>3125.0749999999998</v>
+      </c>
+      <c r="CO195" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP195" s="2">
+        <v>0</v>
+      </c>
+      <c r="CQ195" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR195" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS195" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT195" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU195" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV195" s="2">
+        <v>55762.160199999998</v>
+      </c>
+      <c r="CW195" s="2">
+        <v>106.32510000000001</v>
+      </c>
+      <c r="CX195" s="2">
+        <v>431.06729999999999</v>
+      </c>
+      <c r="CY195" s="2">
+        <v>4681.8845000000001</v>
+      </c>
+      <c r="CZ195" s="2">
+        <v>2324.5464000000002</v>
+      </c>
+      <c r="DA195" s="2">
+        <v>2094.9679000000001</v>
+      </c>
+      <c r="DB195" s="2">
+        <v>910.93640000000005</v>
+      </c>
+      <c r="DC195" s="2">
+        <v>439.79500000000002</v>
+      </c>
+      <c r="DD195" s="2">
+        <v>552.09259999999995</v>
+      </c>
+      <c r="DE195" s="2">
+        <v>279.09769999999997</v>
+      </c>
+      <c r="DF195" s="2">
+        <v>3701.895</v>
+      </c>
+      <c r="DG195" s="2">
+        <v>3241.7525999999998</v>
+      </c>
+      <c r="DH195" s="2">
+        <v>3068.9765000000002</v>
+      </c>
+      <c r="DI195" s="2">
+        <v>829.3999</v>
+      </c>
+      <c r="DJ195" s="2">
+        <v>1828.2019</v>
+      </c>
+      <c r="DK195" s="2">
+        <v>5450.1804000000002</v>
+      </c>
+      <c r="DL195" s="2">
+        <v>3608.4883</v>
+      </c>
+      <c r="DM195" s="2">
+        <v>2358.3534</v>
+      </c>
+      <c r="DN195" s="2">
+        <v>1090.7619</v>
+      </c>
+      <c r="DO195" s="2">
+        <v>2385.0565999999999</v>
+      </c>
+      <c r="DP195" s="2">
+        <v>959.81299999999999</v>
+      </c>
+      <c r="DQ195" s="2">
+        <v>442.15800000000002</v>
+      </c>
+      <c r="DR195" s="2">
+        <v>127.3935</v>
+      </c>
+      <c r="DS195" s="2">
+        <v>425.86380000000003</v>
+      </c>
+      <c r="DT195" s="2">
+        <v>1494.2787000000001</v>
+      </c>
+      <c r="DU195" s="2">
+        <v>1448.0409999999999</v>
+      </c>
+      <c r="DV195" s="2">
+        <v>236.60050000000001</v>
+      </c>
+      <c r="DW195" s="2">
+        <v>1976.7348</v>
+      </c>
+      <c r="DX195" s="2">
+        <v>2241.2319000000002</v>
+      </c>
+      <c r="DY195" s="2">
+        <v>2180.8476000000001</v>
+      </c>
+      <c r="DZ195" s="2">
+        <v>2021.6934000000001</v>
+      </c>
+      <c r="EA195" s="2">
+        <v>2823.7244000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:131">
+      <c r="A196" s="3">
+        <v>45291</v>
+      </c>
+      <c r="B196" s="2">
+        <v>102</v>
+      </c>
+      <c r="C196" s="2">
+        <v>484</v>
+      </c>
+      <c r="D196" s="2">
+        <v>225</v>
+      </c>
+      <c r="E196" s="2">
+        <v>241</v>
+      </c>
+      <c r="F196" s="2">
+        <v>334</v>
+      </c>
+      <c r="G196" s="2">
+        <v>648</v>
+      </c>
+      <c r="H196" s="2">
+        <v>235</v>
+      </c>
+      <c r="I196" s="2">
+        <v>265</v>
+      </c>
+      <c r="J196" s="2">
+        <v>1388</v>
+      </c>
+      <c r="K196" s="2">
+        <v>624</v>
+      </c>
+      <c r="L196" s="2">
+        <v>1606</v>
+      </c>
+      <c r="M196" s="2">
+        <v>679</v>
+      </c>
+      <c r="N196" s="2">
+        <v>407</v>
+      </c>
+      <c r="O196" s="2">
+        <v>535</v>
+      </c>
+      <c r="P196" s="2">
+        <v>3793</v>
+      </c>
+      <c r="Q196" s="2">
+        <v>1633</v>
+      </c>
+      <c r="R196" s="2">
+        <v>1912</v>
+      </c>
+      <c r="S196" s="2">
+        <v>1886</v>
+      </c>
+      <c r="T196" s="2">
+        <v>154</v>
+      </c>
+      <c r="U196" s="2">
+        <v>826</v>
+      </c>
+      <c r="V196" s="2">
+        <v>9759</v>
+      </c>
+      <c r="W196" s="2">
+        <v>2287</v>
+      </c>
+      <c r="X196" s="2">
+        <v>8143</v>
+      </c>
+      <c r="Y196" s="2">
+        <v>312</v>
+      </c>
+      <c r="Z196" s="2">
+        <v>353</v>
+      </c>
+      <c r="AA196" s="2">
+        <v>972</v>
+      </c>
+      <c r="AB196" s="2">
+        <v>1305</v>
+      </c>
+      <c r="AC196" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD196" s="2">
+        <v>1004</v>
+      </c>
+      <c r="AE196" s="2">
+        <v>1143</v>
+      </c>
+      <c r="AF196" s="2">
+        <v>1907</v>
+      </c>
+      <c r="AG196" s="2">
+        <v>5571</v>
+      </c>
+      <c r="AH196" s="2">
+        <v>8011</v>
+      </c>
+      <c r="AI196" s="2">
+        <v>11829</v>
+      </c>
+      <c r="AJ196" s="2">
+        <v>3856</v>
+      </c>
+      <c r="AK196" s="2">
+        <v>1890</v>
+      </c>
+      <c r="AL196" s="2">
+        <v>2557</v>
+      </c>
+      <c r="AM196" s="2">
+        <v>2557</v>
+      </c>
+      <c r="AN196" s="2">
+        <v>10748</v>
+      </c>
+      <c r="AO196" s="2">
+        <v>6794</v>
+      </c>
+      <c r="AP196" s="2">
+        <v>6071</v>
+      </c>
+      <c r="AQ196" s="2">
+        <v>3717</v>
+      </c>
+      <c r="AR196" s="2">
+        <v>2994</v>
+      </c>
+      <c r="AS196" s="2">
+        <v>11798</v>
+      </c>
+      <c r="AT196" s="2">
+        <v>7402</v>
+      </c>
+      <c r="AU196" s="2">
+        <v>3998</v>
+      </c>
+      <c r="AV196" s="2">
+        <v>2895</v>
+      </c>
+      <c r="AW196" s="2">
+        <v>11629</v>
+      </c>
+      <c r="AX196" s="2">
+        <v>2819</v>
+      </c>
+      <c r="AY196" s="2">
+        <v>852</v>
+      </c>
+      <c r="AZ196" s="2">
+        <v>1765</v>
+      </c>
+      <c r="BA196" s="2">
+        <v>1845</v>
+      </c>
+      <c r="BB196" s="2">
+        <v>3818</v>
+      </c>
+      <c r="BC196" s="2">
+        <v>1416</v>
+      </c>
+      <c r="BD196" s="2">
+        <v>42</v>
+      </c>
+      <c r="BE196" s="2">
+        <v>5676</v>
+      </c>
+      <c r="BF196" s="2">
+        <v>2525</v>
+      </c>
+      <c r="BG196" s="2">
+        <v>397</v>
+      </c>
+      <c r="BH196" s="2">
+        <v>3313</v>
+      </c>
+      <c r="BI196" s="2">
+        <v>7199</v>
+      </c>
+      <c r="BJ196" s="2">
+        <v>24</v>
+      </c>
+      <c r="BK196" s="2">
+        <v>171</v>
+      </c>
+      <c r="BL196" s="2">
+        <v>3141</v>
+      </c>
+      <c r="BM196" s="2">
+        <v>2500</v>
+      </c>
+      <c r="BN196" s="2">
+        <v>6961</v>
+      </c>
+      <c r="BO196" s="2">
+        <v>1429</v>
+      </c>
+      <c r="BP196" s="2">
+        <v>1268</v>
+      </c>
+      <c r="BQ196" s="2">
+        <v>1127</v>
+      </c>
+      <c r="BR196" s="2">
+        <v>107</v>
+      </c>
+      <c r="BS196" s="2">
+        <v>2286</v>
+      </c>
+      <c r="BT196" s="2">
+        <v>584</v>
+      </c>
+      <c r="BU196" s="2">
+        <v>722</v>
+      </c>
+      <c r="BV196" s="2">
+        <v>762</v>
+      </c>
+      <c r="BW196" s="2">
+        <v>573</v>
+      </c>
+      <c r="BX196" s="2">
+        <v>2591</v>
+      </c>
+      <c r="BY196" s="2">
+        <v>2178</v>
+      </c>
+      <c r="BZ196" s="2">
+        <v>836</v>
+      </c>
+      <c r="CA196" s="2">
+        <v>972</v>
+      </c>
+      <c r="CB196" s="2">
+        <v>1657</v>
+      </c>
+      <c r="CC196" s="2">
+        <v>1267</v>
+      </c>
+      <c r="CD196" s="2">
+        <v>31</v>
+      </c>
+      <c r="CE196" s="2">
+        <v>206</v>
+      </c>
+      <c r="CF196" s="2">
+        <v>770</v>
+      </c>
+      <c r="CG196" s="2">
+        <v>616</v>
+      </c>
+      <c r="CH196" s="2">
+        <v>1531</v>
+      </c>
+      <c r="CI196" s="2">
+        <v>18</v>
+      </c>
+      <c r="CJ196" s="2">
+        <v>1285</v>
+      </c>
+      <c r="CK196" s="2">
+        <v>2614</v>
+      </c>
+      <c r="CL196" s="2">
+        <v>1185</v>
+      </c>
+      <c r="CM196" s="2">
+        <v>1464</v>
+      </c>
+      <c r="CN196" s="2">
+        <v>3258</v>
+      </c>
+      <c r="CO196" s="2">
+        <v>668</v>
+      </c>
+      <c r="CP196" s="2">
+        <v>661</v>
+      </c>
+      <c r="CQ196" s="2">
+        <v>917</v>
+      </c>
+      <c r="CR196" s="2">
+        <v>1101</v>
+      </c>
+      <c r="CS196" s="2">
+        <v>1614</v>
+      </c>
+      <c r="CT196" s="2">
+        <v>336</v>
+      </c>
+      <c r="CU196" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV196" s="2">
+        <v>60949</v>
+      </c>
+      <c r="CW196" s="2">
+        <v>108</v>
+      </c>
+      <c r="CX196" s="2">
+        <v>490</v>
+      </c>
+      <c r="CY196" s="2">
+        <v>5416</v>
+      </c>
+      <c r="CZ196" s="2">
+        <v>2490</v>
+      </c>
+      <c r="DA196" s="2">
+        <v>2306</v>
+      </c>
+      <c r="DB196" s="2">
+        <v>958</v>
+      </c>
+      <c r="DC196" s="2">
+        <v>460</v>
+      </c>
+      <c r="DD196" s="2">
+        <v>565</v>
+      </c>
+      <c r="DE196" s="2">
+        <v>289</v>
+      </c>
+      <c r="DF196" s="2">
+        <v>3928</v>
+      </c>
+      <c r="DG196" s="2">
+        <v>3357</v>
+      </c>
+      <c r="DH196" s="2">
+        <v>3223</v>
+      </c>
+      <c r="DI196" s="2">
+        <v>875</v>
+      </c>
+      <c r="DJ196" s="2">
+        <v>1993</v>
+      </c>
+      <c r="DK196" s="2">
+        <v>5693</v>
+      </c>
+      <c r="DL196" s="2">
+        <v>3731</v>
+      </c>
+      <c r="DM196" s="2">
+        <v>2487</v>
+      </c>
+      <c r="DN196" s="2">
+        <v>1252</v>
+      </c>
+      <c r="DO196" s="2">
+        <v>2522</v>
+      </c>
+      <c r="DP196" s="2">
+        <v>1090</v>
+      </c>
+      <c r="DQ196" s="2">
+        <v>472</v>
+      </c>
+      <c r="DR196" s="2">
+        <v>161</v>
+      </c>
+      <c r="DS196" s="2">
+        <v>574</v>
+      </c>
+      <c r="DT196" s="2">
+        <v>1644</v>
+      </c>
+      <c r="DU196" s="2">
+        <v>2072</v>
+      </c>
+      <c r="DV196" s="2">
+        <v>257</v>
+      </c>
+      <c r="DW196" s="2">
+        <v>2292</v>
+      </c>
+      <c r="DX196" s="2">
+        <v>2540</v>
+      </c>
+      <c r="DY196" s="2">
+        <v>2561</v>
+      </c>
+      <c r="DZ196" s="2">
+        <v>2137</v>
+      </c>
+      <c r="EA196" s="2">
+        <v>3007</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA2514F-7D5F-4155-A1FF-8A64EA59071E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E425762F-BBC2-4922-B3B4-A51BF6E1069D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Generating Capacity of 60" sheetId="1" r:id="rId1"/>
@@ -878,24 +878,6 @@
     <t>2018-05-07</t>
   </si>
   <si>
-    <t>2007-06:2023-12</t>
-  </si>
-  <si>
-    <t>2007-12:2023-12</t>
-  </si>
-  <si>
-    <t>2008-04:2023-12</t>
-  </si>
-  <si>
-    <t>2011-04:2023-12</t>
-  </si>
-  <si>
-    <t>2014-12:2023-12</t>
-  </si>
-  <si>
-    <t>2011-02:2023-12</t>
-  </si>
-  <si>
     <t>2012:2023</t>
   </si>
   <si>
@@ -905,13 +887,31 @@
     <t>2000:2023</t>
   </si>
   <si>
-    <t>2018-02:2023-12</t>
+    <t>2024-02-06</t>
   </si>
   <si>
-    <t>2024-02-05</t>
+    <t>2007-06:2024-02</t>
   </si>
   <si>
-    <t>2024-02-06</t>
+    <t>2007-12:2024-02</t>
+  </si>
+  <si>
+    <t>2008-04:2024-02</t>
+  </si>
+  <si>
+    <t>2011-04:2024-02</t>
+  </si>
+  <si>
+    <t>2014-12:2024-02</t>
+  </si>
+  <si>
+    <t>2011-02:2024-02</t>
+  </si>
+  <si>
+    <t>2018-02:2024-02</t>
+  </si>
+  <si>
+    <t>2024-04-02</t>
   </si>
 </sst>
 </file>
@@ -1312,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EA196"/>
+  <dimension ref="A1:EA198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2918,394 +2918,394 @@
         <v>267</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AV6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AX6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AY6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AZ6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="BB6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="BC6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="BD6" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="BE6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="BF6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="BG6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="BH6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="BI6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="BJ6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BK6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BL6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BN6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BO6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BP6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BQ6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BR6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BS6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BT6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BU6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BV6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BW6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BX6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BY6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BZ6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="CA6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="CB6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="CC6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="CD6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="CE6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="CF6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="CG6" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="CH6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="CI6" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="CJ6" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="CK6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="CL6" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="CM6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="CN6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="CO6" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="CP6" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="CQ6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="CR6" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="CS6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="CT6" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AO6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AP6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AV6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AY6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="BA6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="BB6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="BC6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="BE6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="BF6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="BG6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="BH6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="BI6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="BJ6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="BK6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="BL6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="BM6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="BN6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="BO6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="BP6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="BQ6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="BR6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="BS6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="BT6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="BU6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="BV6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="BW6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="BX6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="BY6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="BZ6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="CA6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="CB6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="CC6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="CD6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="CE6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="CF6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="CG6" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="CH6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="CI6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="CJ6" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="CK6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="CL6" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="CM6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="CN6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="CO6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="CP6" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="CQ6" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="CR6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="CS6" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="CT6" s="4" t="s">
-        <v>279</v>
       </c>
       <c r="CU6" s="4" t="s">
         <v>268</v>
       </c>
       <c r="CV6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="CW6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="CX6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="CY6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="CZ6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DA6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DB6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DC6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DD6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DE6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DF6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DG6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DH6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DI6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DJ6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DK6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DL6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DM6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DN6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DO6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DP6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DQ6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DR6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DS6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DT6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DU6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DV6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DW6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DX6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DY6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="DZ6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="EA6" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:131">
@@ -3708,394 +3708,394 @@
         <v>271</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AD8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AJ8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AP8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AQ8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AR8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AS8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AT8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AU8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AV8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AW8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AX8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AY8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AZ8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BA8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BB8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BC8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BD8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BE8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BF8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BG8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BH8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BI8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BJ8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BK8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BL8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BM8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BN8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BO8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BP8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BQ8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BR8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BS8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BT8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BU8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BV8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BW8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BX8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BY8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BZ8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CA8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CB8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CC8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CD8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CE8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CF8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CG8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CH8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CI8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CJ8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CK8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CL8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CM8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CN8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CO8" s="5" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="CP8" s="5" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="CQ8" s="5" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="CR8" s="5" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="CS8" s="5" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="CT8" s="5" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="CU8" s="5" t="s">
         <v>272</v>
       </c>
       <c r="CV8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CW8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CX8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CY8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CZ8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DA8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DB8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DC8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DD8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DE8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DF8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DG8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DH8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DI8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DJ8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DK8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DL8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DM8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DN8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DO8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DP8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DQ8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DR8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DS8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DT8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DU8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DV8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DW8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DX8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DY8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="DZ8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="EA8" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:131">
@@ -74410,223 +74410,223 @@
     </row>
     <row r="187" spans="1:131">
       <c r="A187" s="3">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="B187" s="2">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="C187" s="2">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="D187" s="2">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="E187" s="2">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="F187" s="2">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="G187" s="2">
-        <v>619</v>
+        <v>0</v>
       </c>
       <c r="H187" s="2">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="I187" s="2">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="J187" s="2">
-        <v>1164</v>
+        <v>0</v>
       </c>
       <c r="K187" s="2">
-        <v>544</v>
+        <v>0</v>
       </c>
       <c r="L187" s="2">
-        <v>1198</v>
+        <v>0</v>
       </c>
       <c r="M187" s="2">
-        <v>471</v>
+        <v>0</v>
       </c>
       <c r="N187" s="2">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="O187" s="2">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="P187" s="2">
-        <v>3662</v>
+        <v>0</v>
       </c>
       <c r="Q187" s="2">
-        <v>1259</v>
+        <v>0</v>
       </c>
       <c r="R187" s="2">
-        <v>1413</v>
+        <v>0</v>
       </c>
       <c r="S187" s="2">
-        <v>1696</v>
+        <v>0</v>
       </c>
       <c r="T187" s="2">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="U187" s="2">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="V187" s="2">
-        <v>9414</v>
+        <v>0</v>
       </c>
       <c r="W187" s="2">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="X187" s="2">
-        <v>6990</v>
+        <v>0</v>
       </c>
       <c r="Y187" s="2">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="Z187" s="2">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="AA187" s="2">
-        <v>852</v>
+        <v>0</v>
       </c>
       <c r="AB187" s="2">
-        <v>1240</v>
+        <v>0</v>
       </c>
       <c r="AC187" s="2">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AD187" s="2">
-        <v>913</v>
+        <v>0</v>
       </c>
       <c r="AE187" s="2">
-        <v>1136</v>
+        <v>0</v>
       </c>
       <c r="AF187" s="2">
-        <v>1888</v>
+        <v>0</v>
       </c>
       <c r="AG187" s="2">
-        <v>5422</v>
+        <v>0</v>
       </c>
       <c r="AH187" s="2">
-        <v>7826</v>
+        <v>0</v>
       </c>
       <c r="AI187" s="2">
-        <v>10767</v>
+        <v>0</v>
       </c>
       <c r="AJ187" s="2">
-        <v>3845</v>
+        <v>0</v>
       </c>
       <c r="AK187" s="2">
-        <v>1849</v>
+        <v>0</v>
       </c>
       <c r="AL187" s="2">
-        <v>2521</v>
+        <v>0</v>
       </c>
       <c r="AM187" s="2">
-        <v>2523</v>
+        <v>0</v>
       </c>
       <c r="AN187" s="2">
-        <v>10489</v>
+        <v>0</v>
       </c>
       <c r="AO187" s="2">
-        <v>6530</v>
+        <v>0</v>
       </c>
       <c r="AP187" s="2">
-        <v>5940</v>
+        <v>0</v>
       </c>
       <c r="AQ187" s="2">
-        <v>3670</v>
+        <v>0</v>
       </c>
       <c r="AR187" s="2">
-        <v>3013</v>
+        <v>0</v>
       </c>
       <c r="AS187" s="2">
-        <v>11719</v>
+        <v>0</v>
       </c>
       <c r="AT187" s="2">
-        <v>7257</v>
+        <v>0</v>
       </c>
       <c r="AU187" s="2">
-        <v>3543</v>
+        <v>0</v>
       </c>
       <c r="AV187" s="2">
-        <v>2569</v>
+        <v>0</v>
       </c>
       <c r="AW187" s="2">
-        <v>10737</v>
+        <v>0</v>
       </c>
       <c r="AX187" s="2">
-        <v>2722</v>
+        <v>0</v>
       </c>
       <c r="AY187" s="2">
-        <v>802</v>
+        <v>0</v>
       </c>
       <c r="AZ187" s="2">
-        <v>1637</v>
+        <v>0</v>
       </c>
       <c r="BA187" s="2">
-        <v>1816</v>
+        <v>0</v>
       </c>
       <c r="BB187" s="2">
-        <v>3721</v>
+        <v>0</v>
       </c>
       <c r="BC187" s="2">
-        <v>1256</v>
+        <v>0</v>
       </c>
       <c r="BD187" s="2">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="BE187" s="2">
-        <v>5129</v>
+        <v>0</v>
       </c>
       <c r="BF187" s="2">
-        <v>2316</v>
+        <v>0</v>
       </c>
       <c r="BG187" s="2">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="BH187" s="2">
-        <v>3302</v>
+        <v>0</v>
       </c>
       <c r="BI187" s="2">
-        <v>6977</v>
+        <v>0</v>
       </c>
       <c r="BJ187" s="2">
         <v>23</v>
       </c>
       <c r="BK187" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="BL187" s="2">
-        <v>2820</v>
+        <v>2794</v>
       </c>
       <c r="BM187" s="2">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="BN187" s="2">
-        <v>4860</v>
+        <v>4773</v>
       </c>
       <c r="BO187" s="2">
-        <v>1241</v>
+        <v>1213</v>
       </c>
       <c r="BP187" s="2">
-        <v>1162</v>
+        <v>1144</v>
       </c>
       <c r="BQ187" s="2">
-        <v>1005</v>
+        <v>943</v>
       </c>
       <c r="BR187" s="2">
         <v>107</v>
       </c>
       <c r="BS187" s="2">
-        <v>2261</v>
+        <v>2257</v>
       </c>
       <c r="BT187" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="BU187" s="2">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="BV187" s="2">
         <v>742</v>
@@ -74635,13 +74635,13 @@
         <v>555</v>
       </c>
       <c r="BX187" s="2">
-        <v>2334</v>
+        <v>2319</v>
       </c>
       <c r="BY187" s="2">
-        <v>1936</v>
+        <v>1923</v>
       </c>
       <c r="BZ187" s="2">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="CA187" s="2">
         <v>911</v>
@@ -74650,31 +74650,31 @@
         <v>1362</v>
       </c>
       <c r="CC187" s="2">
-        <v>996</v>
+        <v>981</v>
       </c>
       <c r="CD187" s="2">
         <v>29</v>
       </c>
       <c r="CE187" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="CF187" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="CG187" s="2">
         <v>592</v>
       </c>
       <c r="CH187" s="2">
-        <v>1013</v>
+        <v>957</v>
       </c>
       <c r="CI187" s="2">
         <v>3</v>
       </c>
       <c r="CJ187" s="2">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="CK187" s="2">
-        <v>2108</v>
+        <v>2088</v>
       </c>
       <c r="CL187" s="2">
         <v>971</v>
@@ -74683,7 +74683,7 @@
         <v>1457</v>
       </c>
       <c r="CN187" s="2">
-        <v>2673</v>
+        <v>2628</v>
       </c>
       <c r="CO187" s="2">
         <v>0</v>
@@ -74707,111 +74707,111 @@
         <v>0</v>
       </c>
       <c r="CV187" s="2">
-        <v>42589</v>
+        <v>41304</v>
       </c>
       <c r="CW187" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="CX187" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="CY187" s="2">
-        <v>4012</v>
+        <v>3986</v>
       </c>
       <c r="CZ187" s="2">
-        <v>1792</v>
+        <v>1776</v>
       </c>
       <c r="DA187" s="2">
-        <v>1724</v>
+        <v>1650</v>
       </c>
       <c r="DB187" s="2">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="DC187" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="DD187" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="DE187" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="DF187" s="2">
-        <v>2765</v>
+        <v>2696</v>
       </c>
       <c r="DG187" s="2">
-        <v>2685</v>
+        <v>2643</v>
       </c>
       <c r="DH187" s="2">
-        <v>2389</v>
+        <v>2304</v>
       </c>
       <c r="DI187" s="2">
-        <v>555</v>
+        <v>527</v>
       </c>
       <c r="DJ187" s="2">
-        <v>1362</v>
+        <v>1293</v>
       </c>
       <c r="DK187" s="2">
-        <v>4551</v>
+        <v>4463</v>
       </c>
       <c r="DL187" s="2">
-        <v>2662</v>
+        <v>2533</v>
       </c>
       <c r="DM187" s="2">
-        <v>1598</v>
+        <v>1488</v>
       </c>
       <c r="DN187" s="2">
-        <v>720</v>
+        <v>693</v>
       </c>
       <c r="DO187" s="2">
-        <v>1752</v>
+        <v>1689</v>
       </c>
       <c r="DP187" s="2">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="DQ187" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="DR187" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="DS187" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="DT187" s="2">
-        <v>1440</v>
+        <v>1420</v>
       </c>
       <c r="DU187" s="2">
-        <v>701</v>
+        <v>628</v>
       </c>
       <c r="DV187" s="2">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="DW187" s="2">
-        <v>1662</v>
+        <v>1584</v>
       </c>
       <c r="DX187" s="2">
-        <v>1468</v>
+        <v>1447</v>
       </c>
       <c r="DY187" s="2">
-        <v>1923</v>
+        <v>1873</v>
       </c>
       <c r="DZ187" s="2">
-        <v>1672</v>
+        <v>1618</v>
       </c>
       <c r="EA187" s="2">
-        <v>1688</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="188" spans="1:131">
       <c r="A188" s="3">
-        <v>45046</v>
+        <v>45016</v>
       </c>
       <c r="B188" s="2">
         <v>101</v>
       </c>
       <c r="C188" s="2">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="D188" s="2">
         <v>215</v>
@@ -74841,25 +74841,25 @@
         <v>1198</v>
       </c>
       <c r="M188" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N188" s="2">
         <v>282</v>
       </c>
       <c r="O188" s="2">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="P188" s="2">
         <v>3662</v>
       </c>
       <c r="Q188" s="2">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="R188" s="2">
         <v>1413</v>
       </c>
       <c r="S188" s="2">
-        <v>1712</v>
+        <v>1696</v>
       </c>
       <c r="T188" s="2">
         <v>127</v>
@@ -74868,10 +74868,10 @@
         <v>667</v>
       </c>
       <c r="V188" s="2">
-        <v>9416</v>
+        <v>9414</v>
       </c>
       <c r="W188" s="2">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="X188" s="2">
         <v>6990</v>
@@ -74883,7 +74883,7 @@
         <v>310</v>
       </c>
       <c r="AA188" s="2">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="AB188" s="2">
         <v>1240</v>
@@ -74901,52 +74901,52 @@
         <v>1888</v>
       </c>
       <c r="AG188" s="2">
-        <v>5435</v>
+        <v>5422</v>
       </c>
       <c r="AH188" s="2">
-        <v>7848</v>
+        <v>7826</v>
       </c>
       <c r="AI188" s="2">
-        <v>10833</v>
+        <v>10767</v>
       </c>
       <c r="AJ188" s="2">
         <v>3845</v>
       </c>
       <c r="AK188" s="2">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="AL188" s="2">
-        <v>2529</v>
+        <v>2521</v>
       </c>
       <c r="AM188" s="2">
-        <v>2611</v>
+        <v>2523</v>
       </c>
       <c r="AN188" s="2">
-        <v>10457</v>
+        <v>10489</v>
       </c>
       <c r="AO188" s="2">
-        <v>6629</v>
+        <v>6530</v>
       </c>
       <c r="AP188" s="2">
-        <v>5941</v>
+        <v>5940</v>
       </c>
       <c r="AQ188" s="2">
         <v>3670</v>
       </c>
       <c r="AR188" s="2">
-        <v>2992</v>
+        <v>3013</v>
       </c>
       <c r="AS188" s="2">
-        <v>11792</v>
+        <v>11719</v>
       </c>
       <c r="AT188" s="2">
-        <v>7268</v>
+        <v>7257</v>
       </c>
       <c r="AU188" s="2">
-        <v>3551</v>
+        <v>3543</v>
       </c>
       <c r="AV188" s="2">
-        <v>2668</v>
+        <v>2569</v>
       </c>
       <c r="AW188" s="2">
         <v>10737</v>
@@ -74964,7 +74964,7 @@
         <v>1816</v>
       </c>
       <c r="BB188" s="2">
-        <v>3667</v>
+        <v>3721</v>
       </c>
       <c r="BC188" s="2">
         <v>1256</v>
@@ -74973,7 +74973,7 @@
         <v>41</v>
       </c>
       <c r="BE188" s="2">
-        <v>5125</v>
+        <v>5129</v>
       </c>
       <c r="BF188" s="2">
         <v>2316</v>
@@ -74985,58 +74985,58 @@
         <v>3302</v>
       </c>
       <c r="BI188" s="2">
-        <v>7080</v>
+        <v>6977</v>
       </c>
       <c r="BJ188" s="2">
         <v>23</v>
       </c>
       <c r="BK188" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BL188" s="2">
-        <v>2854</v>
+        <v>2820</v>
       </c>
       <c r="BM188" s="2">
-        <v>2355</v>
+        <v>2342</v>
       </c>
       <c r="BN188" s="2">
-        <v>4915</v>
+        <v>4860</v>
       </c>
       <c r="BO188" s="2">
-        <v>1293</v>
+        <v>1241</v>
       </c>
       <c r="BP188" s="2">
         <v>1162</v>
       </c>
       <c r="BQ188" s="2">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="BR188" s="2">
         <v>107</v>
       </c>
       <c r="BS188" s="2">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="BT188" s="2">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="BU188" s="2">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="BV188" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BW188" s="2">
         <v>555</v>
       </c>
       <c r="BX188" s="2">
-        <v>2357</v>
+        <v>2334</v>
       </c>
       <c r="BY188" s="2">
-        <v>1940</v>
+        <v>1936</v>
       </c>
       <c r="BZ188" s="2">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="CA188" s="2">
         <v>911</v>
@@ -75045,7 +75045,7 @@
         <v>1362</v>
       </c>
       <c r="CC188" s="2">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="CD188" s="2">
         <v>29</v>
@@ -75054,13 +75054,13 @@
         <v>182</v>
       </c>
       <c r="CF188" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="CG188" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="CH188" s="2">
-        <v>1051</v>
+        <v>1013</v>
       </c>
       <c r="CI188" s="2">
         <v>3</v>
@@ -75069,7 +75069,7 @@
         <v>1192</v>
       </c>
       <c r="CK188" s="2">
-        <v>2118</v>
+        <v>2108</v>
       </c>
       <c r="CL188" s="2">
         <v>971</v>
@@ -75078,7 +75078,7 @@
         <v>1457</v>
       </c>
       <c r="CN188" s="2">
-        <v>2775</v>
+        <v>2673</v>
       </c>
       <c r="CO188" s="2">
         <v>0</v>
@@ -75102,111 +75102,111 @@
         <v>0</v>
       </c>
       <c r="CV188" s="2">
-        <v>44050</v>
+        <v>42589</v>
       </c>
       <c r="CW188" s="2">
         <v>99</v>
       </c>
       <c r="CX188" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="CY188" s="2">
-        <v>4046</v>
+        <v>4012</v>
       </c>
       <c r="CZ188" s="2">
-        <v>1824</v>
+        <v>1792</v>
       </c>
       <c r="DA188" s="2">
-        <v>1741</v>
+        <v>1724</v>
       </c>
       <c r="DB188" s="2">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="DC188" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="DD188" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="DE188" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="DF188" s="2">
-        <v>2868</v>
+        <v>2765</v>
       </c>
       <c r="DG188" s="2">
-        <v>2739</v>
+        <v>2685</v>
       </c>
       <c r="DH188" s="2">
-        <v>2502</v>
+        <v>2389</v>
       </c>
       <c r="DI188" s="2">
-        <v>582</v>
+        <v>555</v>
       </c>
       <c r="DJ188" s="2">
-        <v>1427</v>
+        <v>1362</v>
       </c>
       <c r="DK188" s="2">
-        <v>4684</v>
+        <v>4551</v>
       </c>
       <c r="DL188" s="2">
-        <v>2838</v>
+        <v>2662</v>
       </c>
       <c r="DM188" s="2">
-        <v>1664</v>
+        <v>1598</v>
       </c>
       <c r="DN188" s="2">
-        <v>754</v>
+        <v>720</v>
       </c>
       <c r="DO188" s="2">
-        <v>1812</v>
+        <v>1752</v>
       </c>
       <c r="DP188" s="2">
-        <v>614</v>
+        <v>556</v>
       </c>
       <c r="DQ188" s="2">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="DR188" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="DS188" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="DT188" s="2">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="DU188" s="2">
-        <v>736</v>
+        <v>701</v>
       </c>
       <c r="DV188" s="2">
         <v>201</v>
       </c>
       <c r="DW188" s="2">
-        <v>1686</v>
+        <v>1662</v>
       </c>
       <c r="DX188" s="2">
-        <v>1614</v>
+        <v>1468</v>
       </c>
       <c r="DY188" s="2">
-        <v>1940</v>
+        <v>1923</v>
       </c>
       <c r="DZ188" s="2">
-        <v>1791</v>
+        <v>1672</v>
       </c>
       <c r="EA188" s="2">
-        <v>1791</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="189" spans="1:131">
       <c r="A189" s="3">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="B189" s="2">
         <v>101</v>
       </c>
       <c r="C189" s="2">
-        <v>468</v>
+        <v>438</v>
       </c>
       <c r="D189" s="2">
         <v>215</v>
@@ -75230,31 +75230,31 @@
         <v>1164</v>
       </c>
       <c r="K189" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="L189" s="2">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="M189" s="2">
         <v>470</v>
       </c>
       <c r="N189" s="2">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="O189" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="P189" s="2">
         <v>3662</v>
       </c>
       <c r="Q189" s="2">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="R189" s="2">
         <v>1413</v>
       </c>
       <c r="S189" s="2">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="T189" s="2">
         <v>127</v>
@@ -75263,7 +75263,7 @@
         <v>667</v>
       </c>
       <c r="V189" s="2">
-        <v>9425</v>
+        <v>9416</v>
       </c>
       <c r="W189" s="2">
         <v>2002</v>
@@ -75272,13 +75272,13 @@
         <v>6990</v>
       </c>
       <c r="Y189" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Z189" s="2">
         <v>310</v>
       </c>
       <c r="AA189" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="AB189" s="2">
         <v>1240</v>
@@ -75287,46 +75287,46 @@
         <v>42</v>
       </c>
       <c r="AD189" s="2">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="AE189" s="2">
         <v>1136</v>
       </c>
       <c r="AF189" s="2">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="AG189" s="2">
         <v>5435</v>
       </c>
       <c r="AH189" s="2">
-        <v>7866</v>
+        <v>7848</v>
       </c>
       <c r="AI189" s="2">
-        <v>10838</v>
+        <v>10833</v>
       </c>
       <c r="AJ189" s="2">
-        <v>3847</v>
+        <v>3845</v>
       </c>
       <c r="AK189" s="2">
-        <v>1861</v>
+        <v>1851</v>
       </c>
       <c r="AL189" s="2">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="AM189" s="2">
         <v>2611</v>
       </c>
       <c r="AN189" s="2">
-        <v>10484</v>
+        <v>10457</v>
       </c>
       <c r="AO189" s="2">
-        <v>6664</v>
+        <v>6629</v>
       </c>
       <c r="AP189" s="2">
-        <v>5943</v>
+        <v>5941</v>
       </c>
       <c r="AQ189" s="2">
-        <v>3669</v>
+        <v>3670</v>
       </c>
       <c r="AR189" s="2">
         <v>2992</v>
@@ -75335,25 +75335,25 @@
         <v>11792</v>
       </c>
       <c r="AT189" s="2">
-        <v>7294</v>
+        <v>7268</v>
       </c>
       <c r="AU189" s="2">
-        <v>3566</v>
+        <v>3551</v>
       </c>
       <c r="AV189" s="2">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="AW189" s="2">
-        <v>10855</v>
+        <v>10737</v>
       </c>
       <c r="AX189" s="2">
         <v>2722</v>
       </c>
       <c r="AY189" s="2">
-        <v>848</v>
+        <v>802</v>
       </c>
       <c r="AZ189" s="2">
-        <v>1703</v>
+        <v>1637</v>
       </c>
       <c r="BA189" s="2">
         <v>1816</v>
@@ -75368,16 +75368,16 @@
         <v>41</v>
       </c>
       <c r="BE189" s="2">
-        <v>5377</v>
+        <v>5125</v>
       </c>
       <c r="BF189" s="2">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="BG189" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="BH189" s="2">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="BI189" s="2">
         <v>7080</v>
@@ -75386,76 +75386,76 @@
         <v>23</v>
       </c>
       <c r="BK189" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="BL189" s="2">
-        <v>2859</v>
+        <v>2854</v>
       </c>
       <c r="BM189" s="2">
-        <v>2361</v>
+        <v>2355</v>
       </c>
       <c r="BN189" s="2">
-        <v>4998</v>
+        <v>4915</v>
       </c>
       <c r="BO189" s="2">
-        <v>1315</v>
+        <v>1293</v>
       </c>
       <c r="BP189" s="2">
-        <v>1182</v>
+        <v>1162</v>
       </c>
       <c r="BQ189" s="2">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="BR189" s="2">
         <v>107</v>
       </c>
       <c r="BS189" s="2">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="BT189" s="2">
         <v>462</v>
       </c>
       <c r="BU189" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="BV189" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="BW189" s="2">
         <v>555</v>
       </c>
       <c r="BX189" s="2">
-        <v>2367</v>
+        <v>2357</v>
       </c>
       <c r="BY189" s="2">
-        <v>1946</v>
+        <v>1940</v>
       </c>
       <c r="BZ189" s="2">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="CA189" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="CB189" s="2">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="CC189" s="2">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="CD189" s="2">
         <v>29</v>
       </c>
       <c r="CE189" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="CF189" s="2">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="CG189" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="CH189" s="2">
-        <v>1141</v>
+        <v>1051</v>
       </c>
       <c r="CI189" s="2">
         <v>3</v>
@@ -75473,7 +75473,7 @@
         <v>1457</v>
       </c>
       <c r="CN189" s="2">
-        <v>2799</v>
+        <v>2775</v>
       </c>
       <c r="CO189" s="2">
         <v>0</v>
@@ -75497,105 +75497,105 @@
         <v>0</v>
       </c>
       <c r="CV189" s="2">
-        <v>45392</v>
+        <v>44050</v>
       </c>
       <c r="CW189" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="CX189" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="CY189" s="2">
-        <v>4084</v>
+        <v>4046</v>
       </c>
       <c r="CZ189" s="2">
-        <v>1858</v>
+        <v>1824</v>
       </c>
       <c r="DA189" s="2">
-        <v>1753</v>
+        <v>1741</v>
       </c>
       <c r="DB189" s="2">
-        <v>717</v>
+        <v>692</v>
       </c>
       <c r="DC189" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="DD189" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="DE189" s="2">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="DF189" s="2">
-        <v>2970</v>
+        <v>2868</v>
       </c>
       <c r="DG189" s="2">
-        <v>2789</v>
+        <v>2739</v>
       </c>
       <c r="DH189" s="2">
-        <v>2567</v>
+        <v>2502</v>
       </c>
       <c r="DI189" s="2">
-        <v>645</v>
+        <v>582</v>
       </c>
       <c r="DJ189" s="2">
-        <v>1482</v>
+        <v>1427</v>
       </c>
       <c r="DK189" s="2">
-        <v>4795</v>
+        <v>4684</v>
       </c>
       <c r="DL189" s="2">
-        <v>2967</v>
+        <v>2838</v>
       </c>
       <c r="DM189" s="2">
-        <v>1768</v>
+        <v>1664</v>
       </c>
       <c r="DN189" s="2">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="DO189" s="2">
-        <v>1875</v>
+        <v>1812</v>
       </c>
       <c r="DP189" s="2">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="DQ189" s="2">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="DR189" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="DS189" s="2">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="DT189" s="2">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="DU189" s="2">
-        <v>846</v>
+        <v>736</v>
       </c>
       <c r="DV189" s="2">
         <v>201</v>
       </c>
       <c r="DW189" s="2">
-        <v>1794</v>
+        <v>1686</v>
       </c>
       <c r="DX189" s="2">
-        <v>1640</v>
+        <v>1614</v>
       </c>
       <c r="DY189" s="2">
-        <v>1933</v>
+        <v>1940</v>
       </c>
       <c r="DZ189" s="2">
-        <v>1860</v>
+        <v>1791</v>
       </c>
       <c r="EA189" s="2">
-        <v>1823</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="190" spans="1:131">
       <c r="A190" s="3">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="B190" s="2">
         <v>101</v>
@@ -75631,34 +75631,34 @@
         <v>1201</v>
       </c>
       <c r="M190" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N190" s="2">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="O190" s="2">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="P190" s="2">
-        <v>3670</v>
+        <v>3662</v>
       </c>
       <c r="Q190" s="2">
-        <v>1260</v>
+        <v>1266</v>
       </c>
       <c r="R190" s="2">
         <v>1413</v>
       </c>
       <c r="S190" s="2">
-        <v>1733</v>
+        <v>1713</v>
       </c>
       <c r="T190" s="2">
         <v>127</v>
       </c>
       <c r="U190" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="V190" s="2">
-        <v>9431</v>
+        <v>9425</v>
       </c>
       <c r="W190" s="2">
         <v>2002</v>
@@ -75670,76 +75670,76 @@
         <v>284</v>
       </c>
       <c r="Z190" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AA190" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AB190" s="2">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="AC190" s="2">
         <v>42</v>
       </c>
       <c r="AD190" s="2">
-        <v>939</v>
+        <v>916</v>
       </c>
       <c r="AE190" s="2">
         <v>1136</v>
       </c>
       <c r="AF190" s="2">
-        <v>1907</v>
+        <v>1890</v>
       </c>
       <c r="AG190" s="2">
-        <v>5499</v>
+        <v>5435</v>
       </c>
       <c r="AH190" s="2">
-        <v>7871</v>
+        <v>7866</v>
       </c>
       <c r="AI190" s="2">
-        <v>11076</v>
+        <v>10838</v>
       </c>
       <c r="AJ190" s="2">
-        <v>3848</v>
+        <v>3847</v>
       </c>
       <c r="AK190" s="2">
-        <v>1871</v>
+        <v>1861</v>
       </c>
       <c r="AL190" s="2">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="AM190" s="2">
-        <v>2551</v>
+        <v>2611</v>
       </c>
       <c r="AN190" s="2">
-        <v>10493</v>
+        <v>10484</v>
       </c>
       <c r="AO190" s="2">
-        <v>6767</v>
+        <v>6664</v>
       </c>
       <c r="AP190" s="2">
-        <v>5948</v>
+        <v>5943</v>
       </c>
       <c r="AQ190" s="2">
-        <v>3682</v>
+        <v>3669</v>
       </c>
       <c r="AR190" s="2">
-        <v>2983</v>
+        <v>2992</v>
       </c>
       <c r="AS190" s="2">
-        <v>11802</v>
+        <v>11792</v>
       </c>
       <c r="AT190" s="2">
-        <v>7291</v>
+        <v>7294</v>
       </c>
       <c r="AU190" s="2">
-        <v>3565</v>
+        <v>3566</v>
       </c>
       <c r="AV190" s="2">
         <v>2669</v>
       </c>
       <c r="AW190" s="2">
-        <v>10950</v>
+        <v>10855</v>
       </c>
       <c r="AX190" s="2">
         <v>2722</v>
@@ -75751,7 +75751,7 @@
         <v>1703</v>
       </c>
       <c r="BA190" s="2">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="BB190" s="2">
         <v>3667</v>
@@ -75763,19 +75763,19 @@
         <v>41</v>
       </c>
       <c r="BE190" s="2">
-        <v>5459</v>
+        <v>5377</v>
       </c>
       <c r="BF190" s="2">
-        <v>2324</v>
+        <v>2318</v>
       </c>
       <c r="BG190" s="2">
         <v>396</v>
       </c>
       <c r="BH190" s="2">
-        <v>3306</v>
+        <v>3304</v>
       </c>
       <c r="BI190" s="2">
-        <v>7083</v>
+        <v>7080</v>
       </c>
       <c r="BJ190" s="2">
         <v>23</v>
@@ -75784,73 +75784,73 @@
         <v>147</v>
       </c>
       <c r="BL190" s="2">
-        <v>2926</v>
+        <v>2859</v>
       </c>
       <c r="BM190" s="2">
-        <v>2370</v>
+        <v>2361</v>
       </c>
       <c r="BN190" s="2">
-        <v>5186</v>
+        <v>4998</v>
       </c>
       <c r="BO190" s="2">
-        <v>1329</v>
+        <v>1315</v>
       </c>
       <c r="BP190" s="2">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="BQ190" s="2">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="BR190" s="2">
         <v>107</v>
       </c>
       <c r="BS190" s="2">
-        <v>2268</v>
+        <v>2263</v>
       </c>
       <c r="BT190" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="BU190" s="2">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="BV190" s="2">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="BW190" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="BX190" s="2">
-        <v>2421</v>
+        <v>2367</v>
       </c>
       <c r="BY190" s="2">
-        <v>1972</v>
+        <v>1946</v>
       </c>
       <c r="BZ190" s="2">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="CA190" s="2">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="CB190" s="2">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="CC190" s="2">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="CD190" s="2">
         <v>29</v>
       </c>
       <c r="CE190" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="CF190" s="2">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="CG190" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="CH190" s="2">
-        <v>1173</v>
+        <v>1141</v>
       </c>
       <c r="CI190" s="2">
         <v>3</v>
@@ -75859,7 +75859,7 @@
         <v>1192</v>
       </c>
       <c r="CK190" s="2">
-        <v>2133</v>
+        <v>2118</v>
       </c>
       <c r="CL190" s="2">
         <v>971</v>
@@ -75868,7 +75868,7 @@
         <v>1457</v>
       </c>
       <c r="CN190" s="2">
-        <v>2976</v>
+        <v>2799</v>
       </c>
       <c r="CO190" s="2">
         <v>0</v>
@@ -75892,105 +75892,105 @@
         <v>0</v>
       </c>
       <c r="CV190" s="2">
-        <v>47067</v>
+        <v>45392</v>
       </c>
       <c r="CW190" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="CX190" s="2">
-        <v>326</v>
+        <v>247</v>
       </c>
       <c r="CY190" s="2">
-        <v>4172</v>
+        <v>4084</v>
       </c>
       <c r="CZ190" s="2">
-        <v>1911</v>
+        <v>1858</v>
       </c>
       <c r="DA190" s="2">
-        <v>1778</v>
+        <v>1753</v>
       </c>
       <c r="DB190" s="2">
-        <v>742</v>
+        <v>717</v>
       </c>
       <c r="DC190" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="DD190" s="2">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="DE190" s="2">
         <v>232</v>
       </c>
       <c r="DF190" s="2">
-        <v>3071</v>
+        <v>2970</v>
       </c>
       <c r="DG190" s="2">
-        <v>2856</v>
+        <v>2789</v>
       </c>
       <c r="DH190" s="2">
-        <v>2689</v>
+        <v>2567</v>
       </c>
       <c r="DI190" s="2">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="DJ190" s="2">
-        <v>1544</v>
+        <v>1482</v>
       </c>
       <c r="DK190" s="2">
-        <v>4946</v>
+        <v>4795</v>
       </c>
       <c r="DL190" s="2">
-        <v>3092</v>
+        <v>2967</v>
       </c>
       <c r="DM190" s="2">
-        <v>1883</v>
+        <v>1768</v>
       </c>
       <c r="DN190" s="2">
-        <v>806</v>
+        <v>768</v>
       </c>
       <c r="DO190" s="2">
-        <v>1954</v>
+        <v>1875</v>
       </c>
       <c r="DP190" s="2">
-        <v>678</v>
+        <v>646</v>
       </c>
       <c r="DQ190" s="2">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="DR190" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="DS190" s="2">
-        <v>359</v>
+        <v>286</v>
       </c>
       <c r="DT190" s="2">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="DU190" s="2">
-        <v>947</v>
+        <v>846</v>
       </c>
       <c r="DV190" s="2">
         <v>201</v>
       </c>
       <c r="DW190" s="2">
-        <v>1863</v>
+        <v>1794</v>
       </c>
       <c r="DX190" s="2">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="DY190" s="2">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="DZ190" s="2">
-        <v>1994</v>
+        <v>1860</v>
       </c>
       <c r="EA190" s="2">
-        <v>1906</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="191" spans="1:131">
       <c r="A191" s="3">
-        <v>45138</v>
+        <v>45107</v>
       </c>
       <c r="B191" s="2">
         <v>101</v>
@@ -75999,7 +75999,7 @@
         <v>468</v>
       </c>
       <c r="D191" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E191" s="2">
         <v>238</v>
@@ -76011,7 +76011,7 @@
         <v>619</v>
       </c>
       <c r="H191" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I191" s="2">
         <v>260</v>
@@ -76023,7 +76023,7 @@
         <v>548</v>
       </c>
       <c r="L191" s="2">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="M191" s="2">
         <v>468</v>
@@ -76035,7 +76035,7 @@
         <v>487</v>
       </c>
       <c r="P191" s="2">
-        <v>3674</v>
+        <v>3670</v>
       </c>
       <c r="Q191" s="2">
         <v>1260</v>
@@ -76053,7 +76053,7 @@
         <v>669</v>
       </c>
       <c r="V191" s="2">
-        <v>9453</v>
+        <v>9431</v>
       </c>
       <c r="W191" s="2">
         <v>2002</v>
@@ -76062,16 +76062,16 @@
         <v>6990</v>
       </c>
       <c r="Y191" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="Z191" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AA191" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AB191" s="2">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="AC191" s="2">
         <v>42</v>
@@ -76083,25 +76083,25 @@
         <v>1136</v>
       </c>
       <c r="AF191" s="2">
-        <v>1901</v>
+        <v>1907</v>
       </c>
       <c r="AG191" s="2">
-        <v>5503</v>
+        <v>5499</v>
       </c>
       <c r="AH191" s="2">
-        <v>7908</v>
+        <v>7871</v>
       </c>
       <c r="AI191" s="2">
-        <v>11216</v>
+        <v>11076</v>
       </c>
       <c r="AJ191" s="2">
         <v>3848</v>
       </c>
       <c r="AK191" s="2">
-        <v>1878</v>
+        <v>1871</v>
       </c>
       <c r="AL191" s="2">
-        <v>2538</v>
+        <v>2532</v>
       </c>
       <c r="AM191" s="2">
         <v>2551</v>
@@ -76113,28 +76113,28 @@
         <v>6767</v>
       </c>
       <c r="AP191" s="2">
-        <v>5950</v>
+        <v>5948</v>
       </c>
       <c r="AQ191" s="2">
         <v>3682</v>
       </c>
       <c r="AR191" s="2">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="AS191" s="2">
-        <v>11812</v>
+        <v>11802</v>
       </c>
       <c r="AT191" s="2">
-        <v>7296</v>
+        <v>7291</v>
       </c>
       <c r="AU191" s="2">
-        <v>3726</v>
+        <v>3565</v>
       </c>
       <c r="AV191" s="2">
-        <v>2676</v>
+        <v>2669</v>
       </c>
       <c r="AW191" s="2">
-        <v>11068</v>
+        <v>10950</v>
       </c>
       <c r="AX191" s="2">
         <v>2722</v>
@@ -76146,10 +76146,10 @@
         <v>1703</v>
       </c>
       <c r="BA191" s="2">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="BB191" s="2">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="BC191" s="2">
         <v>1256</v>
@@ -76158,7 +76158,7 @@
         <v>41</v>
       </c>
       <c r="BE191" s="2">
-        <v>5559</v>
+        <v>5459</v>
       </c>
       <c r="BF191" s="2">
         <v>2324</v>
@@ -76167,10 +76167,10 @@
         <v>396</v>
       </c>
       <c r="BH191" s="2">
-        <v>3310</v>
+        <v>3306</v>
       </c>
       <c r="BI191" s="2">
-        <v>7149</v>
+        <v>7083</v>
       </c>
       <c r="BJ191" s="2">
         <v>23</v>
@@ -76179,73 +76179,73 @@
         <v>147</v>
       </c>
       <c r="BL191" s="2">
-        <v>2936</v>
+        <v>2926</v>
       </c>
       <c r="BM191" s="2">
-        <v>2389</v>
+        <v>2370</v>
       </c>
       <c r="BN191" s="2">
-        <v>5260</v>
+        <v>5186</v>
       </c>
       <c r="BO191" s="2">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="BP191" s="2">
-        <v>1197</v>
+        <v>1187</v>
       </c>
       <c r="BQ191" s="2">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="BR191" s="2">
         <v>107</v>
       </c>
       <c r="BS191" s="2">
-        <v>2278</v>
+        <v>2268</v>
       </c>
       <c r="BT191" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="BU191" s="2">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="BV191" s="2">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="BW191" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="BX191" s="2">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="BY191" s="2">
-        <v>1986</v>
+        <v>1972</v>
       </c>
       <c r="BZ191" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="CA191" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="CB191" s="2">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="CC191" s="2">
-        <v>1039</v>
+        <v>1021</v>
       </c>
       <c r="CD191" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="CE191" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="CF191" s="2">
-        <v>660</v>
+        <v>642</v>
       </c>
       <c r="CG191" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="CH191" s="2">
-        <v>1225</v>
+        <v>1173</v>
       </c>
       <c r="CI191" s="2">
         <v>3</v>
@@ -76254,16 +76254,16 @@
         <v>1192</v>
       </c>
       <c r="CK191" s="2">
-        <v>2218</v>
+        <v>2133</v>
       </c>
       <c r="CL191" s="2">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="CM191" s="2">
         <v>1457</v>
       </c>
       <c r="CN191" s="2">
-        <v>2988</v>
+        <v>2976</v>
       </c>
       <c r="CO191" s="2">
         <v>0</v>
@@ -76287,105 +76287,105 @@
         <v>0</v>
       </c>
       <c r="CV191" s="2">
-        <v>49081</v>
+        <v>47067</v>
       </c>
       <c r="CW191" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="CX191" s="2">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="CY191" s="2">
-        <v>4243</v>
+        <v>4172</v>
       </c>
       <c r="CZ191" s="2">
-        <v>2018</v>
+        <v>1911</v>
       </c>
       <c r="DA191" s="2">
-        <v>1787</v>
+        <v>1778</v>
       </c>
       <c r="DB191" s="2">
-        <v>790</v>
+        <v>742</v>
       </c>
       <c r="DC191" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="DD191" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="DE191" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="DF191" s="2">
-        <v>3198</v>
+        <v>3071</v>
       </c>
       <c r="DG191" s="2">
-        <v>2941</v>
+        <v>2856</v>
       </c>
       <c r="DH191" s="2">
-        <v>2779</v>
+        <v>2689</v>
       </c>
       <c r="DI191" s="2">
-        <v>681</v>
+        <v>649</v>
       </c>
       <c r="DJ191" s="2">
-        <v>1614</v>
+        <v>1544</v>
       </c>
       <c r="DK191" s="2">
-        <v>5048</v>
+        <v>4946</v>
       </c>
       <c r="DL191" s="2">
-        <v>3208</v>
+        <v>3092</v>
       </c>
       <c r="DM191" s="2">
-        <v>2053</v>
+        <v>1883</v>
       </c>
       <c r="DN191" s="2">
-        <v>873</v>
+        <v>806</v>
       </c>
       <c r="DO191" s="2">
-        <v>2028</v>
+        <v>1954</v>
       </c>
       <c r="DP191" s="2">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="DQ191" s="2">
+        <v>341</v>
+      </c>
+      <c r="DR191" s="2">
+        <v>91</v>
+      </c>
+      <c r="DS191" s="2">
         <v>359</v>
-      </c>
-      <c r="DR191" s="2">
-        <v>109</v>
-      </c>
-      <c r="DS191" s="2">
-        <v>370</v>
       </c>
       <c r="DT191" s="2">
         <v>1452</v>
       </c>
       <c r="DU191" s="2">
-        <v>1149</v>
+        <v>947</v>
       </c>
       <c r="DV191" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="DW191" s="2">
-        <v>1868</v>
+        <v>1863</v>
       </c>
       <c r="DX191" s="2">
-        <v>1804</v>
+        <v>1641</v>
       </c>
       <c r="DY191" s="2">
-        <v>1984</v>
+        <v>1934</v>
       </c>
       <c r="DZ191" s="2">
         <v>1994</v>
       </c>
       <c r="EA191" s="2">
-        <v>2230</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="192" spans="1:131">
       <c r="A192" s="3">
-        <v>45169</v>
+        <v>45138</v>
       </c>
       <c r="B192" s="2">
         <v>101</v>
@@ -76424,13 +76424,13 @@
         <v>468</v>
       </c>
       <c r="N192" s="2">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="O192" s="2">
-        <v>516</v>
+        <v>487</v>
       </c>
       <c r="P192" s="2">
-        <v>3670</v>
+        <v>3674</v>
       </c>
       <c r="Q192" s="2">
         <v>1260</v>
@@ -76439,16 +76439,16 @@
         <v>1413</v>
       </c>
       <c r="S192" s="2">
-        <v>1753</v>
+        <v>1733</v>
       </c>
       <c r="T192" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U192" s="2">
         <v>669</v>
       </c>
       <c r="V192" s="2">
-        <v>9458</v>
+        <v>9453</v>
       </c>
       <c r="W192" s="2">
         <v>2002</v>
@@ -76463,7 +76463,7 @@
         <v>308</v>
       </c>
       <c r="AA192" s="2">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="AB192" s="2">
         <v>1239</v>
@@ -76472,7 +76472,7 @@
         <v>42</v>
       </c>
       <c r="AD192" s="2">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="AE192" s="2">
         <v>1136</v>
@@ -76481,13 +76481,13 @@
         <v>1901</v>
       </c>
       <c r="AG192" s="2">
-        <v>5509</v>
+        <v>5503</v>
       </c>
       <c r="AH192" s="2">
-        <v>7906</v>
+        <v>7908</v>
       </c>
       <c r="AI192" s="2">
-        <v>11342</v>
+        <v>11216</v>
       </c>
       <c r="AJ192" s="2">
         <v>3848</v>
@@ -76502,34 +76502,34 @@
         <v>2551</v>
       </c>
       <c r="AN192" s="2">
-        <v>10518</v>
+        <v>10493</v>
       </c>
       <c r="AO192" s="2">
         <v>6767</v>
       </c>
       <c r="AP192" s="2">
-        <v>5959</v>
+        <v>5950</v>
       </c>
       <c r="AQ192" s="2">
-        <v>3698</v>
+        <v>3682</v>
       </c>
       <c r="AR192" s="2">
-        <v>2978</v>
+        <v>2984</v>
       </c>
       <c r="AS192" s="2">
-        <v>11763</v>
+        <v>11812</v>
       </c>
       <c r="AT192" s="2">
-        <v>7299</v>
+        <v>7296</v>
       </c>
       <c r="AU192" s="2">
-        <v>3731</v>
+        <v>3726</v>
       </c>
       <c r="AV192" s="2">
         <v>2676</v>
       </c>
       <c r="AW192" s="2">
-        <v>11117</v>
+        <v>11068</v>
       </c>
       <c r="AX192" s="2">
         <v>2722</v>
@@ -76562,10 +76562,10 @@
         <v>396</v>
       </c>
       <c r="BH192" s="2">
-        <v>3312</v>
+        <v>3310</v>
       </c>
       <c r="BI192" s="2">
-        <v>7216</v>
+        <v>7149</v>
       </c>
       <c r="BJ192" s="2">
         <v>23</v>
@@ -76574,16 +76574,16 @@
         <v>147</v>
       </c>
       <c r="BL192" s="2">
-        <v>2941</v>
+        <v>2936</v>
       </c>
       <c r="BM192" s="2">
-        <v>2409</v>
+        <v>2389</v>
       </c>
       <c r="BN192" s="2">
-        <v>5267</v>
+        <v>5260</v>
       </c>
       <c r="BO192" s="2">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="BP192" s="2">
         <v>1197</v>
@@ -76598,67 +76598,67 @@
         <v>2278</v>
       </c>
       <c r="BT192" s="2">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="BU192" s="2">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="BV192" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="BW192" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="BX192" s="2">
-        <v>2430</v>
+        <v>2422</v>
       </c>
       <c r="BY192" s="2">
-        <v>2010</v>
+        <v>1986</v>
       </c>
       <c r="BZ192" s="2">
         <v>820</v>
       </c>
       <c r="CA192" s="2">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="CB192" s="2">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="CC192" s="2">
-        <v>1053</v>
+        <v>1039</v>
       </c>
       <c r="CD192" s="2">
         <v>31</v>
       </c>
       <c r="CE192" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="CF192" s="2">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="CG192" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="CH192" s="2">
-        <v>1265</v>
+        <v>1225</v>
       </c>
       <c r="CI192" s="2">
         <v>3</v>
       </c>
       <c r="CJ192" s="2">
-        <v>1202</v>
+        <v>1192</v>
       </c>
       <c r="CK192" s="2">
-        <v>2228</v>
+        <v>2218</v>
       </c>
       <c r="CL192" s="2">
-        <v>989</v>
+        <v>969</v>
       </c>
       <c r="CM192" s="2">
         <v>1457</v>
       </c>
       <c r="CN192" s="2">
-        <v>3035</v>
+        <v>2988</v>
       </c>
       <c r="CO192" s="2">
         <v>0</v>
@@ -76682,105 +76682,105 @@
         <v>0</v>
       </c>
       <c r="CV192" s="2">
-        <v>50541</v>
+        <v>49081</v>
       </c>
       <c r="CW192" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CX192" s="2">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="CY192" s="2">
-        <v>4274</v>
+        <v>4243</v>
       </c>
       <c r="CZ192" s="2">
-        <v>2059</v>
+        <v>2018</v>
       </c>
       <c r="DA192" s="2">
-        <v>1803</v>
+        <v>1787</v>
       </c>
       <c r="DB192" s="2">
-        <v>821</v>
+        <v>790</v>
       </c>
       <c r="DC192" s="2">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="DD192" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="DE192" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="DF192" s="2">
-        <v>3318</v>
+        <v>3198</v>
       </c>
       <c r="DG192" s="2">
-        <v>3025</v>
+        <v>2941</v>
       </c>
       <c r="DH192" s="2">
-        <v>2875</v>
+        <v>2779</v>
       </c>
       <c r="DI192" s="2">
-        <v>714</v>
+        <v>681</v>
       </c>
       <c r="DJ192" s="2">
-        <v>1675</v>
+        <v>1614</v>
       </c>
       <c r="DK192" s="2">
-        <v>5145</v>
+        <v>5048</v>
       </c>
       <c r="DL192" s="2">
-        <v>3304</v>
+        <v>3208</v>
       </c>
       <c r="DM192" s="2">
-        <v>2151</v>
+        <v>2053</v>
       </c>
       <c r="DN192" s="2">
-        <v>926</v>
+        <v>873</v>
       </c>
       <c r="DO192" s="2">
-        <v>2111</v>
+        <v>2028</v>
       </c>
       <c r="DP192" s="2">
-        <v>726</v>
+        <v>694</v>
       </c>
       <c r="DQ192" s="2">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="DR192" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="DS192" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="DT192" s="2">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="DU192" s="2">
-        <v>1202</v>
+        <v>1149</v>
       </c>
       <c r="DV192" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="DW192" s="2">
-        <v>1904</v>
+        <v>1868</v>
       </c>
       <c r="DX192" s="2">
-        <v>1906</v>
+        <v>1804</v>
       </c>
       <c r="DY192" s="2">
-        <v>2070</v>
+        <v>1984</v>
       </c>
       <c r="DZ192" s="2">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="EA192" s="2">
-        <v>2371</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="193" spans="1:131">
       <c r="A193" s="3">
-        <v>45199</v>
+        <v>45169</v>
       </c>
       <c r="B193" s="2">
         <v>101</v>
@@ -76819,13 +76819,13 @@
         <v>468</v>
       </c>
       <c r="N193" s="2">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="O193" s="2">
         <v>516</v>
       </c>
       <c r="P193" s="2">
-        <v>3676</v>
+        <v>3670</v>
       </c>
       <c r="Q193" s="2">
         <v>1260</v>
@@ -76843,7 +76843,7 @@
         <v>669</v>
       </c>
       <c r="V193" s="2">
-        <v>9466</v>
+        <v>9458</v>
       </c>
       <c r="W193" s="2">
         <v>2002</v>
@@ -76852,7 +76852,7 @@
         <v>6990</v>
       </c>
       <c r="Y193" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="Z193" s="2">
         <v>308</v>
@@ -76873,34 +76873,34 @@
         <v>1136</v>
       </c>
       <c r="AF193" s="2">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="AG193" s="2">
-        <v>5518</v>
+        <v>5509</v>
       </c>
       <c r="AH193" s="2">
-        <v>7912</v>
+        <v>7906</v>
       </c>
       <c r="AI193" s="2">
-        <v>11597</v>
+        <v>11342</v>
       </c>
       <c r="AJ193" s="2">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="AK193" s="2">
         <v>1878</v>
       </c>
       <c r="AL193" s="2">
-        <v>2541</v>
+        <v>2538</v>
       </c>
       <c r="AM193" s="2">
         <v>2551</v>
       </c>
       <c r="AN193" s="2">
-        <v>10629</v>
+        <v>10518</v>
       </c>
       <c r="AO193" s="2">
-        <v>6768</v>
+        <v>6767</v>
       </c>
       <c r="AP193" s="2">
         <v>5959</v>
@@ -76915,16 +76915,16 @@
         <v>11763</v>
       </c>
       <c r="AT193" s="2">
-        <v>7300</v>
+        <v>7299</v>
       </c>
       <c r="AU193" s="2">
-        <v>3833</v>
+        <v>3731</v>
       </c>
       <c r="AV193" s="2">
-        <v>2776</v>
+        <v>2676</v>
       </c>
       <c r="AW193" s="2">
-        <v>11163</v>
+        <v>11117</v>
       </c>
       <c r="AX193" s="2">
         <v>2722</v>
@@ -76933,7 +76933,7 @@
         <v>848</v>
       </c>
       <c r="AZ193" s="2">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="BA193" s="2">
         <v>1820</v>
@@ -76948,7 +76948,7 @@
         <v>41</v>
       </c>
       <c r="BE193" s="2">
-        <v>5568</v>
+        <v>5559</v>
       </c>
       <c r="BF193" s="2">
         <v>2324</v>
@@ -76969,82 +76969,82 @@
         <v>147</v>
       </c>
       <c r="BL193" s="2">
-        <v>2952</v>
+        <v>2941</v>
       </c>
       <c r="BM193" s="2">
-        <v>2433</v>
+        <v>2409</v>
       </c>
       <c r="BN193" s="2">
-        <v>5349</v>
+        <v>5267</v>
       </c>
       <c r="BO193" s="2">
-        <v>1368</v>
+        <v>1350</v>
       </c>
       <c r="BP193" s="2">
         <v>1197</v>
       </c>
       <c r="BQ193" s="2">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="BR193" s="2">
         <v>107</v>
       </c>
       <c r="BS193" s="2">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="BT193" s="2">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="BU193" s="2">
         <v>660</v>
       </c>
       <c r="BV193" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="BW193" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="BX193" s="2">
         <v>2430</v>
       </c>
       <c r="BY193" s="2">
-        <v>2041</v>
+        <v>2010</v>
       </c>
       <c r="BZ193" s="2">
         <v>820</v>
       </c>
       <c r="CA193" s="2">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="CB193" s="2">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="CC193" s="2">
-        <v>1090</v>
+        <v>1053</v>
       </c>
       <c r="CD193" s="2">
         <v>31</v>
       </c>
       <c r="CE193" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="CF193" s="2">
-        <v>690</v>
+        <v>654</v>
       </c>
       <c r="CG193" s="2">
         <v>607</v>
       </c>
       <c r="CH193" s="2">
-        <v>1324</v>
+        <v>1265</v>
       </c>
       <c r="CI193" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="CJ193" s="2">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="CK193" s="2">
-        <v>2273</v>
+        <v>2228</v>
       </c>
       <c r="CL193" s="2">
         <v>989</v>
@@ -77053,7 +77053,7 @@
         <v>1457</v>
       </c>
       <c r="CN193" s="2">
-        <v>3101</v>
+        <v>3035</v>
       </c>
       <c r="CO193" s="2">
         <v>0</v>
@@ -77077,105 +77077,105 @@
         <v>0</v>
       </c>
       <c r="CV193" s="2">
-        <v>52108</v>
+        <v>50541</v>
       </c>
       <c r="CW193" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="CX193" s="2">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="CY193" s="2">
-        <v>4344</v>
+        <v>4274</v>
       </c>
       <c r="CZ193" s="2">
-        <v>2152</v>
+        <v>2059</v>
       </c>
       <c r="DA193" s="2">
-        <v>1822</v>
+        <v>1803</v>
       </c>
       <c r="DB193" s="2">
-        <v>867</v>
+        <v>821</v>
       </c>
       <c r="DC193" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="DD193" s="2">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="DE193" s="2">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="DF193" s="2">
-        <v>3423</v>
+        <v>3318</v>
       </c>
       <c r="DG193" s="2">
-        <v>3100</v>
+        <v>3025</v>
       </c>
       <c r="DH193" s="2">
-        <v>2936</v>
+        <v>2875</v>
       </c>
       <c r="DI193" s="2">
-        <v>759</v>
+        <v>714</v>
       </c>
       <c r="DJ193" s="2">
-        <v>1738</v>
+        <v>1675</v>
       </c>
       <c r="DK193" s="2">
-        <v>5229</v>
+        <v>5145</v>
       </c>
       <c r="DL193" s="2">
-        <v>3406</v>
+        <v>3304</v>
       </c>
       <c r="DM193" s="2">
-        <v>2199</v>
+        <v>2151</v>
       </c>
       <c r="DN193" s="2">
-        <v>987</v>
+        <v>926</v>
       </c>
       <c r="DO193" s="2">
-        <v>2188</v>
+        <v>2111</v>
       </c>
       <c r="DP193" s="2">
-        <v>824</v>
+        <v>726</v>
       </c>
       <c r="DQ193" s="2">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="DR193" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="DS193" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="DT193" s="2">
-        <v>1465</v>
+        <v>1455</v>
       </c>
       <c r="DU193" s="2">
-        <v>1307</v>
+        <v>1202</v>
       </c>
       <c r="DV193" s="2">
         <v>209</v>
       </c>
       <c r="DW193" s="2">
-        <v>1919</v>
+        <v>1904</v>
       </c>
       <c r="DX193" s="2">
-        <v>2018</v>
+        <v>1906</v>
       </c>
       <c r="DY193" s="2">
-        <v>2166</v>
+        <v>2070</v>
       </c>
       <c r="DZ193" s="2">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="EA193" s="2">
-        <v>2461</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="194" spans="1:131">
       <c r="A194" s="3">
-        <v>45230</v>
+        <v>45199</v>
       </c>
       <c r="B194" s="2">
         <v>101</v>
@@ -77202,13 +77202,13 @@
         <v>260</v>
       </c>
       <c r="J194" s="2">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="K194" s="2">
         <v>548</v>
       </c>
       <c r="L194" s="2">
-        <v>1235</v>
+        <v>1200</v>
       </c>
       <c r="M194" s="2">
         <v>468</v>
@@ -77238,25 +77238,25 @@
         <v>669</v>
       </c>
       <c r="V194" s="2">
-        <v>9471</v>
+        <v>9466</v>
       </c>
       <c r="W194" s="2">
         <v>2002</v>
       </c>
       <c r="X194" s="2">
-        <v>6987</v>
+        <v>6990</v>
       </c>
       <c r="Y194" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Z194" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AA194" s="2">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="AB194" s="2">
-        <v>1283</v>
+        <v>1239</v>
       </c>
       <c r="AC194" s="2">
         <v>42</v>
@@ -77271,22 +77271,22 @@
         <v>1904</v>
       </c>
       <c r="AG194" s="2">
-        <v>5568</v>
+        <v>5518</v>
       </c>
       <c r="AH194" s="2">
-        <v>7863</v>
+        <v>7912</v>
       </c>
       <c r="AI194" s="2">
-        <v>11628</v>
+        <v>11597</v>
       </c>
       <c r="AJ194" s="2">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="AK194" s="2">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="AL194" s="2">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="AM194" s="2">
         <v>2551</v>
@@ -77295,31 +77295,31 @@
         <v>10629</v>
       </c>
       <c r="AO194" s="2">
-        <v>6770</v>
+        <v>6768</v>
       </c>
       <c r="AP194" s="2">
         <v>5959</v>
       </c>
       <c r="AQ194" s="2">
-        <v>3693</v>
+        <v>3698</v>
       </c>
       <c r="AR194" s="2">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="AS194" s="2">
-        <v>11723</v>
+        <v>11763</v>
       </c>
       <c r="AT194" s="2">
-        <v>7390</v>
+        <v>7300</v>
       </c>
       <c r="AU194" s="2">
-        <v>3835</v>
+        <v>3833</v>
       </c>
       <c r="AV194" s="2">
         <v>2776</v>
       </c>
       <c r="AW194" s="2">
-        <v>11223</v>
+        <v>11163</v>
       </c>
       <c r="AX194" s="2">
         <v>2722</v>
@@ -77328,22 +77328,22 @@
         <v>848</v>
       </c>
       <c r="AZ194" s="2">
-        <v>1756</v>
+        <v>1705</v>
       </c>
       <c r="BA194" s="2">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="BB194" s="2">
         <v>3668</v>
       </c>
       <c r="BC194" s="2">
-        <v>1136</v>
+        <v>1256</v>
       </c>
       <c r="BD194" s="2">
         <v>41</v>
       </c>
       <c r="BE194" s="2">
-        <v>5571</v>
+        <v>5568</v>
       </c>
       <c r="BF194" s="2">
         <v>2324</v>
@@ -77355,7 +77355,7 @@
         <v>3312</v>
       </c>
       <c r="BI194" s="2">
-        <v>7218</v>
+        <v>7216</v>
       </c>
       <c r="BJ194" s="2">
         <v>23</v>
@@ -77364,22 +77364,22 @@
         <v>147</v>
       </c>
       <c r="BL194" s="2">
-        <v>2988</v>
+        <v>2952</v>
       </c>
       <c r="BM194" s="2">
-        <v>2449</v>
+        <v>2433</v>
       </c>
       <c r="BN194" s="2">
-        <v>5359</v>
+        <v>5349</v>
       </c>
       <c r="BO194" s="2">
-        <v>1376</v>
+        <v>1368</v>
       </c>
       <c r="BP194" s="2">
-        <v>1207</v>
+        <v>1197</v>
       </c>
       <c r="BQ194" s="2">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="BR194" s="2">
         <v>107</v>
@@ -77388,10 +77388,10 @@
         <v>2282</v>
       </c>
       <c r="BT194" s="2">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="BU194" s="2">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="BV194" s="2">
         <v>753</v>
@@ -77400,13 +77400,13 @@
         <v>564</v>
       </c>
       <c r="BX194" s="2">
-        <v>2475</v>
+        <v>2430</v>
       </c>
       <c r="BY194" s="2">
-        <v>2081</v>
+        <v>2041</v>
       </c>
       <c r="BZ194" s="2">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="CA194" s="2">
         <v>928</v>
@@ -77415,7 +77415,7 @@
         <v>1371</v>
       </c>
       <c r="CC194" s="2">
-        <v>1128</v>
+        <v>1090</v>
       </c>
       <c r="CD194" s="2">
         <v>31</v>
@@ -77424,13 +77424,13 @@
         <v>202</v>
       </c>
       <c r="CF194" s="2">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="CG194" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="CH194" s="2">
-        <v>1390</v>
+        <v>1324</v>
       </c>
       <c r="CI194" s="2">
         <v>8</v>
@@ -77439,7 +77439,7 @@
         <v>1213</v>
       </c>
       <c r="CK194" s="2">
-        <v>2303</v>
+        <v>2273</v>
       </c>
       <c r="CL194" s="2">
         <v>989</v>
@@ -77448,7 +77448,7 @@
         <v>1457</v>
       </c>
       <c r="CN194" s="2">
-        <v>3123</v>
+        <v>3101</v>
       </c>
       <c r="CO194" s="2">
         <v>0</v>
@@ -77472,378 +77472,378 @@
         <v>0</v>
       </c>
       <c r="CV194" s="2">
-        <v>53576</v>
+        <v>52108</v>
       </c>
       <c r="CW194" s="2">
         <v>105</v>
       </c>
       <c r="CX194" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="CY194" s="2">
-        <v>4436</v>
+        <v>4344</v>
       </c>
       <c r="CZ194" s="2">
-        <v>2225</v>
+        <v>2152</v>
       </c>
       <c r="DA194" s="2">
-        <v>1883</v>
+        <v>1822</v>
       </c>
       <c r="DB194" s="2">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="DC194" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="DD194" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="DE194" s="2">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="DF194" s="2">
-        <v>3529</v>
+        <v>3423</v>
       </c>
       <c r="DG194" s="2">
-        <v>3157</v>
+        <v>3100</v>
       </c>
       <c r="DH194" s="2">
-        <v>2979</v>
+        <v>2936</v>
       </c>
       <c r="DI194" s="2">
-        <v>792</v>
+        <v>759</v>
       </c>
       <c r="DJ194" s="2">
-        <v>1804</v>
+        <v>1738</v>
       </c>
       <c r="DK194" s="2">
-        <v>5317</v>
+        <v>5229</v>
       </c>
       <c r="DL194" s="2">
-        <v>3496</v>
+        <v>3406</v>
       </c>
       <c r="DM194" s="2">
-        <v>2267</v>
+        <v>2199</v>
       </c>
       <c r="DN194" s="2">
-        <v>1028</v>
+        <v>987</v>
       </c>
       <c r="DO194" s="2">
-        <v>2287</v>
+        <v>2188</v>
       </c>
       <c r="DP194" s="2">
-        <v>882</v>
+        <v>824</v>
       </c>
       <c r="DQ194" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="DR194" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="DS194" s="2">
-        <v>422</v>
+        <v>373</v>
       </c>
       <c r="DT194" s="2">
-        <v>1480</v>
+        <v>1465</v>
       </c>
       <c r="DU194" s="2">
-        <v>1366</v>
+        <v>1307</v>
       </c>
       <c r="DV194" s="2">
         <v>209</v>
       </c>
       <c r="DW194" s="2">
-        <v>1938</v>
+        <v>1919</v>
       </c>
       <c r="DX194" s="2">
-        <v>2111</v>
+        <v>2018</v>
       </c>
       <c r="DY194" s="2">
         <v>2166</v>
       </c>
       <c r="DZ194" s="2">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="EA194" s="2">
-        <v>2646</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="195" spans="1:131">
       <c r="A195" s="3">
-        <v>45260</v>
+        <v>45230</v>
       </c>
       <c r="B195" s="2">
-        <v>101.3</v>
+        <v>101</v>
       </c>
       <c r="C195" s="2">
-        <v>468.29750000000001</v>
+        <v>468</v>
       </c>
       <c r="D195" s="2">
-        <v>217.4485</v>
+        <v>217</v>
       </c>
       <c r="E195" s="2">
-        <v>238.14500000000001</v>
+        <v>238</v>
       </c>
       <c r="F195" s="2">
-        <v>288.01100000000002</v>
+        <v>288</v>
       </c>
       <c r="G195" s="2">
-        <v>619.42600000000004</v>
+        <v>619</v>
       </c>
       <c r="H195" s="2">
-        <v>226.49199999999999</v>
+        <v>226</v>
       </c>
       <c r="I195" s="2">
         <v>260</v>
       </c>
       <c r="J195" s="2">
-        <v>1164.1130000000001</v>
+        <v>1161</v>
       </c>
       <c r="K195" s="2">
-        <v>548.19500000000005</v>
+        <v>548</v>
       </c>
       <c r="L195" s="2">
-        <v>1235.3995</v>
+        <v>1235</v>
       </c>
       <c r="M195" s="2">
-        <v>467.92</v>
+        <v>468</v>
       </c>
       <c r="N195" s="2">
-        <v>401.59699999999998</v>
+        <v>402</v>
       </c>
       <c r="O195" s="2">
-        <v>513.41300000000001</v>
+        <v>516</v>
       </c>
       <c r="P195" s="2">
-        <v>3679.1768999999999</v>
+        <v>3676</v>
       </c>
       <c r="Q195" s="2">
-        <v>1306.1555000000001</v>
+        <v>1260</v>
       </c>
       <c r="R195" s="2">
-        <v>1413.1780220000001</v>
+        <v>1413</v>
       </c>
       <c r="S195" s="2">
-        <v>1753.0830000000001</v>
+        <v>1753</v>
       </c>
       <c r="T195" s="2">
-        <v>127.9555</v>
+        <v>128</v>
       </c>
       <c r="U195" s="2">
-        <v>698.9</v>
+        <v>669</v>
       </c>
       <c r="V195" s="2">
-        <v>9471.7209999999995</v>
+        <v>9471</v>
       </c>
       <c r="W195" s="2">
-        <v>2001.585</v>
+        <v>2002</v>
       </c>
       <c r="X195" s="2">
-        <v>6987.27</v>
+        <v>6987</v>
       </c>
       <c r="Y195" s="2">
-        <v>300.9785</v>
+        <v>301</v>
       </c>
       <c r="Z195" s="2">
-        <v>310.43599999999998</v>
+        <v>310</v>
       </c>
       <c r="AA195" s="2">
-        <v>852.21100000000001</v>
+        <v>832</v>
       </c>
       <c r="AB195" s="2">
-        <v>1282.7</v>
+        <v>1283</v>
       </c>
       <c r="AC195" s="2">
-        <v>42.23</v>
+        <v>42</v>
       </c>
       <c r="AD195" s="2">
-        <v>975.39099999999996</v>
+        <v>945</v>
       </c>
       <c r="AE195" s="2">
-        <v>1136.1510000000001</v>
+        <v>1136</v>
       </c>
       <c r="AF195" s="2">
-        <v>1903.9186</v>
+        <v>1904</v>
       </c>
       <c r="AG195" s="2">
-        <v>5568.9417999999996</v>
+        <v>5568</v>
       </c>
       <c r="AH195" s="2">
-        <v>7928.0653000000002</v>
+        <v>7863</v>
       </c>
       <c r="AI195" s="2">
-        <v>11710.047</v>
+        <v>11628</v>
       </c>
       <c r="AJ195" s="2">
-        <v>3850.1012999999998</v>
+        <v>3850</v>
       </c>
       <c r="AK195" s="2">
-        <v>1885.1</v>
+        <v>1880</v>
       </c>
       <c r="AL195" s="2">
-        <v>2547.69</v>
+        <v>2544</v>
       </c>
       <c r="AM195" s="2">
-        <v>2551.2909</v>
+        <v>2551</v>
       </c>
       <c r="AN195" s="2">
-        <v>10631.435600000001</v>
+        <v>10629</v>
       </c>
       <c r="AO195" s="2">
-        <v>6773.9575999999997</v>
+        <v>6770</v>
       </c>
       <c r="AP195" s="2">
-        <v>5965.1639999999998</v>
+        <v>5959</v>
       </c>
       <c r="AQ195" s="2">
-        <v>3707.6062000000002</v>
+        <v>3693</v>
       </c>
       <c r="AR195" s="2">
-        <v>2979.9209999999998</v>
+        <v>2980</v>
       </c>
       <c r="AS195" s="2">
-        <v>11827.541499999999</v>
+        <v>11723</v>
       </c>
       <c r="AT195" s="2">
-        <v>7393.268</v>
+        <v>7390</v>
       </c>
       <c r="AU195" s="2">
-        <v>3869.7127</v>
+        <v>3835</v>
       </c>
       <c r="AV195" s="2">
-        <v>2871.3697999999999</v>
+        <v>2776</v>
       </c>
       <c r="AW195" s="2">
-        <v>11223.320599999999</v>
+        <v>11223</v>
       </c>
       <c r="AX195" s="2">
-        <v>2722.1282000000001</v>
+        <v>2722</v>
       </c>
       <c r="AY195" s="2">
-        <v>851.125</v>
+        <v>848</v>
       </c>
       <c r="AZ195" s="2">
-        <v>1755.96</v>
+        <v>1756</v>
       </c>
       <c r="BA195" s="2">
-        <v>1821.4831999999999</v>
+        <v>1821</v>
       </c>
       <c r="BB195" s="2">
-        <v>3672.15</v>
+        <v>3668</v>
       </c>
       <c r="BC195" s="2">
-        <v>1135.9000000000001</v>
+        <v>1136</v>
       </c>
       <c r="BD195" s="2">
-        <v>40.945</v>
+        <v>41</v>
       </c>
       <c r="BE195" s="2">
-        <v>5571.21</v>
+        <v>5571</v>
       </c>
       <c r="BF195" s="2">
-        <v>2424.1687000000002</v>
+        <v>2324</v>
       </c>
       <c r="BG195" s="2">
-        <v>396.14</v>
+        <v>396</v>
       </c>
       <c r="BH195" s="2">
-        <v>3311.68</v>
+        <v>3312</v>
       </c>
       <c r="BI195" s="2">
-        <v>7218.3087999999998</v>
+        <v>7218</v>
       </c>
       <c r="BJ195" s="2">
-        <v>23.4</v>
+        <v>23</v>
       </c>
       <c r="BK195" s="2">
-        <v>153.745</v>
+        <v>147</v>
       </c>
       <c r="BL195" s="2">
-        <v>3005.7750000000001</v>
+        <v>2988</v>
       </c>
       <c r="BM195" s="2">
-        <v>2455.3380000000002</v>
+        <v>2449</v>
       </c>
       <c r="BN195" s="2">
-        <v>5887.8069999999998</v>
+        <v>5359</v>
       </c>
       <c r="BO195" s="2">
-        <v>1385.9659999999999</v>
+        <v>1376</v>
       </c>
       <c r="BP195" s="2">
-        <v>1214.2809999999999</v>
+        <v>1207</v>
       </c>
       <c r="BQ195" s="2">
-        <v>1095.365</v>
+        <v>1072</v>
       </c>
       <c r="BR195" s="2">
-        <v>106.97499999999999</v>
+        <v>107</v>
       </c>
       <c r="BS195" s="2">
-        <v>2282.4380000000001</v>
+        <v>2282</v>
       </c>
       <c r="BT195" s="2">
-        <v>514.91600000000005</v>
+        <v>510</v>
       </c>
       <c r="BU195" s="2">
-        <v>700.5</v>
+        <v>676</v>
       </c>
       <c r="BV195" s="2">
-        <v>756.51499999999999</v>
+        <v>753</v>
       </c>
       <c r="BW195" s="2">
-        <v>568.35</v>
+        <v>564</v>
       </c>
       <c r="BX195" s="2">
-        <v>2505.61</v>
+        <v>2475</v>
       </c>
       <c r="BY195" s="2">
-        <v>2095.6149999999998</v>
+        <v>2081</v>
       </c>
       <c r="BZ195" s="2">
-        <v>833.85</v>
+        <v>832</v>
       </c>
       <c r="CA195" s="2">
-        <v>929.89499999999998</v>
+        <v>928</v>
       </c>
       <c r="CB195" s="2">
-        <v>1410.4939999999999</v>
+        <v>1371</v>
       </c>
       <c r="CC195" s="2">
-        <v>1171.396</v>
+        <v>1128</v>
       </c>
       <c r="CD195" s="2">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="CE195" s="2">
-        <v>202.86</v>
+        <v>202</v>
       </c>
       <c r="CF195" s="2">
-        <v>717.65099999999995</v>
+        <v>697</v>
       </c>
       <c r="CG195" s="2">
-        <v>611.17499999999995</v>
+        <v>608</v>
       </c>
       <c r="CH195" s="2">
-        <v>1466.0619999999999</v>
+        <v>1390</v>
       </c>
       <c r="CI195" s="2">
-        <v>7.95</v>
+        <v>8</v>
       </c>
       <c r="CJ195" s="2">
-        <v>1213.04</v>
+        <v>1213</v>
       </c>
       <c r="CK195" s="2">
-        <v>2312.86</v>
+        <v>2303</v>
       </c>
       <c r="CL195" s="2">
-        <v>989.1</v>
+        <v>989</v>
       </c>
       <c r="CM195" s="2">
-        <v>1456.7380000000001</v>
+        <v>1457</v>
       </c>
       <c r="CN195" s="2">
-        <v>3125.0749999999998</v>
+        <v>3123</v>
       </c>
       <c r="CO195" s="2">
         <v>0</v>
@@ -77867,495 +77867,1285 @@
         <v>0</v>
       </c>
       <c r="CV195" s="2">
-        <v>55762.160199999998</v>
+        <v>53576</v>
       </c>
       <c r="CW195" s="2">
-        <v>106.32510000000001</v>
+        <v>105</v>
       </c>
       <c r="CX195" s="2">
-        <v>431.06729999999999</v>
+        <v>399</v>
       </c>
       <c r="CY195" s="2">
-        <v>4681.8845000000001</v>
+        <v>4436</v>
       </c>
       <c r="CZ195" s="2">
-        <v>2324.5464000000002</v>
+        <v>2225</v>
       </c>
       <c r="DA195" s="2">
-        <v>2094.9679000000001</v>
+        <v>1883</v>
       </c>
       <c r="DB195" s="2">
-        <v>910.93640000000005</v>
+        <v>883</v>
       </c>
       <c r="DC195" s="2">
-        <v>439.79500000000002</v>
+        <v>422</v>
       </c>
       <c r="DD195" s="2">
-        <v>552.09259999999995</v>
+        <v>541</v>
       </c>
       <c r="DE195" s="2">
-        <v>279.09769999999997</v>
+        <v>273</v>
       </c>
       <c r="DF195" s="2">
-        <v>3701.895</v>
+        <v>3529</v>
       </c>
       <c r="DG195" s="2">
-        <v>3241.7525999999998</v>
+        <v>3157</v>
       </c>
       <c r="DH195" s="2">
-        <v>3068.9765000000002</v>
+        <v>2979</v>
       </c>
       <c r="DI195" s="2">
-        <v>829.3999</v>
+        <v>792</v>
       </c>
       <c r="DJ195" s="2">
-        <v>1828.2019</v>
+        <v>1804</v>
       </c>
       <c r="DK195" s="2">
-        <v>5450.1804000000002</v>
+        <v>5317</v>
       </c>
       <c r="DL195" s="2">
-        <v>3608.4883</v>
+        <v>3496</v>
       </c>
       <c r="DM195" s="2">
-        <v>2358.3534</v>
+        <v>2267</v>
       </c>
       <c r="DN195" s="2">
-        <v>1090.7619</v>
+        <v>1028</v>
       </c>
       <c r="DO195" s="2">
-        <v>2385.0565999999999</v>
+        <v>2287</v>
       </c>
       <c r="DP195" s="2">
-        <v>959.81299999999999</v>
+        <v>882</v>
       </c>
       <c r="DQ195" s="2">
-        <v>442.15800000000002</v>
+        <v>402</v>
       </c>
       <c r="DR195" s="2">
-        <v>127.3935</v>
+        <v>118</v>
       </c>
       <c r="DS195" s="2">
-        <v>425.86380000000003</v>
+        <v>422</v>
       </c>
       <c r="DT195" s="2">
-        <v>1494.2787000000001</v>
+        <v>1480</v>
       </c>
       <c r="DU195" s="2">
-        <v>1448.0409999999999</v>
+        <v>1366</v>
       </c>
       <c r="DV195" s="2">
-        <v>236.60050000000001</v>
+        <v>209</v>
       </c>
       <c r="DW195" s="2">
-        <v>1976.7348</v>
+        <v>1938</v>
       </c>
       <c r="DX195" s="2">
-        <v>2241.2319000000002</v>
+        <v>2111</v>
       </c>
       <c r="DY195" s="2">
-        <v>2180.8476000000001</v>
+        <v>2166</v>
       </c>
       <c r="DZ195" s="2">
-        <v>2021.6934000000001</v>
+        <v>2014</v>
       </c>
       <c r="EA195" s="2">
-        <v>2823.7244000000001</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="196" spans="1:131">
       <c r="A196" s="3">
+        <v>45260</v>
+      </c>
+      <c r="B196" s="2">
+        <v>101.3</v>
+      </c>
+      <c r="C196" s="2">
+        <v>468.29750000000001</v>
+      </c>
+      <c r="D196" s="2">
+        <v>217.4485</v>
+      </c>
+      <c r="E196" s="2">
+        <v>238.14500000000001</v>
+      </c>
+      <c r="F196" s="2">
+        <v>288.01100000000002</v>
+      </c>
+      <c r="G196" s="2">
+        <v>619.42600000000004</v>
+      </c>
+      <c r="H196" s="2">
+        <v>226.49199999999999</v>
+      </c>
+      <c r="I196" s="2">
+        <v>260</v>
+      </c>
+      <c r="J196" s="2">
+        <v>1164.1130000000001</v>
+      </c>
+      <c r="K196" s="2">
+        <v>548.19500000000005</v>
+      </c>
+      <c r="L196" s="2">
+        <v>1235.3995</v>
+      </c>
+      <c r="M196" s="2">
+        <v>467.92</v>
+      </c>
+      <c r="N196" s="2">
+        <v>401.59699999999998</v>
+      </c>
+      <c r="O196" s="2">
+        <v>513.41300000000001</v>
+      </c>
+      <c r="P196" s="2">
+        <v>3679.1768999999999</v>
+      </c>
+      <c r="Q196" s="2">
+        <v>1306.1555000000001</v>
+      </c>
+      <c r="R196" s="2">
+        <v>1413.1780220000001</v>
+      </c>
+      <c r="S196" s="2">
+        <v>1753.0830000000001</v>
+      </c>
+      <c r="T196" s="2">
+        <v>127.9555</v>
+      </c>
+      <c r="U196" s="2">
+        <v>698.9</v>
+      </c>
+      <c r="V196" s="2">
+        <v>9471.7209999999995</v>
+      </c>
+      <c r="W196" s="2">
+        <v>2001.585</v>
+      </c>
+      <c r="X196" s="2">
+        <v>6987.27</v>
+      </c>
+      <c r="Y196" s="2">
+        <v>300.9785</v>
+      </c>
+      <c r="Z196" s="2">
+        <v>310.43599999999998</v>
+      </c>
+      <c r="AA196" s="2">
+        <v>852.21100000000001</v>
+      </c>
+      <c r="AB196" s="2">
+        <v>1282.7</v>
+      </c>
+      <c r="AC196" s="2">
+        <v>42.23</v>
+      </c>
+      <c r="AD196" s="2">
+        <v>975.39099999999996</v>
+      </c>
+      <c r="AE196" s="2">
+        <v>1136.1510000000001</v>
+      </c>
+      <c r="AF196" s="2">
+        <v>1903.9186</v>
+      </c>
+      <c r="AG196" s="2">
+        <v>5568.9417999999996</v>
+      </c>
+      <c r="AH196" s="2">
+        <v>7928.0653000000002</v>
+      </c>
+      <c r="AI196" s="2">
+        <v>11710.047</v>
+      </c>
+      <c r="AJ196" s="2">
+        <v>3850.1012999999998</v>
+      </c>
+      <c r="AK196" s="2">
+        <v>1885.1</v>
+      </c>
+      <c r="AL196" s="2">
+        <v>2547.69</v>
+      </c>
+      <c r="AM196" s="2">
+        <v>2551.2909</v>
+      </c>
+      <c r="AN196" s="2">
+        <v>10631.435600000001</v>
+      </c>
+      <c r="AO196" s="2">
+        <v>6773.9575999999997</v>
+      </c>
+      <c r="AP196" s="2">
+        <v>5965.1639999999998</v>
+      </c>
+      <c r="AQ196" s="2">
+        <v>3707.6062000000002</v>
+      </c>
+      <c r="AR196" s="2">
+        <v>2979.9209999999998</v>
+      </c>
+      <c r="AS196" s="2">
+        <v>11827.541499999999</v>
+      </c>
+      <c r="AT196" s="2">
+        <v>7393.268</v>
+      </c>
+      <c r="AU196" s="2">
+        <v>3869.7127</v>
+      </c>
+      <c r="AV196" s="2">
+        <v>2871.3697999999999</v>
+      </c>
+      <c r="AW196" s="2">
+        <v>11223.320599999999</v>
+      </c>
+      <c r="AX196" s="2">
+        <v>2722.1282000000001</v>
+      </c>
+      <c r="AY196" s="2">
+        <v>851.125</v>
+      </c>
+      <c r="AZ196" s="2">
+        <v>1755.96</v>
+      </c>
+      <c r="BA196" s="2">
+        <v>1821.4831999999999</v>
+      </c>
+      <c r="BB196" s="2">
+        <v>3672.15</v>
+      </c>
+      <c r="BC196" s="2">
+        <v>1135.9000000000001</v>
+      </c>
+      <c r="BD196" s="2">
+        <v>40.945</v>
+      </c>
+      <c r="BE196" s="2">
+        <v>5571.21</v>
+      </c>
+      <c r="BF196" s="2">
+        <v>2424.1687000000002</v>
+      </c>
+      <c r="BG196" s="2">
+        <v>396.14</v>
+      </c>
+      <c r="BH196" s="2">
+        <v>3311.68</v>
+      </c>
+      <c r="BI196" s="2">
+        <v>7218.3087999999998</v>
+      </c>
+      <c r="BJ196" s="2">
+        <v>23.4</v>
+      </c>
+      <c r="BK196" s="2">
+        <v>153.745</v>
+      </c>
+      <c r="BL196" s="2">
+        <v>3005.7750000000001</v>
+      </c>
+      <c r="BM196" s="2">
+        <v>2455.3380000000002</v>
+      </c>
+      <c r="BN196" s="2">
+        <v>5887.8069999999998</v>
+      </c>
+      <c r="BO196" s="2">
+        <v>1385.9659999999999</v>
+      </c>
+      <c r="BP196" s="2">
+        <v>1214.2809999999999</v>
+      </c>
+      <c r="BQ196" s="2">
+        <v>1095.365</v>
+      </c>
+      <c r="BR196" s="2">
+        <v>106.97499999999999</v>
+      </c>
+      <c r="BS196" s="2">
+        <v>2282.4380000000001</v>
+      </c>
+      <c r="BT196" s="2">
+        <v>514.91600000000005</v>
+      </c>
+      <c r="BU196" s="2">
+        <v>700.5</v>
+      </c>
+      <c r="BV196" s="2">
+        <v>756.51499999999999</v>
+      </c>
+      <c r="BW196" s="2">
+        <v>568.35</v>
+      </c>
+      <c r="BX196" s="2">
+        <v>2505.61</v>
+      </c>
+      <c r="BY196" s="2">
+        <v>2095.6149999999998</v>
+      </c>
+      <c r="BZ196" s="2">
+        <v>833.85</v>
+      </c>
+      <c r="CA196" s="2">
+        <v>929.89499999999998</v>
+      </c>
+      <c r="CB196" s="2">
+        <v>1410.4939999999999</v>
+      </c>
+      <c r="CC196" s="2">
+        <v>1171.396</v>
+      </c>
+      <c r="CD196" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="CE196" s="2">
+        <v>202.86</v>
+      </c>
+      <c r="CF196" s="2">
+        <v>717.65099999999995</v>
+      </c>
+      <c r="CG196" s="2">
+        <v>611.17499999999995</v>
+      </c>
+      <c r="CH196" s="2">
+        <v>1466.0619999999999</v>
+      </c>
+      <c r="CI196" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="CJ196" s="2">
+        <v>1213.04</v>
+      </c>
+      <c r="CK196" s="2">
+        <v>2312.86</v>
+      </c>
+      <c r="CL196" s="2">
+        <v>989.1</v>
+      </c>
+      <c r="CM196" s="2">
+        <v>1456.7380000000001</v>
+      </c>
+      <c r="CN196" s="2">
+        <v>3125.0749999999998</v>
+      </c>
+      <c r="CO196" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP196" s="2">
+        <v>0</v>
+      </c>
+      <c r="CQ196" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR196" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS196" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT196" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU196" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV196" s="2">
+        <v>55762.160199999998</v>
+      </c>
+      <c r="CW196" s="2">
+        <v>106.32510000000001</v>
+      </c>
+      <c r="CX196" s="2">
+        <v>431.06729999999999</v>
+      </c>
+      <c r="CY196" s="2">
+        <v>4681.8845000000001</v>
+      </c>
+      <c r="CZ196" s="2">
+        <v>2324.5464000000002</v>
+      </c>
+      <c r="DA196" s="2">
+        <v>2094.9679000000001</v>
+      </c>
+      <c r="DB196" s="2">
+        <v>910.93640000000005</v>
+      </c>
+      <c r="DC196" s="2">
+        <v>439.79500000000002</v>
+      </c>
+      <c r="DD196" s="2">
+        <v>552.09259999999995</v>
+      </c>
+      <c r="DE196" s="2">
+        <v>279.09769999999997</v>
+      </c>
+      <c r="DF196" s="2">
+        <v>3701.895</v>
+      </c>
+      <c r="DG196" s="2">
+        <v>3241.7525999999998</v>
+      </c>
+      <c r="DH196" s="2">
+        <v>3068.9765000000002</v>
+      </c>
+      <c r="DI196" s="2">
+        <v>829.3999</v>
+      </c>
+      <c r="DJ196" s="2">
+        <v>1828.2019</v>
+      </c>
+      <c r="DK196" s="2">
+        <v>5450.1804000000002</v>
+      </c>
+      <c r="DL196" s="2">
+        <v>3608.4883</v>
+      </c>
+      <c r="DM196" s="2">
+        <v>2358.3534</v>
+      </c>
+      <c r="DN196" s="2">
+        <v>1090.7619</v>
+      </c>
+      <c r="DO196" s="2">
+        <v>2385.0565999999999</v>
+      </c>
+      <c r="DP196" s="2">
+        <v>959.81299999999999</v>
+      </c>
+      <c r="DQ196" s="2">
+        <v>442.15800000000002</v>
+      </c>
+      <c r="DR196" s="2">
+        <v>127.3935</v>
+      </c>
+      <c r="DS196" s="2">
+        <v>425.86380000000003</v>
+      </c>
+      <c r="DT196" s="2">
+        <v>1494.2787000000001</v>
+      </c>
+      <c r="DU196" s="2">
+        <v>1448.0409999999999</v>
+      </c>
+      <c r="DV196" s="2">
+        <v>236.60050000000001</v>
+      </c>
+      <c r="DW196" s="2">
+        <v>1976.7348</v>
+      </c>
+      <c r="DX196" s="2">
+        <v>2241.2319000000002</v>
+      </c>
+      <c r="DY196" s="2">
+        <v>2180.8476000000001</v>
+      </c>
+      <c r="DZ196" s="2">
+        <v>2021.6934000000001</v>
+      </c>
+      <c r="EA196" s="2">
+        <v>2823.7244000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:131">
+      <c r="A197" s="3">
         <v>45291</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B197" s="2">
         <v>102</v>
       </c>
-      <c r="C196" s="2">
+      <c r="C197" s="2">
         <v>484</v>
       </c>
-      <c r="D196" s="2">
+      <c r="D197" s="2">
         <v>225</v>
       </c>
-      <c r="E196" s="2">
+      <c r="E197" s="2">
         <v>241</v>
       </c>
-      <c r="F196" s="2">
+      <c r="F197" s="2">
         <v>334</v>
       </c>
-      <c r="G196" s="2">
+      <c r="G197" s="2">
         <v>648</v>
       </c>
-      <c r="H196" s="2">
+      <c r="H197" s="2">
         <v>235</v>
       </c>
-      <c r="I196" s="2">
+      <c r="I197" s="2">
         <v>265</v>
       </c>
-      <c r="J196" s="2">
+      <c r="J197" s="2">
         <v>1388</v>
       </c>
-      <c r="K196" s="2">
+      <c r="K197" s="2">
         <v>624</v>
       </c>
-      <c r="L196" s="2">
+      <c r="L197" s="2">
         <v>1606</v>
       </c>
-      <c r="M196" s="2">
+      <c r="M197" s="2">
         <v>679</v>
       </c>
-      <c r="N196" s="2">
+      <c r="N197" s="2">
         <v>407</v>
       </c>
-      <c r="O196" s="2">
+      <c r="O197" s="2">
         <v>535</v>
       </c>
-      <c r="P196" s="2">
+      <c r="P197" s="2">
         <v>3793</v>
       </c>
-      <c r="Q196" s="2">
+      <c r="Q197" s="2">
         <v>1633</v>
       </c>
-      <c r="R196" s="2">
+      <c r="R197" s="2">
         <v>1912</v>
       </c>
-      <c r="S196" s="2">
+      <c r="S197" s="2">
         <v>1886</v>
       </c>
-      <c r="T196" s="2">
+      <c r="T197" s="2">
         <v>154</v>
       </c>
-      <c r="U196" s="2">
+      <c r="U197" s="2">
         <v>826</v>
       </c>
-      <c r="V196" s="2">
+      <c r="V197" s="2">
         <v>9759</v>
       </c>
-      <c r="W196" s="2">
+      <c r="W197" s="2">
         <v>2287</v>
       </c>
-      <c r="X196" s="2">
+      <c r="X197" s="2">
         <v>8143</v>
       </c>
-      <c r="Y196" s="2">
+      <c r="Y197" s="2">
         <v>312</v>
       </c>
-      <c r="Z196" s="2">
+      <c r="Z197" s="2">
         <v>353</v>
       </c>
-      <c r="AA196" s="2">
+      <c r="AA197" s="2">
         <v>972</v>
       </c>
-      <c r="AB196" s="2">
+      <c r="AB197" s="2">
         <v>1305</v>
       </c>
-      <c r="AC196" s="2">
+      <c r="AC197" s="2">
         <v>43</v>
       </c>
-      <c r="AD196" s="2">
+      <c r="AD197" s="2">
         <v>1004</v>
       </c>
-      <c r="AE196" s="2">
+      <c r="AE197" s="2">
         <v>1143</v>
       </c>
-      <c r="AF196" s="2">
+      <c r="AF197" s="2">
         <v>1907</v>
       </c>
-      <c r="AG196" s="2">
+      <c r="AG197" s="2">
         <v>5571</v>
       </c>
-      <c r="AH196" s="2">
+      <c r="AH197" s="2">
         <v>8011</v>
       </c>
-      <c r="AI196" s="2">
+      <c r="AI197" s="2">
         <v>11829</v>
       </c>
-      <c r="AJ196" s="2">
+      <c r="AJ197" s="2">
         <v>3856</v>
       </c>
-      <c r="AK196" s="2">
+      <c r="AK197" s="2">
         <v>1890</v>
       </c>
-      <c r="AL196" s="2">
+      <c r="AL197" s="2">
         <v>2557</v>
       </c>
-      <c r="AM196" s="2">
+      <c r="AM197" s="2">
         <v>2557</v>
       </c>
-      <c r="AN196" s="2">
+      <c r="AN197" s="2">
         <v>10748</v>
       </c>
-      <c r="AO196" s="2">
+      <c r="AO197" s="2">
         <v>6794</v>
       </c>
-      <c r="AP196" s="2">
+      <c r="AP197" s="2">
         <v>6071</v>
       </c>
-      <c r="AQ196" s="2">
+      <c r="AQ197" s="2">
         <v>3717</v>
       </c>
-      <c r="AR196" s="2">
+      <c r="AR197" s="2">
         <v>2994</v>
       </c>
-      <c r="AS196" s="2">
+      <c r="AS197" s="2">
         <v>11798</v>
       </c>
-      <c r="AT196" s="2">
+      <c r="AT197" s="2">
         <v>7402</v>
       </c>
-      <c r="AU196" s="2">
+      <c r="AU197" s="2">
         <v>3998</v>
       </c>
-      <c r="AV196" s="2">
+      <c r="AV197" s="2">
         <v>2895</v>
       </c>
-      <c r="AW196" s="2">
+      <c r="AW197" s="2">
         <v>11629</v>
       </c>
-      <c r="AX196" s="2">
+      <c r="AX197" s="2">
         <v>2819</v>
       </c>
-      <c r="AY196" s="2">
+      <c r="AY197" s="2">
         <v>852</v>
       </c>
-      <c r="AZ196" s="2">
+      <c r="AZ197" s="2">
         <v>1765</v>
       </c>
-      <c r="BA196" s="2">
+      <c r="BA197" s="2">
         <v>1845</v>
       </c>
-      <c r="BB196" s="2">
+      <c r="BB197" s="2">
         <v>3818</v>
       </c>
-      <c r="BC196" s="2">
+      <c r="BC197" s="2">
         <v>1416</v>
       </c>
-      <c r="BD196" s="2">
+      <c r="BD197" s="2">
         <v>42</v>
       </c>
-      <c r="BE196" s="2">
+      <c r="BE197" s="2">
         <v>5676</v>
       </c>
-      <c r="BF196" s="2">
+      <c r="BF197" s="2">
         <v>2525</v>
       </c>
-      <c r="BG196" s="2">
+      <c r="BG197" s="2">
         <v>397</v>
       </c>
-      <c r="BH196" s="2">
+      <c r="BH197" s="2">
         <v>3313</v>
       </c>
-      <c r="BI196" s="2">
+      <c r="BI197" s="2">
         <v>7199</v>
       </c>
-      <c r="BJ196" s="2">
+      <c r="BJ197" s="2">
         <v>24</v>
       </c>
-      <c r="BK196" s="2">
+      <c r="BK197" s="2">
         <v>171</v>
       </c>
-      <c r="BL196" s="2">
+      <c r="BL197" s="2">
         <v>3141</v>
       </c>
-      <c r="BM196" s="2">
+      <c r="BM197" s="2">
         <v>2500</v>
       </c>
-      <c r="BN196" s="2">
+      <c r="BN197" s="2">
         <v>6961</v>
       </c>
-      <c r="BO196" s="2">
+      <c r="BO197" s="2">
         <v>1429</v>
       </c>
-      <c r="BP196" s="2">
+      <c r="BP197" s="2">
         <v>1268</v>
       </c>
-      <c r="BQ196" s="2">
+      <c r="BQ197" s="2">
         <v>1127</v>
       </c>
-      <c r="BR196" s="2">
+      <c r="BR197" s="2">
         <v>107</v>
       </c>
-      <c r="BS196" s="2">
+      <c r="BS197" s="2">
         <v>2286</v>
       </c>
-      <c r="BT196" s="2">
+      <c r="BT197" s="2">
         <v>584</v>
       </c>
-      <c r="BU196" s="2">
+      <c r="BU197" s="2">
         <v>722</v>
       </c>
-      <c r="BV196" s="2">
+      <c r="BV197" s="2">
         <v>762</v>
       </c>
-      <c r="BW196" s="2">
+      <c r="BW197" s="2">
         <v>573</v>
       </c>
-      <c r="BX196" s="2">
+      <c r="BX197" s="2">
         <v>2591</v>
       </c>
-      <c r="BY196" s="2">
+      <c r="BY197" s="2">
         <v>2178</v>
       </c>
-      <c r="BZ196" s="2">
+      <c r="BZ197" s="2">
         <v>836</v>
       </c>
-      <c r="CA196" s="2">
+      <c r="CA197" s="2">
         <v>972</v>
       </c>
-      <c r="CB196" s="2">
+      <c r="CB197" s="2">
         <v>1657</v>
       </c>
-      <c r="CC196" s="2">
+      <c r="CC197" s="2">
         <v>1267</v>
       </c>
-      <c r="CD196" s="2">
+      <c r="CD197" s="2">
         <v>31</v>
       </c>
-      <c r="CE196" s="2">
+      <c r="CE197" s="2">
         <v>206</v>
       </c>
-      <c r="CF196" s="2">
+      <c r="CF197" s="2">
         <v>770</v>
       </c>
-      <c r="CG196" s="2">
+      <c r="CG197" s="2">
         <v>616</v>
       </c>
-      <c r="CH196" s="2">
+      <c r="CH197" s="2">
         <v>1531</v>
       </c>
-      <c r="CI196" s="2">
+      <c r="CI197" s="2">
         <v>18</v>
       </c>
-      <c r="CJ196" s="2">
+      <c r="CJ197" s="2">
         <v>1285</v>
       </c>
-      <c r="CK196" s="2">
+      <c r="CK197" s="2">
         <v>2614</v>
       </c>
-      <c r="CL196" s="2">
+      <c r="CL197" s="2">
         <v>1185</v>
       </c>
-      <c r="CM196" s="2">
+      <c r="CM197" s="2">
         <v>1464</v>
       </c>
-      <c r="CN196" s="2">
+      <c r="CN197" s="2">
         <v>3258</v>
       </c>
-      <c r="CO196" s="2">
+      <c r="CO197" s="2">
         <v>668</v>
       </c>
-      <c r="CP196" s="2">
+      <c r="CP197" s="2">
         <v>661</v>
       </c>
-      <c r="CQ196" s="2">
+      <c r="CQ197" s="2">
         <v>917</v>
       </c>
-      <c r="CR196" s="2">
+      <c r="CR197" s="2">
         <v>1101</v>
       </c>
-      <c r="CS196" s="2">
+      <c r="CS197" s="2">
         <v>1614</v>
       </c>
-      <c r="CT196" s="2">
+      <c r="CT197" s="2">
         <v>336</v>
       </c>
-      <c r="CU196" s="2">
-        <v>0</v>
-      </c>
-      <c r="CV196" s="2">
+      <c r="CU197" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV197" s="2">
         <v>60949</v>
       </c>
-      <c r="CW196" s="2">
+      <c r="CW197" s="2">
         <v>108</v>
       </c>
-      <c r="CX196" s="2">
+      <c r="CX197" s="2">
         <v>490</v>
       </c>
-      <c r="CY196" s="2">
+      <c r="CY197" s="2">
         <v>5416</v>
       </c>
-      <c r="CZ196" s="2">
+      <c r="CZ197" s="2">
         <v>2490</v>
       </c>
-      <c r="DA196" s="2">
+      <c r="DA197" s="2">
         <v>2306</v>
       </c>
-      <c r="DB196" s="2">
+      <c r="DB197" s="2">
         <v>958</v>
       </c>
-      <c r="DC196" s="2">
+      <c r="DC197" s="2">
         <v>460</v>
       </c>
-      <c r="DD196" s="2">
+      <c r="DD197" s="2">
         <v>565</v>
       </c>
-      <c r="DE196" s="2">
+      <c r="DE197" s="2">
         <v>289</v>
       </c>
-      <c r="DF196" s="2">
+      <c r="DF197" s="2">
         <v>3928</v>
       </c>
-      <c r="DG196" s="2">
+      <c r="DG197" s="2">
         <v>3357</v>
       </c>
-      <c r="DH196" s="2">
+      <c r="DH197" s="2">
         <v>3223</v>
       </c>
-      <c r="DI196" s="2">
+      <c r="DI197" s="2">
         <v>875</v>
       </c>
-      <c r="DJ196" s="2">
+      <c r="DJ197" s="2">
         <v>1993</v>
       </c>
-      <c r="DK196" s="2">
+      <c r="DK197" s="2">
         <v>5693</v>
       </c>
-      <c r="DL196" s="2">
+      <c r="DL197" s="2">
         <v>3731</v>
       </c>
-      <c r="DM196" s="2">
+      <c r="DM197" s="2">
         <v>2487</v>
       </c>
-      <c r="DN196" s="2">
+      <c r="DN197" s="2">
         <v>1252</v>
       </c>
-      <c r="DO196" s="2">
+      <c r="DO197" s="2">
         <v>2522</v>
       </c>
-      <c r="DP196" s="2">
+      <c r="DP197" s="2">
         <v>1090</v>
       </c>
-      <c r="DQ196" s="2">
+      <c r="DQ197" s="2">
         <v>472</v>
       </c>
-      <c r="DR196" s="2">
+      <c r="DR197" s="2">
         <v>161</v>
       </c>
-      <c r="DS196" s="2">
+      <c r="DS197" s="2">
         <v>574</v>
       </c>
-      <c r="DT196" s="2">
+      <c r="DT197" s="2">
         <v>1644</v>
       </c>
-      <c r="DU196" s="2">
+      <c r="DU197" s="2">
         <v>2072</v>
       </c>
-      <c r="DV196" s="2">
+      <c r="DV197" s="2">
         <v>257</v>
       </c>
-      <c r="DW196" s="2">
+      <c r="DW197" s="2">
         <v>2292</v>
       </c>
-      <c r="DX196" s="2">
+      <c r="DX197" s="2">
         <v>2540</v>
       </c>
-      <c r="DY196" s="2">
+      <c r="DY197" s="2">
         <v>2561</v>
       </c>
-      <c r="DZ196" s="2">
+      <c r="DZ197" s="2">
         <v>2137</v>
       </c>
-      <c r="EA196" s="2">
+      <c r="EA197" s="2">
         <v>3007</v>
+      </c>
+    </row>
+    <row r="198" spans="1:131">
+      <c r="A198" s="3">
+        <v>45351</v>
+      </c>
+      <c r="B198" s="2">
+        <v>101</v>
+      </c>
+      <c r="C198" s="2">
+        <v>468</v>
+      </c>
+      <c r="D198" s="2">
+        <v>217</v>
+      </c>
+      <c r="E198" s="2">
+        <v>238</v>
+      </c>
+      <c r="F198" s="2">
+        <v>318</v>
+      </c>
+      <c r="G198" s="2">
+        <v>619</v>
+      </c>
+      <c r="H198" s="2">
+        <v>226</v>
+      </c>
+      <c r="I198" s="2">
+        <v>260</v>
+      </c>
+      <c r="J198" s="2">
+        <v>1164</v>
+      </c>
+      <c r="K198" s="2">
+        <v>545</v>
+      </c>
+      <c r="L198" s="2">
+        <v>1271</v>
+      </c>
+      <c r="M198" s="2">
+        <v>468</v>
+      </c>
+      <c r="N198" s="2">
+        <v>402</v>
+      </c>
+      <c r="O198" s="2">
+        <v>517</v>
+      </c>
+      <c r="P198" s="2">
+        <v>3685</v>
+      </c>
+      <c r="Q198" s="2">
+        <v>1306</v>
+      </c>
+      <c r="R198" s="2">
+        <v>1413</v>
+      </c>
+      <c r="S198" s="2">
+        <v>1746</v>
+      </c>
+      <c r="T198" s="2">
+        <v>128</v>
+      </c>
+      <c r="U198" s="2">
+        <v>732</v>
+      </c>
+      <c r="V198" s="2">
+        <v>9506</v>
+      </c>
+      <c r="W198" s="2">
+        <v>2004</v>
+      </c>
+      <c r="X198" s="2">
+        <v>6987</v>
+      </c>
+      <c r="Y198" s="2">
+        <v>301</v>
+      </c>
+      <c r="Z198" s="2">
+        <v>309</v>
+      </c>
+      <c r="AA198" s="2">
+        <v>879</v>
+      </c>
+      <c r="AB198" s="2">
+        <v>1283</v>
+      </c>
+      <c r="AC198" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD198" s="2">
+        <v>1006</v>
+      </c>
+      <c r="AE198" s="2">
+        <v>1146</v>
+      </c>
+      <c r="AF198" s="2">
+        <v>1897</v>
+      </c>
+      <c r="AG198" s="2">
+        <v>5523</v>
+      </c>
+      <c r="AH198" s="2">
+        <v>8009</v>
+      </c>
+      <c r="AI198" s="2">
+        <v>11839</v>
+      </c>
+      <c r="AJ198" s="2">
+        <v>3845</v>
+      </c>
+      <c r="AK198" s="2">
+        <v>1884</v>
+      </c>
+      <c r="AL198" s="2">
+        <v>2555</v>
+      </c>
+      <c r="AM198" s="2">
+        <v>2548</v>
+      </c>
+      <c r="AN198" s="2">
+        <v>10752</v>
+      </c>
+      <c r="AO198" s="2">
+        <v>6775</v>
+      </c>
+      <c r="AP198" s="2">
+        <v>6069</v>
+      </c>
+      <c r="AQ198" s="2">
+        <v>3716</v>
+      </c>
+      <c r="AR198" s="2">
+        <v>2986</v>
+      </c>
+      <c r="AS198" s="2">
+        <v>11804</v>
+      </c>
+      <c r="AT198" s="2">
+        <v>7420</v>
+      </c>
+      <c r="AU198" s="2">
+        <v>4016</v>
+      </c>
+      <c r="AV198" s="2">
+        <v>2873</v>
+      </c>
+      <c r="AW198" s="2">
+        <v>11673</v>
+      </c>
+      <c r="AX198" s="2">
+        <v>2857</v>
+      </c>
+      <c r="AY198" s="2">
+        <v>851</v>
+      </c>
+      <c r="AZ198" s="2">
+        <v>1754</v>
+      </c>
+      <c r="BA198" s="2">
+        <v>1823</v>
+      </c>
+      <c r="BB198" s="2">
+        <v>3740</v>
+      </c>
+      <c r="BC198" s="2">
+        <v>1136</v>
+      </c>
+      <c r="BD198" s="2">
+        <v>41</v>
+      </c>
+      <c r="BE198" s="2">
+        <v>5811</v>
+      </c>
+      <c r="BF198" s="2">
+        <v>2522</v>
+      </c>
+      <c r="BG198" s="2">
+        <v>396</v>
+      </c>
+      <c r="BH198" s="2">
+        <v>3312</v>
+      </c>
+      <c r="BI198" s="2">
+        <v>7205</v>
+      </c>
+      <c r="BJ198" s="2">
+        <v>23</v>
+      </c>
+      <c r="BK198" s="2">
+        <v>167</v>
+      </c>
+      <c r="BL198" s="2">
+        <v>3141</v>
+      </c>
+      <c r="BM198" s="2">
+        <v>2503</v>
+      </c>
+      <c r="BN198" s="2">
+        <v>7053</v>
+      </c>
+      <c r="BO198" s="2">
+        <v>1439</v>
+      </c>
+      <c r="BP198" s="2">
+        <v>1306</v>
+      </c>
+      <c r="BQ198" s="2">
+        <v>1189</v>
+      </c>
+      <c r="BR198" s="2">
+        <v>107</v>
+      </c>
+      <c r="BS198" s="2">
+        <v>2284</v>
+      </c>
+      <c r="BT198" s="2">
+        <v>585</v>
+      </c>
+      <c r="BU198" s="2">
+        <v>736</v>
+      </c>
+      <c r="BV198" s="2">
+        <v>782</v>
+      </c>
+      <c r="BW198" s="2">
+        <v>578</v>
+      </c>
+      <c r="BX198" s="2">
+        <v>2600</v>
+      </c>
+      <c r="BY198" s="2">
+        <v>2224</v>
+      </c>
+      <c r="BZ198" s="2">
+        <v>849</v>
+      </c>
+      <c r="CA198" s="2">
+        <v>997</v>
+      </c>
+      <c r="CB198" s="2">
+        <v>1656</v>
+      </c>
+      <c r="CC198" s="2">
+        <v>1343</v>
+      </c>
+      <c r="CD198" s="2">
+        <v>31</v>
+      </c>
+      <c r="CE198" s="2">
+        <v>217</v>
+      </c>
+      <c r="CF198" s="2">
+        <v>799</v>
+      </c>
+      <c r="CG198" s="2">
+        <v>644</v>
+      </c>
+      <c r="CH198" s="2">
+        <v>1545</v>
+      </c>
+      <c r="CI198" s="2">
+        <v>18</v>
+      </c>
+      <c r="CJ198" s="2">
+        <v>1260</v>
+      </c>
+      <c r="CK198" s="2">
+        <v>2789</v>
+      </c>
+      <c r="CL198" s="2">
+        <v>1187</v>
+      </c>
+      <c r="CM198" s="2">
+        <v>1463</v>
+      </c>
+      <c r="CN198" s="2">
+        <v>3463</v>
+      </c>
+      <c r="CO198" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP198" s="2">
+        <v>0</v>
+      </c>
+      <c r="CQ198" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR198" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS198" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT198" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU198" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV198" s="2">
+        <v>64788</v>
+      </c>
+      <c r="CW198" s="2">
+        <v>111</v>
+      </c>
+      <c r="CX198" s="2">
+        <v>536</v>
+      </c>
+      <c r="CY198" s="2">
+        <v>5541</v>
+      </c>
+      <c r="CZ198" s="2">
+        <v>2602</v>
+      </c>
+      <c r="DA198" s="2">
+        <v>2645</v>
+      </c>
+      <c r="DB198" s="2">
+        <v>1015</v>
+      </c>
+      <c r="DC198" s="2">
+        <v>471</v>
+      </c>
+      <c r="DD198" s="2">
+        <v>574</v>
+      </c>
+      <c r="DE198" s="2">
+        <v>306</v>
+      </c>
+      <c r="DF198" s="2">
+        <v>4330</v>
+      </c>
+      <c r="DG198" s="2">
+        <v>3563</v>
+      </c>
+      <c r="DH198" s="2">
+        <v>3382</v>
+      </c>
+      <c r="DI198" s="2">
+        <v>949</v>
+      </c>
+      <c r="DJ198" s="2">
+        <v>2114</v>
+      </c>
+      <c r="DK198" s="2">
+        <v>5935</v>
+      </c>
+      <c r="DL198" s="2">
+        <v>3846</v>
+      </c>
+      <c r="DM198" s="2">
+        <v>2637</v>
+      </c>
+      <c r="DN198" s="2">
+        <v>1311</v>
+      </c>
+      <c r="DO198" s="2">
+        <v>2832</v>
+      </c>
+      <c r="DP198" s="2">
+        <v>1263</v>
+      </c>
+      <c r="DQ198" s="2">
+        <v>542</v>
+      </c>
+      <c r="DR198" s="2">
+        <v>185</v>
+      </c>
+      <c r="DS198" s="2">
+        <v>635</v>
+      </c>
+      <c r="DT198" s="2">
+        <v>1702</v>
+      </c>
+      <c r="DU198" s="2">
+        <v>2236</v>
+      </c>
+      <c r="DV198" s="2">
+        <v>271</v>
+      </c>
+      <c r="DW198" s="2">
+        <v>2339</v>
+      </c>
+      <c r="DX198" s="2">
+        <v>2691</v>
+      </c>
+      <c r="DY198" s="2">
+        <v>2679</v>
+      </c>
+      <c r="DZ198" s="2">
+        <v>2166</v>
+      </c>
+      <c r="EA198" s="2">
+        <v>3379</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E425762F-BBC2-4922-B3B4-A51BF6E1069D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD174DA0-50BF-4A12-886D-0D5F88CB043D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Generating Capacity of 60" sheetId="1" r:id="rId1"/>
@@ -890,28 +890,28 @@
     <t>2024-02-06</t>
   </si>
   <si>
-    <t>2007-06:2024-02</t>
+    <t>2007-06:2024-03</t>
   </si>
   <si>
-    <t>2007-12:2024-02</t>
+    <t>2007-12:2024-03</t>
   </si>
   <si>
-    <t>2008-04:2024-02</t>
+    <t>2008-04:2024-03</t>
   </si>
   <si>
-    <t>2011-04:2024-02</t>
+    <t>2011-04:2024-03</t>
   </si>
   <si>
-    <t>2014-12:2024-02</t>
+    <t>2014-12:2024-03</t>
   </si>
   <si>
-    <t>2011-02:2024-02</t>
+    <t>2011-02:2024-03</t>
   </si>
   <si>
-    <t>2018-02:2024-02</t>
+    <t>2018-02:2024-03</t>
   </si>
   <si>
-    <t>2024-04-02</t>
+    <t>2024-04-26</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EA198"/>
+  <dimension ref="A1:EA199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -75102,7 +75102,7 @@
         <v>0</v>
       </c>
       <c r="CV188" s="2">
-        <v>42589</v>
+        <v>42596</v>
       </c>
       <c r="CW188" s="2">
         <v>99</v>
@@ -75195,7 +75195,7 @@
         <v>1672</v>
       </c>
       <c r="EA188" s="2">
-        <v>1688</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="189" spans="1:131">
@@ -79146,6 +79146,401 @@
       </c>
       <c r="EA198" s="2">
         <v>3379</v>
+      </c>
+    </row>
+    <row r="199" spans="1:131">
+      <c r="A199" s="3">
+        <v>45382</v>
+      </c>
+      <c r="B199" s="2">
+        <v>101</v>
+      </c>
+      <c r="C199" s="2">
+        <v>466</v>
+      </c>
+      <c r="D199" s="2">
+        <v>217</v>
+      </c>
+      <c r="E199" s="2">
+        <v>238</v>
+      </c>
+      <c r="F199" s="2">
+        <v>348</v>
+      </c>
+      <c r="G199" s="2">
+        <v>619</v>
+      </c>
+      <c r="H199" s="2">
+        <v>226</v>
+      </c>
+      <c r="I199" s="2">
+        <v>260</v>
+      </c>
+      <c r="J199" s="2">
+        <v>1164</v>
+      </c>
+      <c r="K199" s="2">
+        <v>545</v>
+      </c>
+      <c r="L199" s="2">
+        <v>1308</v>
+      </c>
+      <c r="M199" s="2">
+        <v>468</v>
+      </c>
+      <c r="N199" s="2">
+        <v>402</v>
+      </c>
+      <c r="O199" s="2">
+        <v>517</v>
+      </c>
+      <c r="P199" s="2">
+        <v>3686</v>
+      </c>
+      <c r="Q199" s="2">
+        <v>1307</v>
+      </c>
+      <c r="R199" s="2">
+        <v>1413</v>
+      </c>
+      <c r="S199" s="2">
+        <v>1748</v>
+      </c>
+      <c r="T199" s="2">
+        <v>128</v>
+      </c>
+      <c r="U199" s="2">
+        <v>731</v>
+      </c>
+      <c r="V199" s="2">
+        <v>9464</v>
+      </c>
+      <c r="W199" s="2">
+        <v>2004</v>
+      </c>
+      <c r="X199" s="2">
+        <v>6987</v>
+      </c>
+      <c r="Y199" s="2">
+        <v>295</v>
+      </c>
+      <c r="Z199" s="2">
+        <v>309</v>
+      </c>
+      <c r="AA199" s="2">
+        <v>880</v>
+      </c>
+      <c r="AB199" s="2">
+        <v>1280</v>
+      </c>
+      <c r="AC199" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD199" s="2">
+        <v>1017</v>
+      </c>
+      <c r="AE199" s="2">
+        <v>1146</v>
+      </c>
+      <c r="AF199" s="2">
+        <v>1897</v>
+      </c>
+      <c r="AG199" s="2">
+        <v>5560</v>
+      </c>
+      <c r="AH199" s="2">
+        <v>8013</v>
+      </c>
+      <c r="AI199" s="2">
+        <v>11841</v>
+      </c>
+      <c r="AJ199" s="2">
+        <v>3845</v>
+      </c>
+      <c r="AK199" s="2">
+        <v>1884</v>
+      </c>
+      <c r="AL199" s="2">
+        <v>2555</v>
+      </c>
+      <c r="AM199" s="2">
+        <v>2548</v>
+      </c>
+      <c r="AN199" s="2">
+        <v>10752</v>
+      </c>
+      <c r="AO199" s="2">
+        <v>6775</v>
+      </c>
+      <c r="AP199" s="2">
+        <v>6080</v>
+      </c>
+      <c r="AQ199" s="2">
+        <v>3716</v>
+      </c>
+      <c r="AR199" s="2">
+        <v>2987</v>
+      </c>
+      <c r="AS199" s="2">
+        <v>11822</v>
+      </c>
+      <c r="AT199" s="2">
+        <v>7422</v>
+      </c>
+      <c r="AU199" s="2">
+        <v>4016</v>
+      </c>
+      <c r="AV199" s="2">
+        <v>2875</v>
+      </c>
+      <c r="AW199" s="2">
+        <v>11741</v>
+      </c>
+      <c r="AX199" s="2">
+        <v>2924</v>
+      </c>
+      <c r="AY199" s="2">
+        <v>853</v>
+      </c>
+      <c r="AZ199" s="2">
+        <v>1754</v>
+      </c>
+      <c r="BA199" s="2">
+        <v>1838</v>
+      </c>
+      <c r="BB199" s="2">
+        <v>3740</v>
+      </c>
+      <c r="BC199" s="2">
+        <v>1136</v>
+      </c>
+      <c r="BD199" s="2">
+        <v>41</v>
+      </c>
+      <c r="BE199" s="2">
+        <v>5817</v>
+      </c>
+      <c r="BF199" s="2">
+        <v>2523</v>
+      </c>
+      <c r="BG199" s="2">
+        <v>396</v>
+      </c>
+      <c r="BH199" s="2">
+        <v>3312</v>
+      </c>
+      <c r="BI199" s="2">
+        <v>7211</v>
+      </c>
+      <c r="BJ199" s="2">
+        <v>23</v>
+      </c>
+      <c r="BK199" s="2">
+        <v>168</v>
+      </c>
+      <c r="BL199" s="2">
+        <v>3157</v>
+      </c>
+      <c r="BM199" s="2">
+        <v>2522</v>
+      </c>
+      <c r="BN199" s="2">
+        <v>7304</v>
+      </c>
+      <c r="BO199" s="2">
+        <v>1455</v>
+      </c>
+      <c r="BP199" s="2">
+        <v>1354</v>
+      </c>
+      <c r="BQ199" s="2">
+        <v>1229</v>
+      </c>
+      <c r="BR199" s="2">
+        <v>107</v>
+      </c>
+      <c r="BS199" s="2">
+        <v>2284</v>
+      </c>
+      <c r="BT199" s="2">
+        <v>616</v>
+      </c>
+      <c r="BU199" s="2">
+        <v>738</v>
+      </c>
+      <c r="BV199" s="2">
+        <v>783</v>
+      </c>
+      <c r="BW199" s="2">
+        <v>578</v>
+      </c>
+      <c r="BX199" s="2">
+        <v>2600</v>
+      </c>
+      <c r="BY199" s="2">
+        <v>2232</v>
+      </c>
+      <c r="BZ199" s="2">
+        <v>852</v>
+      </c>
+      <c r="CA199" s="2">
+        <v>1000</v>
+      </c>
+      <c r="CB199" s="2">
+        <v>1656</v>
+      </c>
+      <c r="CC199" s="2">
+        <v>1360</v>
+      </c>
+      <c r="CD199" s="2">
+        <v>31</v>
+      </c>
+      <c r="CE199" s="2">
+        <v>217</v>
+      </c>
+      <c r="CF199" s="2">
+        <v>799</v>
+      </c>
+      <c r="CG199" s="2">
+        <v>654</v>
+      </c>
+      <c r="CH199" s="2">
+        <v>1549</v>
+      </c>
+      <c r="CI199" s="2">
+        <v>18</v>
+      </c>
+      <c r="CJ199" s="2">
+        <v>1272</v>
+      </c>
+      <c r="CK199" s="2">
+        <v>2825</v>
+      </c>
+      <c r="CL199" s="2">
+        <v>1192</v>
+      </c>
+      <c r="CM199" s="2">
+        <v>1463</v>
+      </c>
+      <c r="CN199" s="2">
+        <v>3568</v>
+      </c>
+      <c r="CO199" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP199" s="2">
+        <v>0</v>
+      </c>
+      <c r="CQ199" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR199" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS199" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT199" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU199" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV199" s="2">
+        <v>66005</v>
+      </c>
+      <c r="CW199" s="2">
+        <v>111</v>
+      </c>
+      <c r="CX199" s="2">
+        <v>547</v>
+      </c>
+      <c r="CY199" s="2">
+        <v>5712</v>
+      </c>
+      <c r="CZ199" s="2">
+        <v>2642</v>
+      </c>
+      <c r="DA199" s="2">
+        <v>2692</v>
+      </c>
+      <c r="DB199" s="2">
+        <v>1038</v>
+      </c>
+      <c r="DC199" s="2">
+        <v>483</v>
+      </c>
+      <c r="DD199" s="2">
+        <v>578</v>
+      </c>
+      <c r="DE199" s="2">
+        <v>308</v>
+      </c>
+      <c r="DF199" s="2">
+        <v>4421</v>
+      </c>
+      <c r="DG199" s="2">
+        <v>3597</v>
+      </c>
+      <c r="DH199" s="2">
+        <v>3433</v>
+      </c>
+      <c r="DI199" s="2">
+        <v>974</v>
+      </c>
+      <c r="DJ199" s="2">
+        <v>2120</v>
+      </c>
+      <c r="DK199" s="2">
+        <v>6015</v>
+      </c>
+      <c r="DL199" s="2">
+        <v>3879</v>
+      </c>
+      <c r="DM199" s="2">
+        <v>2700</v>
+      </c>
+      <c r="DN199" s="2">
+        <v>1341</v>
+      </c>
+      <c r="DO199" s="2">
+        <v>2926</v>
+      </c>
+      <c r="DP199" s="2">
+        <v>1319</v>
+      </c>
+      <c r="DQ199" s="2">
+        <v>649</v>
+      </c>
+      <c r="DR199" s="2">
+        <v>188</v>
+      </c>
+      <c r="DS199" s="2">
+        <v>660</v>
+      </c>
+      <c r="DT199" s="2">
+        <v>1730</v>
+      </c>
+      <c r="DU199" s="2">
+        <v>2270</v>
+      </c>
+      <c r="DV199" s="2">
+        <v>271</v>
+      </c>
+      <c r="DW199" s="2">
+        <v>2349</v>
+      </c>
+      <c r="DX199" s="2">
+        <v>2703</v>
+      </c>
+      <c r="DY199" s="2">
+        <v>2679</v>
+      </c>
+      <c r="DZ199" s="2">
+        <v>2242</v>
+      </c>
+      <c r="EA199" s="2">
+        <v>3426</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD174DA0-50BF-4A12-886D-0D5F88CB043D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBADF073-68F0-4F7E-9642-87AC458215B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Generating Capacity of 60" sheetId="1" r:id="rId1"/>
@@ -1314,17 +1314,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EA199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="35" max="35" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:131">

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBADF073-68F0-4F7E-9642-87AC458215B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D078A4-900F-494D-828F-9F68BFB6B6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Generating Capacity of 60" sheetId="1" r:id="rId1"/>
@@ -890,28 +890,28 @@
     <t>2024-02-06</t>
   </si>
   <si>
-    <t>2007-06:2024-03</t>
+    <t>2007-06:2024-04</t>
   </si>
   <si>
-    <t>2007-12:2024-03</t>
+    <t>2007-12:2024-04</t>
   </si>
   <si>
-    <t>2008-04:2024-03</t>
+    <t>2008-04:2024-04</t>
   </si>
   <si>
-    <t>2011-04:2024-03</t>
+    <t>2011-04:2024-04</t>
   </si>
   <si>
-    <t>2014-12:2024-03</t>
+    <t>2014-12:2024-04</t>
   </si>
   <si>
-    <t>2011-02:2024-03</t>
+    <t>2011-02:2024-04</t>
   </si>
   <si>
-    <t>2018-02:2024-03</t>
+    <t>2018-02:2024-04</t>
   </si>
   <si>
-    <t>2024-04-26</t>
+    <t>2024-05-30</t>
   </si>
 </sst>
 </file>
@@ -1312,19 +1312,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EA199"/>
+  <dimension ref="A1:EA200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="35" max="35" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:131">
@@ -75497,7 +75497,7 @@
         <v>0</v>
       </c>
       <c r="CV189" s="2">
-        <v>44050</v>
+        <v>44057</v>
       </c>
       <c r="CW189" s="2">
         <v>99</v>
@@ -75590,7 +75590,7 @@
         <v>1791</v>
       </c>
       <c r="EA189" s="2">
-        <v>1791</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="190" spans="1:131">
@@ -79541,6 +79541,401 @@
       </c>
       <c r="EA199" s="2">
         <v>3426</v>
+      </c>
+    </row>
+    <row r="200" spans="1:131">
+      <c r="A200" s="3">
+        <v>45412</v>
+      </c>
+      <c r="B200" s="2">
+        <v>101</v>
+      </c>
+      <c r="C200" s="2">
+        <v>466</v>
+      </c>
+      <c r="D200" s="2">
+        <v>217</v>
+      </c>
+      <c r="E200" s="2">
+        <v>238</v>
+      </c>
+      <c r="F200" s="2">
+        <v>348</v>
+      </c>
+      <c r="G200" s="2">
+        <v>619</v>
+      </c>
+      <c r="H200" s="2">
+        <v>226</v>
+      </c>
+      <c r="I200" s="2">
+        <v>260</v>
+      </c>
+      <c r="J200" s="2">
+        <v>1164</v>
+      </c>
+      <c r="K200" s="2">
+        <v>545</v>
+      </c>
+      <c r="L200" s="2">
+        <v>1308</v>
+      </c>
+      <c r="M200" s="2">
+        <v>469</v>
+      </c>
+      <c r="N200" s="2">
+        <v>402</v>
+      </c>
+      <c r="O200" s="2">
+        <v>517</v>
+      </c>
+      <c r="P200" s="2">
+        <v>3685</v>
+      </c>
+      <c r="Q200" s="2">
+        <v>1311</v>
+      </c>
+      <c r="R200" s="2">
+        <v>1413</v>
+      </c>
+      <c r="S200" s="2">
+        <v>1751</v>
+      </c>
+      <c r="T200" s="2">
+        <v>128</v>
+      </c>
+      <c r="U200" s="2">
+        <v>758</v>
+      </c>
+      <c r="V200" s="2">
+        <v>9457</v>
+      </c>
+      <c r="W200" s="2">
+        <v>2004</v>
+      </c>
+      <c r="X200" s="2">
+        <v>6987</v>
+      </c>
+      <c r="Y200" s="2">
+        <v>302</v>
+      </c>
+      <c r="Z200" s="2">
+        <v>313</v>
+      </c>
+      <c r="AA200" s="2">
+        <v>880</v>
+      </c>
+      <c r="AB200" s="2">
+        <v>1335</v>
+      </c>
+      <c r="AC200" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD200" s="2">
+        <v>1017</v>
+      </c>
+      <c r="AE200" s="2">
+        <v>1146</v>
+      </c>
+      <c r="AF200" s="2">
+        <v>1897</v>
+      </c>
+      <c r="AG200" s="2">
+        <v>5539</v>
+      </c>
+      <c r="AH200" s="2">
+        <v>8017</v>
+      </c>
+      <c r="AI200" s="2">
+        <v>11853</v>
+      </c>
+      <c r="AJ200" s="2">
+        <v>3845</v>
+      </c>
+      <c r="AK200" s="2">
+        <v>1885</v>
+      </c>
+      <c r="AL200" s="2">
+        <v>2560</v>
+      </c>
+      <c r="AM200" s="2">
+        <v>2548</v>
+      </c>
+      <c r="AN200" s="2">
+        <v>10730</v>
+      </c>
+      <c r="AO200" s="2">
+        <v>6780</v>
+      </c>
+      <c r="AP200" s="2">
+        <v>6125</v>
+      </c>
+      <c r="AQ200" s="2">
+        <v>3733</v>
+      </c>
+      <c r="AR200" s="2">
+        <v>2990</v>
+      </c>
+      <c r="AS200" s="2">
+        <v>11873</v>
+      </c>
+      <c r="AT200" s="2">
+        <v>7427</v>
+      </c>
+      <c r="AU200" s="2">
+        <v>4016</v>
+      </c>
+      <c r="AV200" s="2">
+        <v>2875</v>
+      </c>
+      <c r="AW200" s="2">
+        <v>11688</v>
+      </c>
+      <c r="AX200" s="2">
+        <v>2990</v>
+      </c>
+      <c r="AY200" s="2">
+        <v>853</v>
+      </c>
+      <c r="AZ200" s="2">
+        <v>1754</v>
+      </c>
+      <c r="BA200" s="2">
+        <v>1840</v>
+      </c>
+      <c r="BB200" s="2">
+        <v>3741</v>
+      </c>
+      <c r="BC200" s="2">
+        <v>1136</v>
+      </c>
+      <c r="BD200" s="2">
+        <v>42</v>
+      </c>
+      <c r="BE200" s="2">
+        <v>5816</v>
+      </c>
+      <c r="BF200" s="2">
+        <v>2523</v>
+      </c>
+      <c r="BG200" s="2">
+        <v>396</v>
+      </c>
+      <c r="BH200" s="2">
+        <v>3313</v>
+      </c>
+      <c r="BI200" s="2">
+        <v>7211</v>
+      </c>
+      <c r="BJ200" s="2">
+        <v>23</v>
+      </c>
+      <c r="BK200" s="2">
+        <v>169</v>
+      </c>
+      <c r="BL200" s="2">
+        <v>3157</v>
+      </c>
+      <c r="BM200" s="2">
+        <v>2530</v>
+      </c>
+      <c r="BN200" s="2">
+        <v>7299</v>
+      </c>
+      <c r="BO200" s="2">
+        <v>1465</v>
+      </c>
+      <c r="BP200" s="2">
+        <v>1354</v>
+      </c>
+      <c r="BQ200" s="2">
+        <v>1259</v>
+      </c>
+      <c r="BR200" s="2">
+        <v>107</v>
+      </c>
+      <c r="BS200" s="2">
+        <v>2295</v>
+      </c>
+      <c r="BT200" s="2">
+        <v>617</v>
+      </c>
+      <c r="BU200" s="2">
+        <v>752</v>
+      </c>
+      <c r="BV200" s="2">
+        <v>789</v>
+      </c>
+      <c r="BW200" s="2">
+        <v>578</v>
+      </c>
+      <c r="BX200" s="2">
+        <v>2600</v>
+      </c>
+      <c r="BY200" s="2">
+        <v>2232</v>
+      </c>
+      <c r="BZ200" s="2">
+        <v>871</v>
+      </c>
+      <c r="CA200" s="2">
+        <v>1000</v>
+      </c>
+      <c r="CB200" s="2">
+        <v>1656</v>
+      </c>
+      <c r="CC200" s="2">
+        <v>1365</v>
+      </c>
+      <c r="CD200" s="2">
+        <v>31</v>
+      </c>
+      <c r="CE200" s="2">
+        <v>217</v>
+      </c>
+      <c r="CF200" s="2">
+        <v>798</v>
+      </c>
+      <c r="CG200" s="2">
+        <v>665</v>
+      </c>
+      <c r="CH200" s="2">
+        <v>1551</v>
+      </c>
+      <c r="CI200" s="2">
+        <v>18</v>
+      </c>
+      <c r="CJ200" s="2">
+        <v>1279</v>
+      </c>
+      <c r="CK200" s="2">
+        <v>2825</v>
+      </c>
+      <c r="CL200" s="2">
+        <v>1206</v>
+      </c>
+      <c r="CM200" s="2">
+        <v>1468</v>
+      </c>
+      <c r="CN200" s="2">
+        <v>3568</v>
+      </c>
+      <c r="CO200" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP200" s="2">
+        <v>0</v>
+      </c>
+      <c r="CQ200" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR200" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS200" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT200" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU200" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV200" s="2">
+        <v>67147</v>
+      </c>
+      <c r="CW200" s="2">
+        <v>111</v>
+      </c>
+      <c r="CX200" s="2">
+        <v>563</v>
+      </c>
+      <c r="CY200" s="2">
+        <v>5773</v>
+      </c>
+      <c r="CZ200" s="2">
+        <v>2682</v>
+      </c>
+      <c r="DA200" s="2">
+        <v>2682</v>
+      </c>
+      <c r="DB200" s="2">
+        <v>1057</v>
+      </c>
+      <c r="DC200" s="2">
+        <v>490</v>
+      </c>
+      <c r="DD200" s="2">
+        <v>594</v>
+      </c>
+      <c r="DE200" s="2">
+        <v>318</v>
+      </c>
+      <c r="DF200" s="2">
+        <v>4590</v>
+      </c>
+      <c r="DG200" s="2">
+        <v>3659</v>
+      </c>
+      <c r="DH200" s="2">
+        <v>3506</v>
+      </c>
+      <c r="DI200" s="2">
+        <v>1009</v>
+      </c>
+      <c r="DJ200" s="2">
+        <v>2218</v>
+      </c>
+      <c r="DK200" s="2">
+        <v>6111</v>
+      </c>
+      <c r="DL200" s="2">
+        <v>3942</v>
+      </c>
+      <c r="DM200" s="2">
+        <v>2754</v>
+      </c>
+      <c r="DN200" s="2">
+        <v>1408</v>
+      </c>
+      <c r="DO200" s="2">
+        <v>3017</v>
+      </c>
+      <c r="DP200" s="2">
+        <v>1348</v>
+      </c>
+      <c r="DQ200" s="2">
+        <v>604</v>
+      </c>
+      <c r="DR200" s="2">
+        <v>192</v>
+      </c>
+      <c r="DS200" s="2">
+        <v>701</v>
+      </c>
+      <c r="DT200" s="2">
+        <v>1744</v>
+      </c>
+      <c r="DU200" s="2">
+        <v>2320</v>
+      </c>
+      <c r="DV200" s="2">
+        <v>271</v>
+      </c>
+      <c r="DW200" s="2">
+        <v>2377</v>
+      </c>
+      <c r="DX200" s="2">
+        <v>2733</v>
+      </c>
+      <c r="DY200" s="2">
+        <v>2679</v>
+      </c>
+      <c r="DZ200" s="2">
+        <v>2253</v>
+      </c>
+      <c r="EA200" s="2">
+        <v>3438</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D078A4-900F-494D-828F-9F68BFB6B6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294AAB80-4A8A-439E-9D79-022603ECD2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Generating Capacity of 60" sheetId="1" r:id="rId1"/>
@@ -890,28 +890,28 @@
     <t>2024-02-06</t>
   </si>
   <si>
-    <t>2007-06:2024-04</t>
+    <t>2007-06:2024-05</t>
   </si>
   <si>
-    <t>2007-12:2024-04</t>
+    <t>2007-12:2024-05</t>
   </si>
   <si>
-    <t>2008-04:2024-04</t>
+    <t>2008-04:2024-05</t>
   </si>
   <si>
-    <t>2011-04:2024-04</t>
+    <t>2011-04:2024-05</t>
   </si>
   <si>
-    <t>2014-12:2024-04</t>
+    <t>2014-12:2024-05</t>
   </si>
   <si>
-    <t>2011-02:2024-04</t>
+    <t>2011-02:2024-05</t>
   </si>
   <si>
-    <t>2018-02:2024-04</t>
+    <t>2018-02:2024-05</t>
   </si>
   <si>
-    <t>2024-05-30</t>
+    <t>2024-07-04</t>
   </si>
 </sst>
 </file>
@@ -1312,19 +1312,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EA200"/>
+  <dimension ref="A1:EA201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="35" max="35" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:131">
@@ -75892,7 +75892,7 @@
         <v>0</v>
       </c>
       <c r="CV190" s="2">
-        <v>45392</v>
+        <v>45399</v>
       </c>
       <c r="CW190" s="2">
         <v>101</v>
@@ -75985,7 +75985,7 @@
         <v>1860</v>
       </c>
       <c r="EA190" s="2">
-        <v>1823</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="191" spans="1:131">
@@ -79936,6 +79936,401 @@
       </c>
       <c r="EA200" s="2">
         <v>3438</v>
+      </c>
+    </row>
+    <row r="201" spans="1:131">
+      <c r="A201" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B201" s="2">
+        <v>101</v>
+      </c>
+      <c r="C201" s="2">
+        <v>466</v>
+      </c>
+      <c r="D201" s="2">
+        <v>217</v>
+      </c>
+      <c r="E201" s="2">
+        <v>242</v>
+      </c>
+      <c r="F201" s="2">
+        <v>348</v>
+      </c>
+      <c r="G201" s="2">
+        <v>619</v>
+      </c>
+      <c r="H201" s="2">
+        <v>226</v>
+      </c>
+      <c r="I201" s="2">
+        <v>260</v>
+      </c>
+      <c r="J201" s="2">
+        <v>1164</v>
+      </c>
+      <c r="K201" s="2">
+        <v>545</v>
+      </c>
+      <c r="L201" s="2">
+        <v>1343</v>
+      </c>
+      <c r="M201" s="2">
+        <v>469</v>
+      </c>
+      <c r="N201" s="2">
+        <v>402</v>
+      </c>
+      <c r="O201" s="2">
+        <v>517</v>
+      </c>
+      <c r="P201" s="2">
+        <v>3684</v>
+      </c>
+      <c r="Q201" s="2">
+        <v>1311</v>
+      </c>
+      <c r="R201" s="2">
+        <v>1413</v>
+      </c>
+      <c r="S201" s="2">
+        <v>1748</v>
+      </c>
+      <c r="T201" s="2">
+        <v>128</v>
+      </c>
+      <c r="U201" s="2">
+        <v>788</v>
+      </c>
+      <c r="V201" s="2">
+        <v>9457</v>
+      </c>
+      <c r="W201" s="2">
+        <v>2004</v>
+      </c>
+      <c r="X201" s="2">
+        <v>6987</v>
+      </c>
+      <c r="Y201" s="2">
+        <v>302</v>
+      </c>
+      <c r="Z201" s="2">
+        <v>313</v>
+      </c>
+      <c r="AA201" s="2">
+        <v>880</v>
+      </c>
+      <c r="AB201" s="2">
+        <v>1335</v>
+      </c>
+      <c r="AC201" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD201" s="2">
+        <v>1046</v>
+      </c>
+      <c r="AE201" s="2">
+        <v>1146</v>
+      </c>
+      <c r="AF201" s="2">
+        <v>1897</v>
+      </c>
+      <c r="AG201" s="2">
+        <v>5550</v>
+      </c>
+      <c r="AH201" s="2">
+        <v>8017</v>
+      </c>
+      <c r="AI201" s="2">
+        <v>11853</v>
+      </c>
+      <c r="AJ201" s="2">
+        <v>3845</v>
+      </c>
+      <c r="AK201" s="2">
+        <v>1885</v>
+      </c>
+      <c r="AL201" s="2">
+        <v>2564</v>
+      </c>
+      <c r="AM201" s="2">
+        <v>2548</v>
+      </c>
+      <c r="AN201" s="2">
+        <v>10730</v>
+      </c>
+      <c r="AO201" s="2">
+        <v>6781</v>
+      </c>
+      <c r="AP201" s="2">
+        <v>6168</v>
+      </c>
+      <c r="AQ201" s="2">
+        <v>3739</v>
+      </c>
+      <c r="AR201" s="2">
+        <v>2989</v>
+      </c>
+      <c r="AS201" s="2">
+        <v>11943</v>
+      </c>
+      <c r="AT201" s="2">
+        <v>7396</v>
+      </c>
+      <c r="AU201" s="2">
+        <v>4016</v>
+      </c>
+      <c r="AV201" s="2">
+        <v>2878</v>
+      </c>
+      <c r="AW201" s="2">
+        <v>11874</v>
+      </c>
+      <c r="AX201" s="2">
+        <v>2990</v>
+      </c>
+      <c r="AY201" s="2">
+        <v>853</v>
+      </c>
+      <c r="AZ201" s="2">
+        <v>1783</v>
+      </c>
+      <c r="BA201" s="2">
+        <v>1841</v>
+      </c>
+      <c r="BB201" s="2">
+        <v>3741</v>
+      </c>
+      <c r="BC201" s="2">
+        <v>1136</v>
+      </c>
+      <c r="BD201" s="2">
+        <v>42</v>
+      </c>
+      <c r="BE201" s="2">
+        <v>5817</v>
+      </c>
+      <c r="BF201" s="2">
+        <v>2509</v>
+      </c>
+      <c r="BG201" s="2">
+        <v>396</v>
+      </c>
+      <c r="BH201" s="2">
+        <v>3313</v>
+      </c>
+      <c r="BI201" s="2">
+        <v>7213</v>
+      </c>
+      <c r="BJ201" s="2">
+        <v>23</v>
+      </c>
+      <c r="BK201" s="2">
+        <v>169</v>
+      </c>
+      <c r="BL201" s="2">
+        <v>3157</v>
+      </c>
+      <c r="BM201" s="2">
+        <v>2530</v>
+      </c>
+      <c r="BN201" s="2">
+        <v>7380</v>
+      </c>
+      <c r="BO201" s="2">
+        <v>1487</v>
+      </c>
+      <c r="BP201" s="2">
+        <v>1359</v>
+      </c>
+      <c r="BQ201" s="2">
+        <v>1263</v>
+      </c>
+      <c r="BR201" s="2">
+        <v>107</v>
+      </c>
+      <c r="BS201" s="2">
+        <v>2290</v>
+      </c>
+      <c r="BT201" s="2">
+        <v>617</v>
+      </c>
+      <c r="BU201" s="2">
+        <v>759</v>
+      </c>
+      <c r="BV201" s="2">
+        <v>789</v>
+      </c>
+      <c r="BW201" s="2">
+        <v>578</v>
+      </c>
+      <c r="BX201" s="2">
+        <v>2600</v>
+      </c>
+      <c r="BY201" s="2">
+        <v>2232</v>
+      </c>
+      <c r="BZ201" s="2">
+        <v>882</v>
+      </c>
+      <c r="CA201" s="2">
+        <v>1006</v>
+      </c>
+      <c r="CB201" s="2">
+        <v>1656</v>
+      </c>
+      <c r="CC201" s="2">
+        <v>1376</v>
+      </c>
+      <c r="CD201" s="2">
+        <v>31</v>
+      </c>
+      <c r="CE201" s="2">
+        <v>217</v>
+      </c>
+      <c r="CF201" s="2">
+        <v>810</v>
+      </c>
+      <c r="CG201" s="2">
+        <v>670</v>
+      </c>
+      <c r="CH201" s="2">
+        <v>1558</v>
+      </c>
+      <c r="CI201" s="2">
+        <v>18</v>
+      </c>
+      <c r="CJ201" s="2">
+        <v>1280</v>
+      </c>
+      <c r="CK201" s="2">
+        <v>2870</v>
+      </c>
+      <c r="CL201" s="2">
+        <v>1206</v>
+      </c>
+      <c r="CM201" s="2">
+        <v>1502</v>
+      </c>
+      <c r="CN201" s="2">
+        <v>3625</v>
+      </c>
+      <c r="CO201" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP201" s="2">
+        <v>0</v>
+      </c>
+      <c r="CQ201" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR201" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS201" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT201" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU201" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV201" s="2">
+        <v>69098</v>
+      </c>
+      <c r="CW201" s="2">
+        <v>112</v>
+      </c>
+      <c r="CX201" s="2">
+        <v>585</v>
+      </c>
+      <c r="CY201" s="2">
+        <v>5832</v>
+      </c>
+      <c r="CZ201" s="2">
+        <v>2744</v>
+      </c>
+      <c r="DA201" s="2">
+        <v>2712</v>
+      </c>
+      <c r="DB201" s="2">
+        <v>1074</v>
+      </c>
+      <c r="DC201" s="2">
+        <v>504</v>
+      </c>
+      <c r="DD201" s="2">
+        <v>599</v>
+      </c>
+      <c r="DE201" s="2">
+        <v>325</v>
+      </c>
+      <c r="DF201" s="2">
+        <v>4768</v>
+      </c>
+      <c r="DG201" s="2">
+        <v>3746</v>
+      </c>
+      <c r="DH201" s="2">
+        <v>3599</v>
+      </c>
+      <c r="DI201" s="2">
+        <v>1033</v>
+      </c>
+      <c r="DJ201" s="2">
+        <v>2270</v>
+      </c>
+      <c r="DK201" s="2">
+        <v>6242</v>
+      </c>
+      <c r="DL201" s="2">
+        <v>3983</v>
+      </c>
+      <c r="DM201" s="2">
+        <v>2836</v>
+      </c>
+      <c r="DN201" s="2">
+        <v>1455</v>
+      </c>
+      <c r="DO201" s="2">
+        <v>3145</v>
+      </c>
+      <c r="DP201" s="2">
+        <v>1422</v>
+      </c>
+      <c r="DQ201" s="2">
+        <v>619</v>
+      </c>
+      <c r="DR201" s="2">
+        <v>198</v>
+      </c>
+      <c r="DS201" s="2">
+        <v>710</v>
+      </c>
+      <c r="DT201" s="2">
+        <v>1770</v>
+      </c>
+      <c r="DU201" s="2">
+        <v>2426</v>
+      </c>
+      <c r="DV201" s="2">
+        <v>271</v>
+      </c>
+      <c r="DW201" s="2">
+        <v>2386</v>
+      </c>
+      <c r="DX201" s="2">
+        <v>2744</v>
+      </c>
+      <c r="DY201" s="2">
+        <v>2706</v>
+      </c>
+      <c r="DZ201" s="2">
+        <v>2280</v>
+      </c>
+      <c r="EA201" s="2">
+        <v>4003</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294AAB80-4A8A-439E-9D79-022603ECD2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6183C39A-F4A4-4D30-B2D1-85BB4C7FCF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Generating Capacity of 60" sheetId="1" r:id="rId1"/>
@@ -1318,13 +1318,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="35" max="35" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:131">

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00713379-25C7-49FD-A554-4988B5251A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8457F0C6-0A4D-47FE-968A-9717E37CDC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Power Generating " sheetId="1" r:id="rId1"/>
@@ -875,9 +875,6 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-08-30</t>
-  </si>
-  <si>
     <t>2024-02-06</t>
   </si>
   <si>
@@ -885,6 +882,9 @@
   </si>
   <si>
     <t>2016-09-19</t>
+  </si>
+  <si>
+    <t>2024-09-27</t>
   </si>
 </sst>
 </file>
@@ -1305,20 +1305,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EA203"/>
+  <dimension ref="A1:EA204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="40" max="40" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:131">
+    <row r="1" spans="1:131" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -3699,394 +3699,394 @@
         <v>271</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AG8" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="AH8" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="AI8" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="AJ8" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="AK8" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="AL8" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AD8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AE8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AF8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AG8" s="5" t="s">
+      <c r="AM8" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="AH8" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI8" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM8" s="5" t="s">
+      <c r="AN8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AO8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AR8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AS8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AT8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AU8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AV8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AW8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AY8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AZ8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BA8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BB8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BC8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BD8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BE8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BF8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BG8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BH8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BI8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BJ8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BK8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BL8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BM8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BN8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BO8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BP8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BQ8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BR8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BS8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BT8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BU8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BV8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BW8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BX8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BY8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BZ8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="CA8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="CB8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="CC8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="CD8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="CE8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="CF8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="CG8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="CH8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="CI8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="CJ8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="CK8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="CL8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="CM8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="CN8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="CO8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="CP8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="CQ8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="CR8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="CS8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="CT8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="CU8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="CV8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AN8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AO8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AP8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AQ8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AR8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AS8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AT8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AU8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AV8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AW8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AX8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AY8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AZ8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BA8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BB8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BC8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BD8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BE8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BF8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BG8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BH8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BI8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BJ8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BK8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BL8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BM8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BN8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BO8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BP8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BQ8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BR8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BS8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BT8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BU8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BV8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BW8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BX8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BY8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="BZ8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="CA8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="CB8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="CC8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="CD8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="CE8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="CF8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="CG8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="CH8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="CI8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="CJ8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="CK8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="CL8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="CM8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="CN8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="CO8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="CP8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="CQ8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="CR8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="CS8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="CT8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="CU8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="CV8" s="5" t="s">
+      <c r="CW8" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="CW8" s="5" t="s">
-        <v>272</v>
-      </c>
       <c r="CX8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="CY8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="CZ8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DA8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DB8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DC8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DD8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DE8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DF8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DG8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DH8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DI8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DJ8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DK8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DL8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DM8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DN8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DO8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DP8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DQ8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DR8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DS8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DT8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DU8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DV8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DW8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DX8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DY8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DZ8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="EA8" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:131">
@@ -76888,7 +76888,7 @@
         <v>0</v>
       </c>
       <c r="AN193" s="3">
-        <v>50541</v>
+        <v>50548</v>
       </c>
       <c r="AO193" s="3">
         <v>104</v>
@@ -76981,7 +76981,7 @@
         <v>1997</v>
       </c>
       <c r="BS193" s="3">
-        <v>2371</v>
+        <v>2378</v>
       </c>
       <c r="BT193" s="3">
         <v>101</v>
@@ -81112,6 +81112,401 @@
       </c>
       <c r="EA203" s="3">
         <v>7213</v>
+      </c>
+    </row>
+    <row r="204" spans="1:131">
+      <c r="A204" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B204" s="3">
+        <v>23</v>
+      </c>
+      <c r="C204" s="3">
+        <v>177</v>
+      </c>
+      <c r="D204" s="3">
+        <v>3173</v>
+      </c>
+      <c r="E204" s="3">
+        <v>2560</v>
+      </c>
+      <c r="F204" s="3">
+        <v>7708</v>
+      </c>
+      <c r="G204" s="3">
+        <v>1560</v>
+      </c>
+      <c r="H204" s="3">
+        <v>1408</v>
+      </c>
+      <c r="I204" s="3">
+        <v>1295</v>
+      </c>
+      <c r="J204" s="3">
+        <v>107</v>
+      </c>
+      <c r="K204" s="3">
+        <v>2296</v>
+      </c>
+      <c r="L204" s="3">
+        <v>635</v>
+      </c>
+      <c r="M204" s="3">
+        <v>787</v>
+      </c>
+      <c r="N204" s="3">
+        <v>793</v>
+      </c>
+      <c r="O204" s="3">
+        <v>588</v>
+      </c>
+      <c r="P204" s="3">
+        <v>2616</v>
+      </c>
+      <c r="Q204" s="3">
+        <v>2263</v>
+      </c>
+      <c r="R204" s="3">
+        <v>909</v>
+      </c>
+      <c r="S204" s="3">
+        <v>1006</v>
+      </c>
+      <c r="T204" s="3">
+        <v>1664</v>
+      </c>
+      <c r="U204" s="3">
+        <v>1526</v>
+      </c>
+      <c r="V204" s="3">
+        <v>26</v>
+      </c>
+      <c r="W204" s="3">
+        <v>221</v>
+      </c>
+      <c r="X204" s="3">
+        <v>853</v>
+      </c>
+      <c r="Y204" s="3">
+        <v>701</v>
+      </c>
+      <c r="Z204" s="3">
+        <v>1599</v>
+      </c>
+      <c r="AA204" s="3">
+        <v>18</v>
+      </c>
+      <c r="AB204" s="3">
+        <v>1299</v>
+      </c>
+      <c r="AC204" s="3">
+        <v>3004</v>
+      </c>
+      <c r="AD204" s="3">
+        <v>1205</v>
+      </c>
+      <c r="AE204" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AF204" s="3">
+        <v>3822</v>
+      </c>
+      <c r="AG204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN204" s="3">
+        <v>75235</v>
+      </c>
+      <c r="AO204" s="3">
+        <v>118</v>
+      </c>
+      <c r="AP204" s="3">
+        <v>639</v>
+      </c>
+      <c r="AQ204" s="3">
+        <v>6099</v>
+      </c>
+      <c r="AR204" s="3">
+        <v>2994</v>
+      </c>
+      <c r="AS204" s="3">
+        <v>2859</v>
+      </c>
+      <c r="AT204" s="3">
+        <v>1145</v>
+      </c>
+      <c r="AU204" s="3">
+        <v>539</v>
+      </c>
+      <c r="AV204" s="3">
+        <v>625</v>
+      </c>
+      <c r="AW204" s="3">
+        <v>355</v>
+      </c>
+      <c r="AX204" s="3">
+        <v>5354</v>
+      </c>
+      <c r="AY204" s="3">
+        <v>4110</v>
+      </c>
+      <c r="AZ204" s="3">
+        <v>3934</v>
+      </c>
+      <c r="BA204" s="3">
+        <v>1106</v>
+      </c>
+      <c r="BB204" s="3">
+        <v>2340</v>
+      </c>
+      <c r="BC204" s="3">
+        <v>6623</v>
+      </c>
+      <c r="BD204" s="3">
+        <v>4203</v>
+      </c>
+      <c r="BE204" s="3">
+        <v>3117</v>
+      </c>
+      <c r="BF204" s="3">
+        <v>1649</v>
+      </c>
+      <c r="BG204" s="3">
+        <v>3542</v>
+      </c>
+      <c r="BH204" s="3">
+        <v>1641</v>
+      </c>
+      <c r="BI204" s="3">
+        <v>673</v>
+      </c>
+      <c r="BJ204" s="3">
+        <v>236</v>
+      </c>
+      <c r="BK204" s="3">
+        <v>793</v>
+      </c>
+      <c r="BL204" s="3">
+        <v>1825</v>
+      </c>
+      <c r="BM204" s="3">
+        <v>3095</v>
+      </c>
+      <c r="BN204" s="3">
+        <v>304</v>
+      </c>
+      <c r="BO204" s="3">
+        <v>2767</v>
+      </c>
+      <c r="BP204" s="3">
+        <v>2918</v>
+      </c>
+      <c r="BQ204" s="3">
+        <v>2844</v>
+      </c>
+      <c r="BR204" s="3">
+        <v>2465</v>
+      </c>
+      <c r="BS204" s="3">
+        <v>4322</v>
+      </c>
+      <c r="BT204" s="3">
+        <v>101</v>
+      </c>
+      <c r="BU204" s="3">
+        <v>496</v>
+      </c>
+      <c r="BV204" s="3">
+        <v>217</v>
+      </c>
+      <c r="BW204" s="3">
+        <v>242</v>
+      </c>
+      <c r="BX204" s="3">
+        <v>409</v>
+      </c>
+      <c r="BY204" s="3">
+        <v>619</v>
+      </c>
+      <c r="BZ204" s="3">
+        <v>226</v>
+      </c>
+      <c r="CA204" s="3">
+        <v>260</v>
+      </c>
+      <c r="CB204" s="3">
+        <v>1169</v>
+      </c>
+      <c r="CC204" s="3">
+        <v>545</v>
+      </c>
+      <c r="CD204" s="3">
+        <v>1343</v>
+      </c>
+      <c r="CE204" s="3">
+        <v>469</v>
+      </c>
+      <c r="CF204" s="3">
+        <v>402</v>
+      </c>
+      <c r="CG204" s="3">
+        <v>517</v>
+      </c>
+      <c r="CH204" s="3">
+        <v>3694</v>
+      </c>
+      <c r="CI204" s="3">
+        <v>1313</v>
+      </c>
+      <c r="CJ204" s="3">
+        <v>1413</v>
+      </c>
+      <c r="CK204" s="3">
+        <v>1754</v>
+      </c>
+      <c r="CL204" s="3">
+        <v>128</v>
+      </c>
+      <c r="CM204" s="3">
+        <v>789</v>
+      </c>
+      <c r="CN204" s="3">
+        <v>9454</v>
+      </c>
+      <c r="CO204" s="3">
+        <v>2004</v>
+      </c>
+      <c r="CP204" s="3">
+        <v>7057</v>
+      </c>
+      <c r="CQ204" s="3">
+        <v>324</v>
+      </c>
+      <c r="CR204" s="3">
+        <v>881</v>
+      </c>
+      <c r="CS204" s="3">
+        <v>1385</v>
+      </c>
+      <c r="CT204" s="3">
+        <v>42</v>
+      </c>
+      <c r="CU204" s="3">
+        <v>1078</v>
+      </c>
+      <c r="CV204" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW204" s="3">
+        <v>1150</v>
+      </c>
+      <c r="CX204" s="3">
+        <v>1897</v>
+      </c>
+      <c r="CY204" s="3">
+        <v>5547</v>
+      </c>
+      <c r="CZ204" s="3">
+        <v>8061</v>
+      </c>
+      <c r="DA204" s="3">
+        <v>12077</v>
+      </c>
+      <c r="DB204" s="3">
+        <v>3907</v>
+      </c>
+      <c r="DC204" s="3">
+        <v>1889</v>
+      </c>
+      <c r="DD204" s="3">
+        <v>2564</v>
+      </c>
+      <c r="DE204" s="3">
+        <v>2548</v>
+      </c>
+      <c r="DF204" s="3">
+        <v>10739</v>
+      </c>
+      <c r="DG204" s="3">
+        <v>7038</v>
+      </c>
+      <c r="DH204" s="3">
+        <v>6235</v>
+      </c>
+      <c r="DI204" s="3">
+        <v>3738</v>
+      </c>
+      <c r="DJ204" s="3">
+        <v>2976</v>
+      </c>
+      <c r="DK204" s="3">
+        <v>11882</v>
+      </c>
+      <c r="DL204" s="3">
+        <v>7397</v>
+      </c>
+      <c r="DM204" s="3">
+        <v>4036</v>
+      </c>
+      <c r="DN204" s="3">
+        <v>2881</v>
+      </c>
+      <c r="DO204" s="3">
+        <v>12215</v>
+      </c>
+      <c r="DP204" s="3">
+        <v>2999</v>
+      </c>
+      <c r="DQ204" s="3">
+        <v>854</v>
+      </c>
+      <c r="DR204" s="3">
+        <v>1786</v>
+      </c>
+      <c r="DS204" s="3">
+        <v>1983</v>
+      </c>
+      <c r="DT204" s="3">
+        <v>3807</v>
+      </c>
+      <c r="DU204" s="3">
+        <v>1136</v>
+      </c>
+      <c r="DV204" s="3">
+        <v>42</v>
+      </c>
+      <c r="DW204" s="3">
+        <v>5916</v>
+      </c>
+      <c r="DX204" s="3">
+        <v>2506</v>
+      </c>
+      <c r="DY204" s="3">
+        <v>398</v>
+      </c>
+      <c r="DZ204" s="3">
+        <v>3313</v>
+      </c>
+      <c r="EA204" s="3">
+        <v>7275</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8457F0C6-0A4D-47FE-968A-9717E37CDC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95551BDC-CE39-4A31-8DB2-B5B38514B311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,10 +942,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1319,9 +1319,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:131">

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95551BDC-CE39-4A31-8DB2-B5B38514B311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D1757A-99FF-46C8-862C-4E926C65FA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,10 +942,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1319,9 +1319,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:131">

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D1757A-99FF-46C8-862C-4E926C65FA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C6E889-69A7-442D-B309-A507ECC5A112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,10 +942,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1319,9 +1319,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:131">

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C6E889-69A7-442D-B309-A507ECC5A112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D25A112-16A0-4F98-B88F-44CE3ED19E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,10 +942,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1319,9 +1319,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:131">

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D25A112-16A0-4F98-B88F-44CE3ED19E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D127C2F3-8769-4AB3-8E25-75F20B84E8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,10 +942,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1319,9 +1319,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:131">

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D127C2F3-8769-4AB3-8E25-75F20B84E8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC9FF8C-DB1A-4008-9DD7-E0F40F0EC12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,10 +942,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1319,9 +1319,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:131">

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC9FF8C-DB1A-4008-9DD7-E0F40F0EC12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E38B16-D93D-4EE1-8DAB-05D416DA648C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,10 +942,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1319,9 +1319,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:131">

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E38B16-D93D-4EE1-8DAB-05D416DA648C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459D006F-783F-4FCA-BFC7-760A4B8D7835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,10 +942,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1319,9 +1319,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:131">

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459D006F-783F-4FCA-BFC7-760A4B8D7835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321757EF-F854-4B3A-94BF-8AFECADEA8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,10 +942,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1319,9 +1319,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:131">

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321757EF-F854-4B3A-94BF-8AFECADEA8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2722EB7C-9931-49B6-887D-74CDEABB16B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,10 +942,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1319,9 +1319,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:131">

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2722EB7C-9931-49B6-887D-74CDEABB16B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63565391-3870-44DE-8851-03AE934C104E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,10 +942,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1319,9 +1319,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:131">

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63565391-3870-44DE-8851-03AE934C104E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF826F9-FD8E-473C-A656-230E55C6013B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,10 +942,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1319,9 +1319,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:131">

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321757EF-F854-4B3A-94BF-8AFECADEA8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFED124E-55C3-49B1-A547-1E97C2EE8F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,10 +942,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1319,9 +1319,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:131">

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFED124E-55C3-49B1-A547-1E97C2EE8F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FF1EBB-8FF1-4E45-99CE-DEBB3911248E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,10 +942,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1319,9 +1319,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:131">

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FF1EBB-8FF1-4E45-99CE-DEBB3911248E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0773C26-6F72-48BF-8952-55AB2E92AE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,7 +884,7 @@
     <t>2016-09-19</t>
   </si>
   <si>
-    <t>2024-09-27</t>
+    <t>2024-10-28</t>
   </si>
 </sst>
 </file>
@@ -942,10 +942,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1305,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EA204"/>
+  <dimension ref="A1:EA205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1319,9 +1319,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:131">
@@ -77283,7 +77283,7 @@
         <v>0</v>
       </c>
       <c r="AN194" s="3">
-        <v>52108</v>
+        <v>52115</v>
       </c>
       <c r="AO194" s="3">
         <v>105</v>
@@ -77376,7 +77376,7 @@
         <v>2009</v>
       </c>
       <c r="BS194" s="3">
-        <v>2461</v>
+        <v>2468</v>
       </c>
       <c r="BT194" s="3">
         <v>101</v>
@@ -81507,6 +81507,401 @@
       </c>
       <c r="EA204" s="3">
         <v>7275</v>
+      </c>
+    </row>
+    <row r="205" spans="1:131">
+      <c r="A205" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B205" s="3">
+        <v>23</v>
+      </c>
+      <c r="C205" s="3">
+        <v>192</v>
+      </c>
+      <c r="D205" s="3">
+        <v>3217</v>
+      </c>
+      <c r="E205" s="3">
+        <v>2564</v>
+      </c>
+      <c r="F205" s="3">
+        <v>7802</v>
+      </c>
+      <c r="G205" s="3">
+        <v>1604</v>
+      </c>
+      <c r="H205" s="3">
+        <v>1432</v>
+      </c>
+      <c r="I205" s="3">
+        <v>1330</v>
+      </c>
+      <c r="J205" s="3">
+        <v>107</v>
+      </c>
+      <c r="K205" s="3">
+        <v>2301</v>
+      </c>
+      <c r="L205" s="3">
+        <v>635</v>
+      </c>
+      <c r="M205" s="3">
+        <v>807</v>
+      </c>
+      <c r="N205" s="3">
+        <v>793</v>
+      </c>
+      <c r="O205" s="3">
+        <v>608</v>
+      </c>
+      <c r="P205" s="3">
+        <v>2633</v>
+      </c>
+      <c r="Q205" s="3">
+        <v>2263</v>
+      </c>
+      <c r="R205" s="3">
+        <v>919</v>
+      </c>
+      <c r="S205" s="3">
+        <v>1006</v>
+      </c>
+      <c r="T205" s="3">
+        <v>1669</v>
+      </c>
+      <c r="U205" s="3">
+        <v>1583</v>
+      </c>
+      <c r="V205" s="3">
+        <v>26</v>
+      </c>
+      <c r="W205" s="3">
+        <v>224</v>
+      </c>
+      <c r="X205" s="3">
+        <v>879</v>
+      </c>
+      <c r="Y205" s="3">
+        <v>713</v>
+      </c>
+      <c r="Z205" s="3">
+        <v>1610</v>
+      </c>
+      <c r="AA205" s="3">
+        <v>18</v>
+      </c>
+      <c r="AB205" s="3">
+        <v>1331</v>
+      </c>
+      <c r="AC205" s="3">
+        <v>3016</v>
+      </c>
+      <c r="AD205" s="3">
+        <v>1205</v>
+      </c>
+      <c r="AE205" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AF205" s="3">
+        <v>3884</v>
+      </c>
+      <c r="AG205" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH205" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI205" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ205" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK205" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL205" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM205" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN205" s="3">
+        <v>77292</v>
+      </c>
+      <c r="AO205" s="3">
+        <v>119</v>
+      </c>
+      <c r="AP205" s="3">
+        <v>655</v>
+      </c>
+      <c r="AQ205" s="3">
+        <v>6188</v>
+      </c>
+      <c r="AR205" s="3">
+        <v>3098</v>
+      </c>
+      <c r="AS205" s="3">
+        <v>2917</v>
+      </c>
+      <c r="AT205" s="3">
+        <v>1162</v>
+      </c>
+      <c r="AU205" s="3">
+        <v>543</v>
+      </c>
+      <c r="AV205" s="3">
+        <v>632</v>
+      </c>
+      <c r="AW205" s="3">
+        <v>366</v>
+      </c>
+      <c r="AX205" s="3">
+        <v>5483</v>
+      </c>
+      <c r="AY205" s="3">
+        <v>4229</v>
+      </c>
+      <c r="AZ205" s="3">
+        <v>4027</v>
+      </c>
+      <c r="BA205" s="3">
+        <v>1129</v>
+      </c>
+      <c r="BB205" s="3">
+        <v>2483</v>
+      </c>
+      <c r="BC205" s="3">
+        <v>6740</v>
+      </c>
+      <c r="BD205" s="3">
+        <v>4255</v>
+      </c>
+      <c r="BE205" s="3">
+        <v>3206</v>
+      </c>
+      <c r="BF205" s="3">
+        <v>1715</v>
+      </c>
+      <c r="BG205" s="3">
+        <v>3667</v>
+      </c>
+      <c r="BH205" s="3">
+        <v>1734</v>
+      </c>
+      <c r="BI205" s="3">
+        <v>681</v>
+      </c>
+      <c r="BJ205" s="3">
+        <v>254</v>
+      </c>
+      <c r="BK205" s="3">
+        <v>820</v>
+      </c>
+      <c r="BL205" s="3">
+        <v>1893</v>
+      </c>
+      <c r="BM205" s="3">
+        <v>3147</v>
+      </c>
+      <c r="BN205" s="3">
+        <v>339</v>
+      </c>
+      <c r="BO205" s="3">
+        <v>2890</v>
+      </c>
+      <c r="BP205" s="3">
+        <v>2951</v>
+      </c>
+      <c r="BQ205" s="3">
+        <v>3058</v>
+      </c>
+      <c r="BR205" s="3">
+        <v>2468</v>
+      </c>
+      <c r="BS205" s="3">
+        <v>4445</v>
+      </c>
+      <c r="BT205" s="3">
+        <v>101</v>
+      </c>
+      <c r="BU205" s="3">
+        <v>496</v>
+      </c>
+      <c r="BV205" s="3">
+        <v>217</v>
+      </c>
+      <c r="BW205" s="3">
+        <v>242</v>
+      </c>
+      <c r="BX205" s="3">
+        <v>409</v>
+      </c>
+      <c r="BY205" s="3">
+        <v>619</v>
+      </c>
+      <c r="BZ205" s="3">
+        <v>226</v>
+      </c>
+      <c r="CA205" s="3">
+        <v>283</v>
+      </c>
+      <c r="CB205" s="3">
+        <v>1169</v>
+      </c>
+      <c r="CC205" s="3">
+        <v>548</v>
+      </c>
+      <c r="CD205" s="3">
+        <v>1343</v>
+      </c>
+      <c r="CE205" s="3">
+        <v>469</v>
+      </c>
+      <c r="CF205" s="3">
+        <v>402</v>
+      </c>
+      <c r="CG205" s="3">
+        <v>517</v>
+      </c>
+      <c r="CH205" s="3">
+        <v>3695</v>
+      </c>
+      <c r="CI205" s="3">
+        <v>1313</v>
+      </c>
+      <c r="CJ205" s="3">
+        <v>1413</v>
+      </c>
+      <c r="CK205" s="3">
+        <v>1754</v>
+      </c>
+      <c r="CL205" s="3">
+        <v>128</v>
+      </c>
+      <c r="CM205" s="3">
+        <v>789</v>
+      </c>
+      <c r="CN205" s="3">
+        <v>9458</v>
+      </c>
+      <c r="CO205" s="3">
+        <v>2004</v>
+      </c>
+      <c r="CP205" s="3">
+        <v>7092</v>
+      </c>
+      <c r="CQ205" s="3">
+        <v>394</v>
+      </c>
+      <c r="CR205" s="3">
+        <v>881</v>
+      </c>
+      <c r="CS205" s="3">
+        <v>1437</v>
+      </c>
+      <c r="CT205" s="3">
+        <v>42</v>
+      </c>
+      <c r="CU205" s="3">
+        <v>1078</v>
+      </c>
+      <c r="CV205" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW205" s="3">
+        <v>1151</v>
+      </c>
+      <c r="CX205" s="3">
+        <v>1897</v>
+      </c>
+      <c r="CY205" s="3">
+        <v>5547</v>
+      </c>
+      <c r="CZ205" s="3">
+        <v>8058</v>
+      </c>
+      <c r="DA205" s="3">
+        <v>12077</v>
+      </c>
+      <c r="DB205" s="3">
+        <v>3907</v>
+      </c>
+      <c r="DC205" s="3">
+        <v>1889</v>
+      </c>
+      <c r="DD205" s="3">
+        <v>2568</v>
+      </c>
+      <c r="DE205" s="3">
+        <v>2533</v>
+      </c>
+      <c r="DF205" s="3">
+        <v>10793</v>
+      </c>
+      <c r="DG205" s="3">
+        <v>6963</v>
+      </c>
+      <c r="DH205" s="3">
+        <v>6235</v>
+      </c>
+      <c r="DI205" s="3">
+        <v>3740</v>
+      </c>
+      <c r="DJ205" s="3">
+        <v>3054</v>
+      </c>
+      <c r="DK205" s="3">
+        <v>11882</v>
+      </c>
+      <c r="DL205" s="3">
+        <v>7406</v>
+      </c>
+      <c r="DM205" s="3">
+        <v>4043</v>
+      </c>
+      <c r="DN205" s="3">
+        <v>2880</v>
+      </c>
+      <c r="DO205" s="3">
+        <v>12351</v>
+      </c>
+      <c r="DP205" s="3">
+        <v>3001</v>
+      </c>
+      <c r="DQ205" s="3">
+        <v>854</v>
+      </c>
+      <c r="DR205" s="3">
+        <v>1786</v>
+      </c>
+      <c r="DS205" s="3">
+        <v>2126</v>
+      </c>
+      <c r="DT205" s="3">
+        <v>3811</v>
+      </c>
+      <c r="DU205" s="3">
+        <v>1136</v>
+      </c>
+      <c r="DV205" s="3">
+        <v>42</v>
+      </c>
+      <c r="DW205" s="3">
+        <v>5916</v>
+      </c>
+      <c r="DX205" s="3">
+        <v>2506</v>
+      </c>
+      <c r="DY205" s="3">
+        <v>398</v>
+      </c>
+      <c r="DZ205" s="3">
+        <v>3313</v>
+      </c>
+      <c r="EA205" s="3">
+        <v>7345</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0773C26-6F72-48BF-8952-55AB2E92AE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC97C45-45FD-4296-9D77-67F933676796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30" yWindow="1425" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Power Generating " sheetId="1" r:id="rId1"/>
@@ -1307,18 +1307,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EA205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="EA8" sqref="B8:EA8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="40" max="40" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:131" ht="15">
+    <row r="1" spans="1:131">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC97C45-45FD-4296-9D77-67F933676796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEEE95B-0F85-48E8-8CCC-8D6EEC741FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="1425" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Power Generating " sheetId="1" r:id="rId1"/>
@@ -884,7 +884,7 @@
     <t>2016-09-19</t>
   </si>
   <si>
-    <t>2024-10-28</t>
+    <t>2024-11-29</t>
   </si>
 </sst>
 </file>
@@ -1305,22 +1305,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EA205"/>
+  <dimension ref="A1:EA206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="EA8" sqref="B8:EA8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="40" max="40" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:131">
+    <row r="1" spans="1:131" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -77680,7 +77678,7 @@
         <v>0</v>
       </c>
       <c r="AN195" s="3">
-        <v>53576</v>
+        <v>53582</v>
       </c>
       <c r="AO195" s="3">
         <v>105</v>
@@ -77773,7 +77771,7 @@
         <v>2014</v>
       </c>
       <c r="BS195" s="3">
-        <v>2646</v>
+        <v>2653</v>
       </c>
       <c r="BT195" s="3">
         <v>101</v>
@@ -81904,6 +81902,401 @@
       </c>
       <c r="EA205" s="3">
         <v>7345</v>
+      </c>
+    </row>
+    <row r="206" spans="1:131">
+      <c r="A206" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B206" s="3">
+        <v>23</v>
+      </c>
+      <c r="C206" s="3">
+        <v>192</v>
+      </c>
+      <c r="D206" s="3">
+        <v>3319</v>
+      </c>
+      <c r="E206" s="3">
+        <v>2588</v>
+      </c>
+      <c r="F206" s="3">
+        <v>7884</v>
+      </c>
+      <c r="G206" s="3">
+        <v>1639</v>
+      </c>
+      <c r="H206" s="3">
+        <v>1537</v>
+      </c>
+      <c r="I206" s="3">
+        <v>1335</v>
+      </c>
+      <c r="J206" s="3">
+        <v>107</v>
+      </c>
+      <c r="K206" s="3">
+        <v>2313</v>
+      </c>
+      <c r="L206" s="3">
+        <v>642</v>
+      </c>
+      <c r="M206" s="3">
+        <v>836</v>
+      </c>
+      <c r="N206" s="3">
+        <v>793</v>
+      </c>
+      <c r="O206" s="3">
+        <v>608</v>
+      </c>
+      <c r="P206" s="3">
+        <v>2669</v>
+      </c>
+      <c r="Q206" s="3">
+        <v>2263</v>
+      </c>
+      <c r="R206" s="3">
+        <v>932</v>
+      </c>
+      <c r="S206" s="3">
+        <v>1010</v>
+      </c>
+      <c r="T206" s="3">
+        <v>1674</v>
+      </c>
+      <c r="U206" s="3">
+        <v>1617</v>
+      </c>
+      <c r="V206" s="3">
+        <v>27</v>
+      </c>
+      <c r="W206" s="3">
+        <v>226</v>
+      </c>
+      <c r="X206" s="3">
+        <v>887</v>
+      </c>
+      <c r="Y206" s="3">
+        <v>727</v>
+      </c>
+      <c r="Z206" s="3">
+        <v>1617</v>
+      </c>
+      <c r="AA206" s="3">
+        <v>33</v>
+      </c>
+      <c r="AB206" s="3">
+        <v>1357</v>
+      </c>
+      <c r="AC206" s="3">
+        <v>3057</v>
+      </c>
+      <c r="AD206" s="3">
+        <v>1210</v>
+      </c>
+      <c r="AE206" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AF206" s="3">
+        <v>3935</v>
+      </c>
+      <c r="AG206" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH206" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI206" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ206" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK206" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL206" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM206" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN206" s="3">
+        <v>79311</v>
+      </c>
+      <c r="AO206" s="3">
+        <v>121</v>
+      </c>
+      <c r="AP206" s="3">
+        <v>666</v>
+      </c>
+      <c r="AQ206" s="3">
+        <v>6504</v>
+      </c>
+      <c r="AR206" s="3">
+        <v>3207</v>
+      </c>
+      <c r="AS206" s="3">
+        <v>3137</v>
+      </c>
+      <c r="AT206" s="3">
+        <v>1174</v>
+      </c>
+      <c r="AU206" s="3">
+        <v>553</v>
+      </c>
+      <c r="AV206" s="3">
+        <v>662</v>
+      </c>
+      <c r="AW206" s="3">
+        <v>381</v>
+      </c>
+      <c r="AX206" s="3">
+        <v>5621</v>
+      </c>
+      <c r="AY206" s="3">
+        <v>4357</v>
+      </c>
+      <c r="AZ206" s="3">
+        <v>4118</v>
+      </c>
+      <c r="BA206" s="3">
+        <v>1157</v>
+      </c>
+      <c r="BB206" s="3">
+        <v>2503</v>
+      </c>
+      <c r="BC206" s="3">
+        <v>6868</v>
+      </c>
+      <c r="BD206" s="3">
+        <v>4286</v>
+      </c>
+      <c r="BE206" s="3">
+        <v>3309</v>
+      </c>
+      <c r="BF206" s="3">
+        <v>1753</v>
+      </c>
+      <c r="BG206" s="3">
+        <v>3779</v>
+      </c>
+      <c r="BH206" s="3">
+        <v>1807</v>
+      </c>
+      <c r="BI206" s="3">
+        <v>699</v>
+      </c>
+      <c r="BJ206" s="3">
+        <v>263</v>
+      </c>
+      <c r="BK206" s="3">
+        <v>842</v>
+      </c>
+      <c r="BL206" s="3">
+        <v>1893</v>
+      </c>
+      <c r="BM206" s="3">
+        <v>3203</v>
+      </c>
+      <c r="BN206" s="3">
+        <v>345</v>
+      </c>
+      <c r="BO206" s="3">
+        <v>2971</v>
+      </c>
+      <c r="BP206" s="3">
+        <v>2979</v>
+      </c>
+      <c r="BQ206" s="3">
+        <v>3094</v>
+      </c>
+      <c r="BR206" s="3">
+        <v>2519</v>
+      </c>
+      <c r="BS206" s="3">
+        <v>4540</v>
+      </c>
+      <c r="BT206" s="3">
+        <v>101</v>
+      </c>
+      <c r="BU206" s="3">
+        <v>496</v>
+      </c>
+      <c r="BV206" s="3">
+        <v>217</v>
+      </c>
+      <c r="BW206" s="3">
+        <v>242</v>
+      </c>
+      <c r="BX206" s="3">
+        <v>409</v>
+      </c>
+      <c r="BY206" s="3">
+        <v>619</v>
+      </c>
+      <c r="BZ206" s="3">
+        <v>226</v>
+      </c>
+      <c r="CA206" s="3">
+        <v>283</v>
+      </c>
+      <c r="CB206" s="3">
+        <v>1204</v>
+      </c>
+      <c r="CC206" s="3">
+        <v>546</v>
+      </c>
+      <c r="CD206" s="3">
+        <v>1349</v>
+      </c>
+      <c r="CE206" s="3">
+        <v>469</v>
+      </c>
+      <c r="CF206" s="3">
+        <v>402</v>
+      </c>
+      <c r="CG206" s="3">
+        <v>517</v>
+      </c>
+      <c r="CH206" s="3">
+        <v>3695</v>
+      </c>
+      <c r="CI206" s="3">
+        <v>1313</v>
+      </c>
+      <c r="CJ206" s="3">
+        <v>1413</v>
+      </c>
+      <c r="CK206" s="3">
+        <v>1754</v>
+      </c>
+      <c r="CL206" s="3">
+        <v>127</v>
+      </c>
+      <c r="CM206" s="3">
+        <v>791</v>
+      </c>
+      <c r="CN206" s="3">
+        <v>9456</v>
+      </c>
+      <c r="CO206" s="3">
+        <v>2004</v>
+      </c>
+      <c r="CP206" s="3">
+        <v>7092</v>
+      </c>
+      <c r="CQ206" s="3">
+        <v>394</v>
+      </c>
+      <c r="CR206" s="3">
+        <v>880</v>
+      </c>
+      <c r="CS206" s="3">
+        <v>1437</v>
+      </c>
+      <c r="CT206" s="3">
+        <v>42</v>
+      </c>
+      <c r="CU206" s="3">
+        <v>1078</v>
+      </c>
+      <c r="CV206" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW206" s="3">
+        <v>1151</v>
+      </c>
+      <c r="CX206" s="3">
+        <v>1897</v>
+      </c>
+      <c r="CY206" s="3">
+        <v>5550</v>
+      </c>
+      <c r="CZ206" s="3">
+        <v>8071</v>
+      </c>
+      <c r="DA206" s="3">
+        <v>12090</v>
+      </c>
+      <c r="DB206" s="3">
+        <v>3955</v>
+      </c>
+      <c r="DC206" s="3">
+        <v>1889</v>
+      </c>
+      <c r="DD206" s="3">
+        <v>2570</v>
+      </c>
+      <c r="DE206" s="3">
+        <v>2533</v>
+      </c>
+      <c r="DF206" s="3">
+        <v>10798</v>
+      </c>
+      <c r="DG206" s="3">
+        <v>7030</v>
+      </c>
+      <c r="DH206" s="3">
+        <v>6301</v>
+      </c>
+      <c r="DI206" s="3">
+        <v>3740</v>
+      </c>
+      <c r="DJ206" s="3">
+        <v>3153</v>
+      </c>
+      <c r="DK206" s="3">
+        <v>11914</v>
+      </c>
+      <c r="DL206" s="3">
+        <v>7406</v>
+      </c>
+      <c r="DM206" s="3">
+        <v>4044</v>
+      </c>
+      <c r="DN206" s="3">
+        <v>2882</v>
+      </c>
+      <c r="DO206" s="3">
+        <v>12606</v>
+      </c>
+      <c r="DP206" s="3">
+        <v>3002</v>
+      </c>
+      <c r="DQ206" s="3">
+        <v>854</v>
+      </c>
+      <c r="DR206" s="3">
+        <v>1786</v>
+      </c>
+      <c r="DS206" s="3">
+        <v>2126</v>
+      </c>
+      <c r="DT206" s="3">
+        <v>3913</v>
+      </c>
+      <c r="DU206" s="3">
+        <v>1136</v>
+      </c>
+      <c r="DV206" s="3">
+        <v>42</v>
+      </c>
+      <c r="DW206" s="3">
+        <v>5923</v>
+      </c>
+      <c r="DX206" s="3">
+        <v>2508</v>
+      </c>
+      <c r="DY206" s="3">
+        <v>412</v>
+      </c>
+      <c r="DZ206" s="3">
+        <v>3313</v>
+      </c>
+      <c r="EA206" s="3">
+        <v>7346</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEEE95B-0F85-48E8-8CCC-8D6EEC741FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E89DAAA-D0B6-4523-ADC2-B2FDD03BD729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Power Generating " sheetId="1" r:id="rId1"/>
@@ -1307,18 +1307,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EA206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="40" max="40" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:131" ht="15">
+    <row r="1" spans="1:131">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E89DAAA-D0B6-4523-ADC2-B2FDD03BD729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A126F220-A916-4E81-9956-BB6039A01611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Power Generating " sheetId="1" r:id="rId1"/>
@@ -884,7 +884,7 @@
     <t>2016-09-19</t>
   </si>
   <si>
-    <t>2024-11-29</t>
+    <t>2025-01-02</t>
   </si>
 </sst>
 </file>
@@ -1305,22 +1305,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EA206"/>
+  <dimension ref="A1:EA207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="40" max="40" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:131">
+    <row r="1" spans="1:131" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -77961,97 +77961,97 @@
         <v>45260</v>
       </c>
       <c r="B196" s="3">
-        <v>23.4</v>
+        <v>23</v>
       </c>
       <c r="C196" s="3">
-        <v>153.745</v>
+        <v>154</v>
       </c>
       <c r="D196" s="3">
-        <v>3005.7750000000001</v>
+        <v>3006</v>
       </c>
       <c r="E196" s="3">
-        <v>2455.3380000000002</v>
+        <v>2455</v>
       </c>
       <c r="F196" s="3">
-        <v>5887.8069999999998</v>
+        <v>5888</v>
       </c>
       <c r="G196" s="3">
-        <v>1385.9659999999999</v>
+        <v>1386</v>
       </c>
       <c r="H196" s="3">
-        <v>1214.2809999999999</v>
+        <v>1214</v>
       </c>
       <c r="I196" s="3">
-        <v>1095.365</v>
+        <v>1095</v>
       </c>
       <c r="J196" s="3">
-        <v>106.97499999999999</v>
+        <v>107</v>
       </c>
       <c r="K196" s="3">
-        <v>2282.4380000000001</v>
+        <v>2282</v>
       </c>
       <c r="L196" s="3">
-        <v>514.91600000000005</v>
+        <v>515</v>
       </c>
       <c r="M196" s="3">
-        <v>700.5</v>
+        <v>701</v>
       </c>
       <c r="N196" s="3">
-        <v>756.51499999999999</v>
+        <v>757</v>
       </c>
       <c r="O196" s="3">
-        <v>568.35</v>
+        <v>568</v>
       </c>
       <c r="P196" s="3">
-        <v>2505.61</v>
+        <v>2506</v>
       </c>
       <c r="Q196" s="3">
-        <v>2095.6149999999998</v>
+        <v>2096</v>
       </c>
       <c r="R196" s="3">
-        <v>833.85</v>
+        <v>834</v>
       </c>
       <c r="S196" s="3">
-        <v>929.89499999999998</v>
+        <v>930</v>
       </c>
       <c r="T196" s="3">
-        <v>1410.4939999999999</v>
+        <v>1410</v>
       </c>
       <c r="U196" s="3">
-        <v>1171.396</v>
+        <v>1171</v>
       </c>
       <c r="V196" s="3">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="W196" s="3">
-        <v>202.86</v>
+        <v>203</v>
       </c>
       <c r="X196" s="3">
-        <v>717.65099999999995</v>
+        <v>718</v>
       </c>
       <c r="Y196" s="3">
-        <v>611.17499999999995</v>
+        <v>611</v>
       </c>
       <c r="Z196" s="3">
-        <v>1466.0619999999999</v>
+        <v>1466</v>
       </c>
       <c r="AA196" s="3">
-        <v>7.95</v>
+        <v>8</v>
       </c>
       <c r="AB196" s="3">
-        <v>1213.04</v>
+        <v>1213</v>
       </c>
       <c r="AC196" s="3">
-        <v>2312.86</v>
+        <v>2313</v>
       </c>
       <c r="AD196" s="3">
-        <v>989.1</v>
+        <v>989</v>
       </c>
       <c r="AE196" s="3">
-        <v>1456.7380000000001</v>
+        <v>1457</v>
       </c>
       <c r="AF196" s="3">
-        <v>3125.0749999999998</v>
+        <v>3125</v>
       </c>
       <c r="AG196" s="3">
         <v>0</v>
@@ -78075,100 +78075,100 @@
         <v>0</v>
       </c>
       <c r="AN196" s="3">
-        <v>55762.160199999998</v>
+        <v>55769</v>
       </c>
       <c r="AO196" s="3">
-        <v>106.32510000000001</v>
+        <v>106</v>
       </c>
       <c r="AP196" s="3">
-        <v>431.06729999999999</v>
+        <v>431</v>
       </c>
       <c r="AQ196" s="3">
-        <v>4681.8845000000001</v>
+        <v>4682</v>
       </c>
       <c r="AR196" s="3">
-        <v>2324.5464000000002</v>
+        <v>2325</v>
       </c>
       <c r="AS196" s="3">
-        <v>2094.9679000000001</v>
+        <v>2095</v>
       </c>
       <c r="AT196" s="3">
-        <v>910.93640000000005</v>
+        <v>911</v>
       </c>
       <c r="AU196" s="3">
-        <v>439.79500000000002</v>
+        <v>440</v>
       </c>
       <c r="AV196" s="3">
-        <v>552.09259999999995</v>
+        <v>552</v>
       </c>
       <c r="AW196" s="3">
-        <v>279.09769999999997</v>
+        <v>279</v>
       </c>
       <c r="AX196" s="3">
-        <v>3701.895</v>
+        <v>3702</v>
       </c>
       <c r="AY196" s="3">
-        <v>3241.7525999999998</v>
+        <v>3242</v>
       </c>
       <c r="AZ196" s="3">
-        <v>3068.9765000000002</v>
+        <v>3069</v>
       </c>
       <c r="BA196" s="3">
-        <v>829.3999</v>
+        <v>829</v>
       </c>
       <c r="BB196" s="3">
-        <v>1828.2019</v>
+        <v>1828</v>
       </c>
       <c r="BC196" s="3">
-        <v>5450.1804000000002</v>
+        <v>5450</v>
       </c>
       <c r="BD196" s="3">
-        <v>3608.4883</v>
+        <v>3608</v>
       </c>
       <c r="BE196" s="3">
-        <v>2358.3534</v>
+        <v>2358</v>
       </c>
       <c r="BF196" s="3">
-        <v>1090.7619</v>
+        <v>1091</v>
       </c>
       <c r="BG196" s="3">
-        <v>2385.0565999999999</v>
+        <v>2385</v>
       </c>
       <c r="BH196" s="3">
-        <v>959.81299999999999</v>
+        <v>960</v>
       </c>
       <c r="BI196" s="3">
-        <v>442.15800000000002</v>
+        <v>442</v>
       </c>
       <c r="BJ196" s="3">
-        <v>127.3935</v>
+        <v>127</v>
       </c>
       <c r="BK196" s="3">
-        <v>425.86380000000003</v>
+        <v>426</v>
       </c>
       <c r="BL196" s="3">
-        <v>1494.2787000000001</v>
+        <v>1494</v>
       </c>
       <c r="BM196" s="3">
-        <v>1448.0409999999999</v>
+        <v>1448</v>
       </c>
       <c r="BN196" s="3">
-        <v>236.60050000000001</v>
+        <v>237</v>
       </c>
       <c r="BO196" s="3">
-        <v>1976.7348</v>
+        <v>1977</v>
       </c>
       <c r="BP196" s="3">
-        <v>2241.2319000000002</v>
+        <v>2241</v>
       </c>
       <c r="BQ196" s="3">
-        <v>2180.8476000000001</v>
+        <v>2181</v>
       </c>
       <c r="BR196" s="3">
-        <v>2021.6934000000001</v>
+        <v>2022</v>
       </c>
       <c r="BS196" s="3">
-        <v>2823.7244000000001</v>
+        <v>2831</v>
       </c>
       <c r="BT196" s="3">
         <v>101.3</v>
@@ -82299,6 +82299,401 @@
       </c>
       <c r="EA206" s="3">
         <v>7346</v>
+      </c>
+    </row>
+    <row r="207" spans="1:131">
+      <c r="A207" s="2">
+        <v>45626</v>
+      </c>
+      <c r="B207" s="3">
+        <v>23</v>
+      </c>
+      <c r="C207" s="3">
+        <v>199</v>
+      </c>
+      <c r="D207" s="3">
+        <v>3385</v>
+      </c>
+      <c r="E207" s="3">
+        <v>2601</v>
+      </c>
+      <c r="F207" s="3">
+        <v>7912</v>
+      </c>
+      <c r="G207" s="3">
+        <v>1648</v>
+      </c>
+      <c r="H207" s="3">
+        <v>1560</v>
+      </c>
+      <c r="I207" s="3">
+        <v>1367</v>
+      </c>
+      <c r="J207" s="3">
+        <v>107</v>
+      </c>
+      <c r="K207" s="3">
+        <v>2316</v>
+      </c>
+      <c r="L207" s="3">
+        <v>645</v>
+      </c>
+      <c r="M207" s="3">
+        <v>868</v>
+      </c>
+      <c r="N207" s="3">
+        <v>793</v>
+      </c>
+      <c r="O207" s="3">
+        <v>615</v>
+      </c>
+      <c r="P207" s="3">
+        <v>2669</v>
+      </c>
+      <c r="Q207" s="3">
+        <v>2273</v>
+      </c>
+      <c r="R207" s="3">
+        <v>943</v>
+      </c>
+      <c r="S207" s="3">
+        <v>1042</v>
+      </c>
+      <c r="T207" s="3">
+        <v>1678</v>
+      </c>
+      <c r="U207" s="3">
+        <v>1687</v>
+      </c>
+      <c r="V207" s="3">
+        <v>27</v>
+      </c>
+      <c r="W207" s="3">
+        <v>233</v>
+      </c>
+      <c r="X207" s="3">
+        <v>890</v>
+      </c>
+      <c r="Y207" s="3">
+        <v>737</v>
+      </c>
+      <c r="Z207" s="3">
+        <v>1630</v>
+      </c>
+      <c r="AA207" s="3">
+        <v>53</v>
+      </c>
+      <c r="AB207" s="3">
+        <v>1377</v>
+      </c>
+      <c r="AC207" s="3">
+        <v>3080</v>
+      </c>
+      <c r="AD207" s="3">
+        <v>1210</v>
+      </c>
+      <c r="AE207" s="3">
+        <v>1503</v>
+      </c>
+      <c r="AF207" s="3">
+        <v>4088</v>
+      </c>
+      <c r="AG207" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH207" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI207" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ207" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK207" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL207" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM207" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN207" s="3">
+        <v>81833</v>
+      </c>
+      <c r="AO207" s="3">
+        <v>127</v>
+      </c>
+      <c r="AP207" s="3">
+        <v>679</v>
+      </c>
+      <c r="AQ207" s="3">
+        <v>6663</v>
+      </c>
+      <c r="AR207" s="3">
+        <v>3271</v>
+      </c>
+      <c r="AS207" s="3">
+        <v>3378</v>
+      </c>
+      <c r="AT207" s="3">
+        <v>1183</v>
+      </c>
+      <c r="AU207" s="3">
+        <v>561</v>
+      </c>
+      <c r="AV207" s="3">
+        <v>679</v>
+      </c>
+      <c r="AW207" s="3">
+        <v>399</v>
+      </c>
+      <c r="AX207" s="3">
+        <v>5865</v>
+      </c>
+      <c r="AY207" s="3">
+        <v>4521</v>
+      </c>
+      <c r="AZ207" s="3">
+        <v>4211</v>
+      </c>
+      <c r="BA207" s="3">
+        <v>1193</v>
+      </c>
+      <c r="BB207" s="3">
+        <v>2518</v>
+      </c>
+      <c r="BC207" s="3">
+        <v>6998</v>
+      </c>
+      <c r="BD207" s="3">
+        <v>4322</v>
+      </c>
+      <c r="BE207" s="3">
+        <v>3403</v>
+      </c>
+      <c r="BF207" s="3">
+        <v>1793</v>
+      </c>
+      <c r="BG207" s="3">
+        <v>3918</v>
+      </c>
+      <c r="BH207" s="3">
+        <v>1918</v>
+      </c>
+      <c r="BI207" s="3">
+        <v>726</v>
+      </c>
+      <c r="BJ207" s="3">
+        <v>285</v>
+      </c>
+      <c r="BK207" s="3">
+        <v>966</v>
+      </c>
+      <c r="BL207" s="3">
+        <v>1949</v>
+      </c>
+      <c r="BM207" s="3">
+        <v>3312</v>
+      </c>
+      <c r="BN207" s="3">
+        <v>378</v>
+      </c>
+      <c r="BO207" s="3">
+        <v>3077</v>
+      </c>
+      <c r="BP207" s="3">
+        <v>3004</v>
+      </c>
+      <c r="BQ207" s="3">
+        <v>3105</v>
+      </c>
+      <c r="BR207" s="3">
+        <v>2539</v>
+      </c>
+      <c r="BS207" s="3">
+        <v>4890</v>
+      </c>
+      <c r="BT207" s="3">
+        <v>101</v>
+      </c>
+      <c r="BU207" s="3">
+        <v>496</v>
+      </c>
+      <c r="BV207" s="3">
+        <v>217</v>
+      </c>
+      <c r="BW207" s="3">
+        <v>242</v>
+      </c>
+      <c r="BX207" s="3">
+        <v>439</v>
+      </c>
+      <c r="BY207" s="3">
+        <v>619</v>
+      </c>
+      <c r="BZ207" s="3">
+        <v>226</v>
+      </c>
+      <c r="CA207" s="3">
+        <v>283</v>
+      </c>
+      <c r="CB207" s="3">
+        <v>1209</v>
+      </c>
+      <c r="CC207" s="3">
+        <v>546</v>
+      </c>
+      <c r="CD207" s="3">
+        <v>1349</v>
+      </c>
+      <c r="CE207" s="3">
+        <v>469</v>
+      </c>
+      <c r="CF207" s="3">
+        <v>402</v>
+      </c>
+      <c r="CG207" s="3">
+        <v>517</v>
+      </c>
+      <c r="CH207" s="3">
+        <v>3695</v>
+      </c>
+      <c r="CI207" s="3">
+        <v>1313</v>
+      </c>
+      <c r="CJ207" s="3">
+        <v>1413</v>
+      </c>
+      <c r="CK207" s="3">
+        <v>1754</v>
+      </c>
+      <c r="CL207" s="3">
+        <v>127</v>
+      </c>
+      <c r="CM207" s="3">
+        <v>791</v>
+      </c>
+      <c r="CN207" s="3">
+        <v>9455</v>
+      </c>
+      <c r="CO207" s="3">
+        <v>2016</v>
+      </c>
+      <c r="CP207" s="3">
+        <v>7092</v>
+      </c>
+      <c r="CQ207" s="3">
+        <v>429</v>
+      </c>
+      <c r="CR207" s="3">
+        <v>881</v>
+      </c>
+      <c r="CS207" s="3">
+        <v>1477</v>
+      </c>
+      <c r="CT207" s="3">
+        <v>42</v>
+      </c>
+      <c r="CU207" s="3">
+        <v>1078</v>
+      </c>
+      <c r="CV207" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW207" s="3">
+        <v>1151</v>
+      </c>
+      <c r="CX207" s="3">
+        <v>1892</v>
+      </c>
+      <c r="CY207" s="3">
+        <v>5633</v>
+      </c>
+      <c r="CZ207" s="3">
+        <v>8069</v>
+      </c>
+      <c r="DA207" s="3">
+        <v>12095</v>
+      </c>
+      <c r="DB207" s="3">
+        <v>3955</v>
+      </c>
+      <c r="DC207" s="3">
+        <v>1889</v>
+      </c>
+      <c r="DD207" s="3">
+        <v>2570</v>
+      </c>
+      <c r="DE207" s="3">
+        <v>2533</v>
+      </c>
+      <c r="DF207" s="3">
+        <v>10806</v>
+      </c>
+      <c r="DG207" s="3">
+        <v>7130</v>
+      </c>
+      <c r="DH207" s="3">
+        <v>6301</v>
+      </c>
+      <c r="DI207" s="3">
+        <v>3840</v>
+      </c>
+      <c r="DJ207" s="3">
+        <v>3153</v>
+      </c>
+      <c r="DK207" s="3">
+        <v>12083</v>
+      </c>
+      <c r="DL207" s="3">
+        <v>7412</v>
+      </c>
+      <c r="DM207" s="3">
+        <v>4063</v>
+      </c>
+      <c r="DN207" s="3">
+        <v>2882</v>
+      </c>
+      <c r="DO207" s="3">
+        <v>12660</v>
+      </c>
+      <c r="DP207" s="3">
+        <v>3013</v>
+      </c>
+      <c r="DQ207" s="3">
+        <v>854</v>
+      </c>
+      <c r="DR207" s="3">
+        <v>1786</v>
+      </c>
+      <c r="DS207" s="3">
+        <v>2126</v>
+      </c>
+      <c r="DT207" s="3">
+        <v>3913</v>
+      </c>
+      <c r="DU207" s="3">
+        <v>1136</v>
+      </c>
+      <c r="DV207" s="3">
+        <v>42</v>
+      </c>
+      <c r="DW207" s="3">
+        <v>6120</v>
+      </c>
+      <c r="DX207" s="3">
+        <v>2508</v>
+      </c>
+      <c r="DY207" s="3">
+        <v>412</v>
+      </c>
+      <c r="DZ207" s="3">
+        <v>3328</v>
+      </c>
+      <c r="EA207" s="3">
+        <v>7412</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A126F220-A916-4E81-9956-BB6039A01611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8290AA7-2AE8-43A4-AD99-66B29A75F900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Power Generating " sheetId="1" r:id="rId1"/>
@@ -1311,16 +1311,16 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="40" max="40" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:131" ht="15">
+    <row r="1" spans="1:131">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8290AA7-2AE8-43A4-AD99-66B29A75F900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BCE969-3A5D-4515-BB8C-8E8AB395C581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Power Generating " sheetId="1" r:id="rId1"/>
@@ -878,13 +878,13 @@
     <t>2024-02-06</t>
   </si>
   <si>
-    <t>2018-05-07</t>
-  </si>
-  <si>
     <t>2016-09-19</t>
   </si>
   <si>
     <t>2025-01-02</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
   </si>
 </sst>
 </file>
@@ -1305,22 +1305,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EA207"/>
+  <dimension ref="A1:EA208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="40" max="40" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:131">
+    <row r="1" spans="1:131" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -3701,118 +3701,118 @@
         <v>271</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG8" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="AH8" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="AI8" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="AJ8" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="AK8" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AD8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AE8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AF8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AG8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AH8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AI8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="AL8" s="5" t="s">
         <v>272</v>
       </c>
       <c r="AM8" s="5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AN8" s="5" t="s">
         <v>275</v>
@@ -3995,7 +3995,7 @@
         <v>275</v>
       </c>
       <c r="CV8" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="CW8" s="5" t="s">
         <v>275</v>
@@ -82694,6 +82694,401 @@
       </c>
       <c r="EA207" s="3">
         <v>7412</v>
+      </c>
+    </row>
+    <row r="208" spans="1:131">
+      <c r="A208" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B208" s="3">
+        <v>0</v>
+      </c>
+      <c r="C208" s="3">
+        <v>0</v>
+      </c>
+      <c r="D208" s="3">
+        <v>0</v>
+      </c>
+      <c r="E208" s="3">
+        <v>0</v>
+      </c>
+      <c r="F208" s="3">
+        <v>0</v>
+      </c>
+      <c r="G208" s="3">
+        <v>0</v>
+      </c>
+      <c r="H208" s="3">
+        <v>0</v>
+      </c>
+      <c r="I208" s="3">
+        <v>0</v>
+      </c>
+      <c r="J208" s="3">
+        <v>0</v>
+      </c>
+      <c r="K208" s="3">
+        <v>0</v>
+      </c>
+      <c r="L208" s="3">
+        <v>0</v>
+      </c>
+      <c r="M208" s="3">
+        <v>0</v>
+      </c>
+      <c r="N208" s="3">
+        <v>0</v>
+      </c>
+      <c r="O208" s="3">
+        <v>0</v>
+      </c>
+      <c r="P208" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q208" s="3">
+        <v>0</v>
+      </c>
+      <c r="R208" s="3">
+        <v>0</v>
+      </c>
+      <c r="S208" s="3">
+        <v>0</v>
+      </c>
+      <c r="T208" s="3">
+        <v>0</v>
+      </c>
+      <c r="U208" s="3">
+        <v>0</v>
+      </c>
+      <c r="V208" s="3">
+        <v>0</v>
+      </c>
+      <c r="W208" s="3">
+        <v>0</v>
+      </c>
+      <c r="X208" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y208" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG208" s="3">
+        <v>667.51599999999996</v>
+      </c>
+      <c r="AH208" s="3">
+        <v>660.8</v>
+      </c>
+      <c r="AI208" s="3">
+        <v>916.6</v>
+      </c>
+      <c r="AJ208" s="3">
+        <v>1222.4000000000001</v>
+      </c>
+      <c r="AK208" s="3">
+        <v>1613.6</v>
+      </c>
+      <c r="AL208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM208" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN208" s="3">
+        <v>88665.524984000003</v>
+      </c>
+      <c r="AO208" s="3">
+        <v>130.32730100000001</v>
+      </c>
+      <c r="AP208" s="3">
+        <v>724.13333699999998</v>
+      </c>
+      <c r="AQ208" s="3">
+        <v>7202.4124389999997</v>
+      </c>
+      <c r="AR208" s="3">
+        <v>3476.8480500000001</v>
+      </c>
+      <c r="AS208" s="3">
+        <v>4820.8717999999999</v>
+      </c>
+      <c r="AT208" s="3">
+        <v>1213.9402</v>
+      </c>
+      <c r="AU208" s="3">
+        <v>583.01906499999996</v>
+      </c>
+      <c r="AV208" s="3">
+        <v>717.05154500000003</v>
+      </c>
+      <c r="AW208" s="3">
+        <v>411.43528400000002</v>
+      </c>
+      <c r="AX208" s="3">
+        <v>6164.7146709999997</v>
+      </c>
+      <c r="AY208" s="3">
+        <v>4727.4835359999997</v>
+      </c>
+      <c r="AZ208" s="3">
+        <v>4311.2737539999998</v>
+      </c>
+      <c r="BA208" s="3">
+        <v>1258.3192300000001</v>
+      </c>
+      <c r="BB208" s="3">
+        <v>2563.897876</v>
+      </c>
+      <c r="BC208" s="3">
+        <v>7613.4382349999996</v>
+      </c>
+      <c r="BD208" s="3">
+        <v>4349.0763749999996</v>
+      </c>
+      <c r="BE208" s="3">
+        <v>3509.9600999999998</v>
+      </c>
+      <c r="BF208" s="3">
+        <v>1873.3727859999999</v>
+      </c>
+      <c r="BG208" s="3">
+        <v>4115.5433000000003</v>
+      </c>
+      <c r="BH208" s="3">
+        <v>2052.3467000000001</v>
+      </c>
+      <c r="BI208" s="3">
+        <v>740.82839999999999</v>
+      </c>
+      <c r="BJ208" s="3">
+        <v>309.75110000000001</v>
+      </c>
+      <c r="BK208" s="3">
+        <v>1082.3124</v>
+      </c>
+      <c r="BL208" s="3">
+        <v>1985.6108999999999</v>
+      </c>
+      <c r="BM208" s="3">
+        <v>3723.0239999999999</v>
+      </c>
+      <c r="BN208" s="3">
+        <v>413.88099999999997</v>
+      </c>
+      <c r="BO208" s="3">
+        <v>3432.9704999999999</v>
+      </c>
+      <c r="BP208" s="3">
+        <v>3190.8289</v>
+      </c>
+      <c r="BQ208" s="3">
+        <v>3663.0499</v>
+      </c>
+      <c r="BR208" s="3">
+        <v>2624.0182</v>
+      </c>
+      <c r="BS208" s="3">
+        <v>5679.7840999999999</v>
+      </c>
+      <c r="BT208" s="3">
+        <v>101.09650000000001</v>
+      </c>
+      <c r="BU208" s="3">
+        <v>543.88610000000006</v>
+      </c>
+      <c r="BV208" s="3">
+        <v>225.577</v>
+      </c>
+      <c r="BW208" s="3">
+        <v>244.685</v>
+      </c>
+      <c r="BX208" s="3">
+        <v>455.51</v>
+      </c>
+      <c r="BY208" s="3">
+        <v>649.01670000000001</v>
+      </c>
+      <c r="BZ208" s="3">
+        <v>235.37049999999999</v>
+      </c>
+      <c r="CA208" s="3">
+        <v>310.09980000000002</v>
+      </c>
+      <c r="CB208" s="3">
+        <v>1497.8996</v>
+      </c>
+      <c r="CC208" s="3">
+        <v>619.01239999999996</v>
+      </c>
+      <c r="CD208" s="3">
+        <v>1720.0317</v>
+      </c>
+      <c r="CE208" s="3">
+        <v>680.00779999999997</v>
+      </c>
+      <c r="CF208" s="3">
+        <v>406.85750000000002</v>
+      </c>
+      <c r="CG208" s="3">
+        <v>563.06939999999997</v>
+      </c>
+      <c r="CH208" s="3">
+        <v>3812.0462000000002</v>
+      </c>
+      <c r="CI208" s="3">
+        <v>1637.2460000000001</v>
+      </c>
+      <c r="CJ208" s="3">
+        <v>1904.7</v>
+      </c>
+      <c r="CK208" s="3">
+        <v>1903.8711000000001</v>
+      </c>
+      <c r="CL208" s="3">
+        <v>151.41730000000001</v>
+      </c>
+      <c r="CM208" s="3">
+        <v>917.56539999999995</v>
+      </c>
+      <c r="CN208" s="3">
+        <v>9770.0305000000008</v>
+      </c>
+      <c r="CO208" s="3">
+        <v>2298.4520000000002</v>
+      </c>
+      <c r="CP208" s="3">
+        <v>8360.3583999999992</v>
+      </c>
+      <c r="CQ208" s="3">
+        <v>507.33510000000001</v>
+      </c>
+      <c r="CR208" s="3">
+        <v>971.41060000000004</v>
+      </c>
+      <c r="CS208" s="3">
+        <v>1639.5864999999999</v>
+      </c>
+      <c r="CT208" s="3">
+        <v>42.63</v>
+      </c>
+      <c r="CU208" s="3">
+        <v>1111.9219000000001</v>
+      </c>
+      <c r="CV208" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW208" s="3">
+        <v>1152.7720999999999</v>
+      </c>
+      <c r="CX208" s="3">
+        <v>1893.7085999999999</v>
+      </c>
+      <c r="CY208" s="3">
+        <v>5584.9822999999997</v>
+      </c>
+      <c r="CZ208" s="3">
+        <v>8197.7417000000005</v>
+      </c>
+      <c r="DA208" s="3">
+        <v>12107.371499999999</v>
+      </c>
+      <c r="DB208" s="3">
+        <v>4010.7449000000001</v>
+      </c>
+      <c r="DC208" s="3">
+        <v>1891.0689</v>
+      </c>
+      <c r="DD208" s="3">
+        <v>2576.9268999999999</v>
+      </c>
+      <c r="DE208" s="3">
+        <v>2542.0898000000002</v>
+      </c>
+      <c r="DF208" s="3">
+        <v>10952.1924</v>
+      </c>
+      <c r="DG208" s="3">
+        <v>7164.6273000000001</v>
+      </c>
+      <c r="DH208" s="3">
+        <v>6313.4083000000001</v>
+      </c>
+      <c r="DI208" s="3">
+        <v>3860.6248000000001</v>
+      </c>
+      <c r="DJ208" s="3">
+        <v>3160.9656</v>
+      </c>
+      <c r="DK208" s="3">
+        <v>12121.9514</v>
+      </c>
+      <c r="DL208" s="3">
+        <v>7420.5619999999999</v>
+      </c>
+      <c r="DM208" s="3">
+        <v>4086.7440999999999</v>
+      </c>
+      <c r="DN208" s="3">
+        <v>3016.5241000000001</v>
+      </c>
+      <c r="DO208" s="3">
+        <v>12740.3218</v>
+      </c>
+      <c r="DP208" s="3">
+        <v>3028.7811999999999</v>
+      </c>
+      <c r="DQ208" s="3">
+        <v>854.42340000000002</v>
+      </c>
+      <c r="DR208" s="3">
+        <v>1793.8543999999999</v>
+      </c>
+      <c r="DS208" s="3">
+        <v>2163.8708000000001</v>
+      </c>
+      <c r="DT208" s="3">
+        <v>4000.2919999999999</v>
+      </c>
+      <c r="DU208" s="3">
+        <v>1433.0522000000001</v>
+      </c>
+      <c r="DV208" s="3">
+        <v>42.755000000000003</v>
+      </c>
+      <c r="DW208" s="3">
+        <v>6262.0249999999996</v>
+      </c>
+      <c r="DX208" s="3">
+        <v>2616.0686999999998</v>
+      </c>
+      <c r="DY208" s="3">
+        <v>412.44</v>
+      </c>
+      <c r="DZ208" s="3">
+        <v>3334.83</v>
+      </c>
+      <c r="EA208" s="3">
+        <v>7707.5798999999997</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/power capacity by province&type.xlsx
+++ b/inst/extdata/power capacity by province&type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BCE969-3A5D-4515-BB8C-8E8AB395C581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DE522E-4FCE-42F6-B75A-DA836F600605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,9 +875,6 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-02-06</t>
-  </si>
-  <si>
     <t>2016-09-19</t>
   </si>
   <si>
@@ -885,6 +882,9 @@
   </si>
   <si>
     <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>2025-01-27</t>
   </si>
 </sst>
 </file>
@@ -3701,394 +3701,394 @@
         <v>271</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="AH8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="AI8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="AJ8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="AK8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="AL8" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AM8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="AN8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="AO8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="AP8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="AQ8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="AR8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="AS8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="AT8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="AU8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="AV8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="AW8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="AX8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="AY8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="AZ8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="BA8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="V8" s="5" t="s">
+      <c r="BB8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="W8" s="5" t="s">
+      <c r="BC8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="X8" s="5" t="s">
+      <c r="BD8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="Y8" s="5" t="s">
+      <c r="BE8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="Z8" s="5" t="s">
+      <c r="BF8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA8" s="5" t="s">
+      <c r="BG8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AB8" s="5" t="s">
+      <c r="BH8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AC8" s="5" t="s">
+      <c r="BI8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AD8" s="5" t="s">
+      <c r="BJ8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AE8" s="5" t="s">
+      <c r="BK8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AF8" s="5" t="s">
+      <c r="BL8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AG8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AH8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AI8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AL8" s="5" t="s">
+      <c r="BM8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="BN8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="BO8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="BP8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="BQ8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="BR8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="BS8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="BT8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="BU8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="BV8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="BW8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="BX8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="BY8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="BZ8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="CA8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="CB8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="CC8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="CD8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="CE8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="CF8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="CG8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="CH8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="CI8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="CJ8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="CK8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="CL8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="CM8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="CN8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="CO8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="CP8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="CQ8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="CR8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="CS8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="CT8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="CU8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="CV8" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="AM8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AN8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AO8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AP8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AQ8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AR8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AS8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AT8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AU8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AV8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AW8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AX8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AY8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AZ8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BA8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BB8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BC8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BD8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BE8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BF8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BG8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BH8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BI8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BJ8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BK8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BL8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BM8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BN8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BO8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BP8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BQ8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BR8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BS8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BT8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BU8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BV8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BW8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BX8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BY8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="BZ8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CA8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CB8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CC8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CD8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CE8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CF8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CG8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CH8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CI8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CJ8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CK8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CL8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CM8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CN8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CO8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CP8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CQ8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CR8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CS8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CT8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CU8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CV8" s="5" t="s">
-        <v>273</v>
-      </c>
       <c r="CW8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="CX8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="CY8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="CZ8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DA8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DB8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DC8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DD8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DE8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DF8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DG8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DH8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DI8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DJ8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DK8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DL8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DM8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DN8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DO8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DP8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DQ8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DR8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DS8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DT8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DU8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DV8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DW8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DX8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DY8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="DZ8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="EA8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:131">
@@ -82809,7 +82809,7 @@
         <v>1613.6</v>
       </c>
       <c r="AL208" s="3">
-        <v>0</v>
+        <v>453.2</v>
       </c>
       <c r="AM208" s="3">
         <v>0</v>
